--- a/data/nzd0253/nzd0253.xlsx
+++ b/data/nzd0253/nzd0253.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W388"/>
+  <dimension ref="A1:W390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27848,6 +27848,156 @@
         </is>
       </c>
     </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-09 21:53:42+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>361.0633333333333</v>
+      </c>
+      <c r="C389" t="n">
+        <v>334.83</v>
+      </c>
+      <c r="D389" t="n">
+        <v>334.02</v>
+      </c>
+      <c r="E389" t="n">
+        <v>333.75</v>
+      </c>
+      <c r="F389" t="n">
+        <v>334.79</v>
+      </c>
+      <c r="G389" t="n">
+        <v>339.96</v>
+      </c>
+      <c r="H389" t="n">
+        <v>339.39</v>
+      </c>
+      <c r="I389" t="n">
+        <v>336.04</v>
+      </c>
+      <c r="J389" t="n">
+        <v>348.48</v>
+      </c>
+      <c r="K389" t="n">
+        <v>350.93</v>
+      </c>
+      <c r="L389" t="n">
+        <v>351.38</v>
+      </c>
+      <c r="M389" t="n">
+        <v>356.11</v>
+      </c>
+      <c r="N389" t="n">
+        <v>354.9</v>
+      </c>
+      <c r="O389" t="n">
+        <v>359.0533333333333</v>
+      </c>
+      <c r="P389" t="n">
+        <v>368.6033333333333</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>367.61</v>
+      </c>
+      <c r="R389" t="n">
+        <v>348.0284615384616</v>
+      </c>
+      <c r="S389" t="n">
+        <v>334.3828571428572</v>
+      </c>
+      <c r="T389" t="n">
+        <v>339.1184615384616</v>
+      </c>
+      <c r="U389" t="n">
+        <v>341.6384615384616</v>
+      </c>
+      <c r="V389" t="n">
+        <v>350.5466666666667</v>
+      </c>
+      <c r="W389" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:31+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>357.1066666666667</v>
+      </c>
+      <c r="C390" t="n">
+        <v>347.15</v>
+      </c>
+      <c r="D390" t="n">
+        <v>330.6799999999999</v>
+      </c>
+      <c r="E390" t="n">
+        <v>330.8</v>
+      </c>
+      <c r="F390" t="n">
+        <v>332.89</v>
+      </c>
+      <c r="G390" t="n">
+        <v>331.56</v>
+      </c>
+      <c r="H390" t="n">
+        <v>342.4136363636364</v>
+      </c>
+      <c r="I390" t="n">
+        <v>339.58</v>
+      </c>
+      <c r="J390" t="n">
+        <v>340.1036363636364</v>
+      </c>
+      <c r="K390" t="n">
+        <v>349.31</v>
+      </c>
+      <c r="L390" t="n">
+        <v>351.06</v>
+      </c>
+      <c r="M390" t="n">
+        <v>354.0936363636364</v>
+      </c>
+      <c r="N390" t="n">
+        <v>348.0736363636364</v>
+      </c>
+      <c r="O390" t="n">
+        <v>354.3166666666667</v>
+      </c>
+      <c r="P390" t="n">
+        <v>358.6766666666667</v>
+      </c>
+      <c r="Q390" t="n">
+        <v>353.2036363636363</v>
+      </c>
+      <c r="R390" t="n">
+        <v>343.9161538461539</v>
+      </c>
+      <c r="S390" t="n">
+        <v>338.5585714285714</v>
+      </c>
+      <c r="T390" t="n">
+        <v>340.3661538461538</v>
+      </c>
+      <c r="U390" t="n">
+        <v>340.5361538461539</v>
+      </c>
+      <c r="V390" t="n">
+        <v>342.3933333333333</v>
+      </c>
+      <c r="W390" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27859,7 +28009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B390"/>
+  <dimension ref="A1:B392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31767,6 +31917,26 @@
       </c>
       <c r="B390" t="n">
         <v>-0.45</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2025-02-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>-0.53</v>
       </c>
     </row>
   </sheetData>
@@ -31935,28 +32105,28 @@
         <v>0.06850000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1643593017352719</v>
+        <v>0.1819933858551869</v>
       </c>
       <c r="J2" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K2" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02222482864157083</v>
+        <v>0.02701385111103682</v>
       </c>
       <c r="M2" t="n">
-        <v>6.278624383112085</v>
+        <v>6.332986412841843</v>
       </c>
       <c r="N2" t="n">
-        <v>62.15586971935991</v>
+        <v>62.9406150021749</v>
       </c>
       <c r="O2" t="n">
-        <v>7.883899398099897</v>
+        <v>7.933512147981807</v>
       </c>
       <c r="P2" t="n">
-        <v>340.8030603580765</v>
+        <v>340.6360416459021</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -32012,28 +32182,28 @@
         <v>0.0521</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2132771482461701</v>
+        <v>0.2200186175007279</v>
       </c>
       <c r="J3" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K3" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03336853331372891</v>
+        <v>0.0357336135939762</v>
       </c>
       <c r="M3" t="n">
-        <v>6.451838488964657</v>
+        <v>6.455048925361689</v>
       </c>
       <c r="N3" t="n">
-        <v>69.14492381136708</v>
+        <v>69.13256799931186</v>
       </c>
       <c r="O3" t="n">
-        <v>8.315342675522583</v>
+        <v>8.314599689661064</v>
       </c>
       <c r="P3" t="n">
-        <v>330.0942748655441</v>
+        <v>330.0301919692142</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -32089,28 +32259,28 @@
         <v>0.0545</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2517082893907826</v>
+        <v>0.2503493850591835</v>
       </c>
       <c r="J4" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K4" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0411414732904728</v>
+        <v>0.04126541998606659</v>
       </c>
       <c r="M4" t="n">
-        <v>6.702364337506114</v>
+        <v>6.67324293127156</v>
       </c>
       <c r="N4" t="n">
-        <v>76.40152910454682</v>
+        <v>75.9924127249858</v>
       </c>
       <c r="O4" t="n">
-        <v>8.740796823204782</v>
+        <v>8.717362716153653</v>
       </c>
       <c r="P4" t="n">
-        <v>327.0191779987784</v>
+        <v>327.0321850941945</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -32166,28 +32336,28 @@
         <v>0.0579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2148579262459895</v>
+        <v>0.2167190924100368</v>
       </c>
       <c r="J5" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K5" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02517446091832432</v>
+        <v>0.02595239003370609</v>
       </c>
       <c r="M5" t="n">
-        <v>7.464430295490916</v>
+        <v>7.430284231435167</v>
       </c>
       <c r="N5" t="n">
-        <v>93.03157592757019</v>
+        <v>92.51918871533003</v>
       </c>
       <c r="O5" t="n">
-        <v>9.645287757634305</v>
+        <v>9.618689552913642</v>
       </c>
       <c r="P5" t="n">
-        <v>325.2899892169509</v>
+        <v>325.2721543090249</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -32243,28 +32413,28 @@
         <v>0.0527</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1953003977180587</v>
+        <v>0.2022034106484436</v>
       </c>
       <c r="J6" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K6" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02098050861236178</v>
+        <v>0.02272187063610009</v>
       </c>
       <c r="M6" t="n">
-        <v>7.530489688857754</v>
+        <v>7.520152742317294</v>
       </c>
       <c r="N6" t="n">
-        <v>92.80797227087257</v>
+        <v>92.4512036949307</v>
       </c>
       <c r="O6" t="n">
-        <v>9.633689442309866</v>
+        <v>9.615154897084638</v>
       </c>
       <c r="P6" t="n">
-        <v>323.2715077930842</v>
+        <v>323.2048960646536</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -32320,28 +32490,28 @@
         <v>0.0552</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2090325272175922</v>
+        <v>0.2175374947867472</v>
       </c>
       <c r="J7" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K7" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02187158089727015</v>
+        <v>0.02387387727173751</v>
       </c>
       <c r="M7" t="n">
-        <v>7.770983209872408</v>
+        <v>7.76576642320703</v>
       </c>
       <c r="N7" t="n">
-        <v>100.8170786800433</v>
+        <v>100.6237901472557</v>
       </c>
       <c r="O7" t="n">
-        <v>10.04077082100987</v>
+        <v>10.03114101920892</v>
       </c>
       <c r="P7" t="n">
-        <v>323.3662312416131</v>
+        <v>323.2835250480193</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -32397,28 +32567,28 @@
         <v>0.0615</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09937328558516222</v>
+        <v>0.1128987959634322</v>
       </c>
       <c r="J8" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K8" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005330060684691884</v>
+        <v>0.006911965597478198</v>
       </c>
       <c r="M8" t="n">
-        <v>7.604737056047949</v>
+        <v>7.626965000466585</v>
       </c>
       <c r="N8" t="n">
-        <v>93.92069618533904</v>
+        <v>94.08791458302626</v>
       </c>
       <c r="O8" t="n">
-        <v>9.691269069907152</v>
+        <v>9.699892503684062</v>
       </c>
       <c r="P8" t="n">
-        <v>327.2385386996706</v>
+        <v>327.1059537963794</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -32474,28 +32644,28 @@
         <v>0.0566</v>
       </c>
       <c r="I9" t="n">
-        <v>0.208348762864998</v>
+        <v>0.214902967590538</v>
       </c>
       <c r="J9" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K9" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02470830391652934</v>
+        <v>0.02655542658667087</v>
       </c>
       <c r="M9" t="n">
-        <v>7.560114973702246</v>
+        <v>7.547421387887183</v>
       </c>
       <c r="N9" t="n">
-        <v>88.22786153908135</v>
+        <v>87.89481138438069</v>
       </c>
       <c r="O9" t="n">
-        <v>9.392968728739671</v>
+        <v>9.375223271174969</v>
       </c>
       <c r="P9" t="n">
-        <v>327.209417834745</v>
+        <v>327.1457062602594</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -32551,28 +32721,28 @@
         <v>0.0644</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1879863013164162</v>
+        <v>0.1982948121255772</v>
       </c>
       <c r="J10" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K10" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0149517036045016</v>
+        <v>0.01676652030927928</v>
       </c>
       <c r="M10" t="n">
-        <v>8.61145482522482</v>
+        <v>8.609228834131191</v>
       </c>
       <c r="N10" t="n">
-        <v>122.4579207003377</v>
+        <v>122.2652471376793</v>
       </c>
       <c r="O10" t="n">
-        <v>11.06607069832547</v>
+        <v>11.05736167165022</v>
       </c>
       <c r="P10" t="n">
-        <v>330.9723662145119</v>
+        <v>330.8736418517398</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -32628,28 +32798,28 @@
         <v>0.0581</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1147513944643847</v>
+        <v>0.1279408924677404</v>
       </c>
       <c r="J11" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K11" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004767067362202004</v>
+        <v>0.005973088803657878</v>
       </c>
       <c r="M11" t="n">
-        <v>9.377647011201645</v>
+        <v>9.378449533343597</v>
       </c>
       <c r="N11" t="n">
-        <v>144.3671985213521</v>
+        <v>144.2190731668838</v>
       </c>
       <c r="O11" t="n">
-        <v>12.01529019713432</v>
+        <v>12.00912457953883</v>
       </c>
       <c r="P11" t="n">
-        <v>336.2442740003041</v>
+        <v>336.118230881104</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -32705,28 +32875,28 @@
         <v>0.0551</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1572302034333126</v>
+        <v>0.1687623607568668</v>
       </c>
       <c r="J12" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K12" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L12" t="n">
-        <v>0.009123099844571825</v>
+        <v>0.01060423438186575</v>
       </c>
       <c r="M12" t="n">
-        <v>9.376878966734914</v>
+        <v>9.372385037012737</v>
       </c>
       <c r="N12" t="n">
-        <v>140.3707526537004</v>
+        <v>140.0724407790342</v>
       </c>
       <c r="O12" t="n">
-        <v>11.84781636647447</v>
+        <v>11.83522035194251</v>
       </c>
       <c r="P12" t="n">
-        <v>337.7396696704651</v>
+        <v>337.6292913057216</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -32782,28 +32952,28 @@
         <v>0.059</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1629851342552381</v>
+        <v>0.1715667667911399</v>
       </c>
       <c r="J13" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K13" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01061071133952529</v>
+        <v>0.01188239451422934</v>
       </c>
       <c r="M13" t="n">
-        <v>8.966473056629008</v>
+        <v>8.953579828608696</v>
       </c>
       <c r="N13" t="n">
-        <v>128.4416054841539</v>
+        <v>127.9861669066832</v>
       </c>
       <c r="O13" t="n">
-        <v>11.33320808439314</v>
+        <v>11.31309714033621</v>
       </c>
       <c r="P13" t="n">
-        <v>343.9631361616863</v>
+        <v>343.8804576341361</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -32859,28 +33029,28 @@
         <v>0.0597</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08995430540533909</v>
+        <v>0.09537514206369101</v>
       </c>
       <c r="J14" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K14" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003942420316470296</v>
+        <v>0.004485495976431442</v>
       </c>
       <c r="M14" t="n">
-        <v>8.183020905721328</v>
+        <v>8.159228602583346</v>
       </c>
       <c r="N14" t="n">
-        <v>106.7893592325479</v>
+        <v>106.3446747345616</v>
       </c>
       <c r="O14" t="n">
-        <v>10.33389371111141</v>
+        <v>10.31235544066251</v>
       </c>
       <c r="P14" t="n">
-        <v>344.8286372791952</v>
+        <v>344.7766946864129</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -32936,28 +33106,28 @@
         <v>0.0641</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08386974732536032</v>
+        <v>0.09056712193156577</v>
       </c>
       <c r="J15" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K15" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003894478966047776</v>
+        <v>0.00459844328934611</v>
       </c>
       <c r="M15" t="n">
-        <v>7.94850109646832</v>
+        <v>7.929412178272495</v>
       </c>
       <c r="N15" t="n">
-        <v>95.45838429633791</v>
+        <v>95.05361346349912</v>
       </c>
       <c r="O15" t="n">
-        <v>9.77028066620084</v>
+        <v>9.749544269528659</v>
       </c>
       <c r="P15" t="n">
-        <v>349.4812908129749</v>
+        <v>349.4178577275656</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -33013,28 +33183,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.001534166025149903</v>
+        <v>0.002474136883163159</v>
       </c>
       <c r="J16" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K16" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L16" t="n">
-        <v>1.325515099681596e-06</v>
+        <v>3.487713637007062e-06</v>
       </c>
       <c r="M16" t="n">
-        <v>7.708761294305268</v>
+        <v>7.694238959793096</v>
       </c>
       <c r="N16" t="n">
-        <v>92.51357068240375</v>
+        <v>92.1965410274032</v>
       </c>
       <c r="O16" t="n">
-        <v>9.618397511145178</v>
+        <v>9.601902989897534</v>
       </c>
       <c r="P16" t="n">
-        <v>360.3346004690608</v>
+        <v>360.2962921075502</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -33090,28 +33260,28 @@
         <v>0.0583</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03760095306692256</v>
+        <v>0.04503011770026247</v>
       </c>
       <c r="J17" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K17" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000807283528791225</v>
+        <v>0.001167171314225501</v>
       </c>
       <c r="M17" t="n">
-        <v>7.587257121192516</v>
+        <v>7.58638197270531</v>
       </c>
       <c r="N17" t="n">
-        <v>90.26170882775268</v>
+        <v>90.25586467762047</v>
       </c>
       <c r="O17" t="n">
-        <v>9.500616234105696</v>
+        <v>9.500308662228846</v>
       </c>
       <c r="P17" t="n">
-        <v>353.279209058448</v>
+        <v>353.2079922569898</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -33167,28 +33337,28 @@
         <v>0.0673</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08444321024616766</v>
+        <v>0.08510555519828912</v>
       </c>
       <c r="J18" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K18" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L18" t="n">
-        <v>0.006696108840513304</v>
+        <v>0.006892951314192097</v>
       </c>
       <c r="M18" t="n">
-        <v>5.743178121582682</v>
+        <v>5.722605574581273</v>
       </c>
       <c r="N18" t="n">
-        <v>55.51906586170244</v>
+        <v>55.23343286809428</v>
       </c>
       <c r="O18" t="n">
-        <v>7.451111719851101</v>
+        <v>7.431919864213707</v>
       </c>
       <c r="P18" t="n">
-        <v>343.2643359513146</v>
+        <v>343.2580805668291</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -33244,28 +33414,28 @@
         <v>0.078</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08851284756593722</v>
+        <v>0.08774566332361758</v>
       </c>
       <c r="J19" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K19" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L19" t="n">
-        <v>0.007243815936289977</v>
+        <v>0.007218539174908112</v>
       </c>
       <c r="M19" t="n">
-        <v>6.128255221494134</v>
+        <v>6.10381465866991</v>
       </c>
       <c r="N19" t="n">
-        <v>58.27262069509123</v>
+        <v>57.95102104802559</v>
       </c>
       <c r="O19" t="n">
-        <v>7.633650548400237</v>
+        <v>7.612556800972036</v>
       </c>
       <c r="P19" t="n">
-        <v>334.8289918263587</v>
+        <v>334.8361443584558</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -33321,28 +33491,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1978199101904419</v>
+        <v>0.198909430098144</v>
       </c>
       <c r="J20" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K20" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03616191120272971</v>
+        <v>0.03705636022005854</v>
       </c>
       <c r="M20" t="n">
-        <v>5.794260566073172</v>
+        <v>5.764410331145532</v>
       </c>
       <c r="N20" t="n">
-        <v>56.4437093933276</v>
+        <v>56.10940272208946</v>
       </c>
       <c r="O20" t="n">
-        <v>7.512902860634337</v>
+        <v>7.490620983742901</v>
       </c>
       <c r="P20" t="n">
-        <v>333.8257291867582</v>
+        <v>333.8155125421799</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -33398,28 +33568,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3918353301327946</v>
+        <v>0.3919919553355473</v>
       </c>
       <c r="J21" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K21" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1258345388529282</v>
+        <v>0.1275124870522644</v>
       </c>
       <c r="M21" t="n">
-        <v>5.883033471973979</v>
+        <v>5.851844710768499</v>
       </c>
       <c r="N21" t="n">
-        <v>56.96279182402147</v>
+        <v>56.63062943304682</v>
       </c>
       <c r="O21" t="n">
-        <v>7.547369861350473</v>
+        <v>7.525332513121717</v>
       </c>
       <c r="P21" t="n">
-        <v>330.953391276855</v>
+        <v>330.9519254962786</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -33475,28 +33645,28 @@
         <v>0.0833</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3182166159782145</v>
+        <v>0.3216813469337341</v>
       </c>
       <c r="J22" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K22" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L22" t="n">
-        <v>0.06455946029368942</v>
+        <v>0.06663417425041962</v>
       </c>
       <c r="M22" t="n">
-        <v>6.882746850231521</v>
+        <v>6.868388522056336</v>
       </c>
       <c r="N22" t="n">
-        <v>77.34073994651146</v>
+        <v>77.04250458412018</v>
       </c>
       <c r="O22" t="n">
-        <v>8.794358415854534</v>
+        <v>8.777385976708565</v>
       </c>
       <c r="P22" t="n">
-        <v>335.4822081267542</v>
+        <v>335.4494048884422</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -33533,7 +33703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W388"/>
+  <dimension ref="A1:W390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75477,6 +75647,240 @@
         </is>
       </c>
     </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-09 21:53:42+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>-38.274404584437505,178.33060139957811</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>-38.27515584355481,178.33064224511324</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>-38.27581861791408,178.33095035764944</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>-38.276479506962595,178.3312641470361</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>-38.27713496121551,178.33159133710566</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>-38.277777432330076,178.33195403159493</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>-38.27844402704623,178.33224316827855</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>-38.279120894829134,178.33250321885467</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>-38.279748213128265,178.33293152282724</t>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>-38.28039410568172,178.33329926275115</t>
+        </is>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>-38.2810249298753,178.33370616453928</t>
+        </is>
+      </c>
+      <c r="M389" t="inlineStr">
+        <is>
+          <t>-38.28163631516563,178.33415461216077</t>
+        </is>
+      </c>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>-38.28222144637269,178.33465731655835</t>
+        </is>
+      </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>-38.28277066437543,178.33522004178292</t>
+        </is>
+      </c>
+      <c r="P389" t="inlineStr">
+        <is>
+          <t>-38.28328257758299,178.33582100316542</t>
+        </is>
+      </c>
+      <c r="Q389" t="inlineStr">
+        <is>
+          <t>-38.2837550234128,178.3364661625322</t>
+        </is>
+      </c>
+      <c r="R389" t="inlineStr">
+        <is>
+          <t>-38.28435451467249,178.33699942989497</t>
+        </is>
+      </c>
+      <c r="S389" t="inlineStr">
+        <is>
+          <t>-38.284926063211444,178.33754758903166</t>
+        </is>
+      </c>
+      <c r="T389" t="inlineStr">
+        <is>
+          <t>-38.285397738464965,178.3382248595138</t>
+        </is>
+      </c>
+      <c r="U389" t="inlineStr">
+        <is>
+          <t>-38.285826903767244,178.33895777364083</t>
+        </is>
+      </c>
+      <c r="V389" t="inlineStr">
+        <is>
+          <t>-38.28612204812925,178.339788361698</t>
+        </is>
+      </c>
+      <c r="W389" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:31+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>-38.27441835454564,178.33055980449132</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>-38.27511296703891,178.3307717622932</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>-38.27583024195613,178.33091524474048</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>-38.27648977377394,178.3312331339031</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>-38.27714150223616,178.33157132452288</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>-38.277805482174614,178.33186510539863</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>-38.27843412940571,178.33227527804348</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>-38.27910930684336,178.33254081249189</t>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>-38.279777546636346,178.33284355595646</t>
+        </is>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>-38.28040062708142,178.33328274622318</t>
+        </is>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>-38.28102631128448,178.33370296396785</t>
+        </is>
+      </c>
+      <c r="M390" t="inlineStr">
+        <is>
+          <t>-38.2816461583221,178.33413530592128</t>
+        </is>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>-38.28225880504776,178.33459556631036</t>
+        </is>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>-38.28279683062518,178.33517743359153</t>
+        </is>
+      </c>
+      <c r="P390" t="inlineStr">
+        <is>
+          <t>-38.283344486314625,178.33573948821387</t>
+        </is>
+      </c>
+      <c r="Q390" t="inlineStr">
+        <is>
+          <t>-38.28385487598956,178.33636156742185</t>
+        </is>
+      </c>
+      <c r="R390" t="inlineStr">
+        <is>
+          <t>-38.28438280437374,178.33696924819182</t>
+        </is>
+      </c>
+      <c r="S390" t="inlineStr">
+        <is>
+          <t>-38.28489815735485,178.33757943248858</t>
+        </is>
+      </c>
+      <c r="T390" t="inlineStr">
+        <is>
+          <t>-38.285389098330384,178.33823393031355</t>
+        </is>
+      </c>
+      <c r="U390" t="inlineStr">
+        <is>
+          <t>-38.28583526683236,178.33895103323826</t>
+        </is>
+      </c>
+      <c r="V390" t="inlineStr">
+        <is>
+          <t>-38.286186415143135,178.33974391057572</t>
+        </is>
+      </c>
+      <c r="W390" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0253/nzd0253.xlsx
+++ b/data/nzd0253/nzd0253.xlsx
@@ -31950,7 +31950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32041,35 +32041,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -32128,27 +32133,28 @@
       <c r="P2" t="n">
         <v>340.6360416459021</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (178.32680559299837 -38.27566111131736, 178.33642058083208 -38.27247794567214)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>178.3268055929984</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-38.27566111131736</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>178.3364205808321</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-38.27247794567214</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>178.3316130869152</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-38.27406952849475</v>
       </c>
     </row>
@@ -32205,27 +32211,28 @@
       <c r="P3" t="n">
         <v>330.0301919692142</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (178.32712219436146 -38.276321080365825, 178.3367372252096 -38.273137903484084)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>178.3271221943615</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-38.27632108036583</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>178.3367372252096</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-38.27313790348408</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>178.3319297097855</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-38.27472949192496</v>
       </c>
     </row>
@@ -32282,27 +32289,28 @@
       <c r="P4" t="n">
         <v>327.0321850941945</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (178.32743879572436 -38.276981043416264, 178.33705386958738 -38.27379785529759)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>178.3274387957244</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-38.27698104341626</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>178.3370538695874</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-38.27379785529759</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>178.3322463326559</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-38.27538944935692</v>
       </c>
     </row>
@@ -32359,27 +32367,28 @@
       <c r="P5" t="n">
         <v>325.2721543090249</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (178.327755397087 -38.27764100046859, 178.33737051396562 -38.27445780111251)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>178.327755397087</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-38.27764100046859</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>178.3373705139656</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-38.27445780111251</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>178.3325629555263</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-38.27604940079055</v>
       </c>
     </row>
@@ -32436,27 +32445,28 @@
       <c r="P6" t="n">
         <v>323.2048960646536</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (178.32806495381953 -38.278287474501106, 178.33769838931718 -38.27513869084759)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>178.3280649538195</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-38.27828747450111</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>178.3376983893172</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-38.27513869084759</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>178.3328816715684</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-38.27671308267435</v>
       </c>
     </row>
@@ -32513,27 +32523,28 @@
       <c r="P7" t="n">
         <v>323.2835250480193</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (178.3283550011172 -38.278912599426256, 178.33803747062476 -38.27585833743526)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>178.3283550011172</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-38.27891259942626</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>178.3380374706248</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-38.27585833743526</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>178.333196235871</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-38.27738546843076</v>
       </c>
     </row>
@@ -32590,27 +32601,28 @@
       <c r="P8" t="n">
         <v>327.1059537963794</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (178.32863892586906 -38.27955494188994, 178.33835174810056 -38.27656089310107)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>178.3286389258691</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-38.27955494188994</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>178.3383517481006</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-38.27656089310107</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>178.3334953369848</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-38.2780579174955</v>
       </c>
     </row>
@@ -32667,27 +32679,28 @@
       <c r="P9" t="n">
         <v>327.1457062602594</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (178.32893452424855 -38.28022085116811, 178.3386473919903 -38.27722679140077)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>178.3289345242486</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-38.28022085116811</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>178.3386473919903</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-38.27722679140077</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>178.3337909581194</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-38.27872382128444</v>
       </c>
     </row>
@@ -32744,27 +32757,28 @@
       <c r="P10" t="n">
         <v>330.8736418517398</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (178.32927179109535 -38.280968516866935, 178.33887656715717 -38.27776557176779)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>178.3292717910954</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-38.28096851686693</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>178.3388765671572</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-38.27776557176779</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>178.3340741791263</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-38.27936704431736</v>
       </c>
     </row>
@@ -32821,27 +32835,28 @@
       <c r="P11" t="n">
         <v>336.118230881104</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (178.32972132117803 -38.281806744192075, 178.3390451965139 -38.278125171306954)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>178.329721321178</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-38.28180674419207</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>178.3390451965139</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-38.27812517130695</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>178.3343832588459</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-38.27996595774951</v>
       </c>
     </row>
@@ -32898,27 +32913,28 @@
       <c r="P12" t="n">
         <v>337.6292913057216</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (178.33019165926984 -38.282541755843354, 178.33933806729783 -38.2785939169409)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>178.3301916592698</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-38.28254175584335</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>178.3393380672978</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-38.2785939169409</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>178.3347648632839</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-38.28056783639212</v>
       </c>
     </row>
@@ -32975,27 +32991,28 @@
       <c r="P13" t="n">
         <v>343.8804576341361</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (178.33074485236588 -38.283374671362964, 178.33949995388946 -38.27891081298748)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>178.3307448523659</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-38.28337467136296</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>178.3394999538895</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-38.27891081298748</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>178.3351224031277</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-38.28114274217522</v>
       </c>
     </row>
@@ -33052,27 +33069,28 @@
       <c r="P14" t="n">
         <v>344.7766946864129</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (178.3314468586603 -38.28416367206647, 178.3397173889864 -38.27915989116694)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>178.3314468586603</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-38.28416367206647</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>178.3397173889864</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-38.27915989116694</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>178.3355821238234</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-38.28166178161671</v>
       </c>
     </row>
@@ -33129,27 +33147,28 @@
       <c r="P15" t="n">
         <v>349.4178577275656</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (178.3319901257087 -38.284754105502515, 178.3402144309041 -38.27970331781327)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>178.3319901257087</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-38.28475410550251</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>178.3402144309041</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-38.27970331781327</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>178.3361022783064</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-38.28222871165789</v>
       </c>
     </row>
@@ -33206,27 +33225,28 @@
       <c r="P16" t="n">
         <v>360.2962921075502</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (178.33279404415163 -38.28558138054377, 178.34030071921802 -38.279880100590944)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>178.3327940441516</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-38.28558138054377</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>178.340300719218</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-38.27988010059094</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>178.3365473816848</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-38.28273074056736</v>
       </c>
     </row>
@@ -33283,27 +33303,28 @@
       <c r="P17" t="n">
         <v>353.2079922569898</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (178.33379710011138 -38.28630295809266, 178.34043298393766 -38.27996781112592)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>178.3337971001114</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-38.28630295809266</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>178.3404329839377</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-38.27996781112592</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>178.3371150420245</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-38.2831353846093</v>
       </c>
     </row>
@@ -33360,27 +33381,28 @@
       <c r="P18" t="n">
         <v>343.2580805668291</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (178.3344450419939 -38.28674867682837, 178.34115320192333 -38.28046086431711)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>178.3344450419939</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-38.28674867682837</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>178.3411532019233</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-38.28046086431711</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>178.3377991219586</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-38.28360477057274</v>
       </c>
     </row>
@@ -33437,27 +33459,28 @@
       <c r="P19" t="n">
         <v>334.8361443584558</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (178.33499754981682 -38.28716068579769, 178.34196788578885 -38.28105208771123)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>178.3349975498168</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-38.28716068579769</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>178.3419678857888</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-38.28105208771123</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>178.3384827178028</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-38.28410638675446</v>
       </c>
     </row>
@@ -33514,27 +33537,28 @@
       <c r="P20" t="n">
         <v>333.8155125421799</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (178.33575936870574 -38.28774607665375, 178.34240407884081 -38.281416667892834)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>178.3357593687057</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-38.28774607665375</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>178.3424040788408</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-38.28141666789283</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>178.3390817237733</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-38.28458137227329</v>
       </c>
     </row>
@@ -33591,27 +33615,28 @@
       <c r="P21" t="n">
         <v>330.9519254962786</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (178.33686864799316 -38.28841885680985, 178.3424565035961 -38.28148561367157)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>178.3368686479932</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-38.28841885680985</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>178.3424565035961</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-38.28148561367157</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>178.3396625757946</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-38.28495223524071</v>
       </c>
     </row>
@@ -33668,27 +33693,28 @@
       <c r="P22" t="n">
         <v>335.4494048884422</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (178.33787715085717 -38.28888945086145, 178.34285878782444 -38.28167565943077)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>178.3378771508572</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-38.28888945086145</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>178.3428587878244</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-38.28167565943077</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>178.3403679693408</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-38.28528255514611</v>
       </c>
     </row>

--- a/data/nzd0253/nzd0253.xlsx
+++ b/data/nzd0253/nzd0253.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W390"/>
+  <dimension ref="A1:W394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27998,6 +27998,306 @@
         </is>
       </c>
     </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:53:44+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>329.7166666666667</v>
+      </c>
+      <c r="C391" t="n">
+        <v>327.33</v>
+      </c>
+      <c r="D391" t="n">
+        <v>319.44</v>
+      </c>
+      <c r="E391" t="n">
+        <v>315.89</v>
+      </c>
+      <c r="F391" t="n">
+        <v>311.97</v>
+      </c>
+      <c r="G391" t="n">
+        <v>315.93</v>
+      </c>
+      <c r="H391" t="n">
+        <v>312.3909090909091</v>
+      </c>
+      <c r="I391" t="n">
+        <v>313.36</v>
+      </c>
+      <c r="J391" t="n">
+        <v>314.2609090909091</v>
+      </c>
+      <c r="K391" t="n">
+        <v>328.7</v>
+      </c>
+      <c r="L391" t="n">
+        <v>335.71</v>
+      </c>
+      <c r="M391" t="n">
+        <v>337.0109090909091</v>
+      </c>
+      <c r="N391" t="n">
+        <v>335.050909090909</v>
+      </c>
+      <c r="O391" t="n">
+        <v>338.4466666666667</v>
+      </c>
+      <c r="P391" t="n">
+        <v>339.0866666666667</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>336.3309090909091</v>
+      </c>
+      <c r="R391" t="n">
+        <v>334.7846153846153</v>
+      </c>
+      <c r="S391" t="n">
+        <v>321.7542857142857</v>
+      </c>
+      <c r="T391" t="n">
+        <v>328.2046153846153</v>
+      </c>
+      <c r="U391" t="n">
+        <v>330.2846153846153</v>
+      </c>
+      <c r="V391" t="n">
+        <v>331.3633333333333</v>
+      </c>
+      <c r="W391" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>347.7366666666667</v>
+      </c>
+      <c r="C392" t="n">
+        <v>340.97</v>
+      </c>
+      <c r="D392" t="n">
+        <v>336.72</v>
+      </c>
+      <c r="E392" t="n">
+        <v>330.23</v>
+      </c>
+      <c r="F392" t="n">
+        <v>328.05</v>
+      </c>
+      <c r="G392" t="n">
+        <v>332.38</v>
+      </c>
+      <c r="H392" t="n">
+        <v>332.0609090909091</v>
+      </c>
+      <c r="I392" t="n">
+        <v>337.56</v>
+      </c>
+      <c r="J392" t="n">
+        <v>341.7609090909091</v>
+      </c>
+      <c r="K392" t="n">
+        <v>345.43</v>
+      </c>
+      <c r="L392" t="n">
+        <v>346.37</v>
+      </c>
+      <c r="M392" t="n">
+        <v>352.1909090909091</v>
+      </c>
+      <c r="N392" t="n">
+        <v>352.6409090909091</v>
+      </c>
+      <c r="O392" t="n">
+        <v>359.7166666666667</v>
+      </c>
+      <c r="P392" t="n">
+        <v>362.7166666666667</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>350.0709090909091</v>
+      </c>
+      <c r="R392" t="n">
+        <v>337.3376923076923</v>
+      </c>
+      <c r="S392" t="n">
+        <v>330.32</v>
+      </c>
+      <c r="T392" t="n">
+        <v>335.1476923076923</v>
+      </c>
+      <c r="U392" t="n">
+        <v>334.9176923076923</v>
+      </c>
+      <c r="V392" t="n">
+        <v>340.5233333333334</v>
+      </c>
+      <c r="W392" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:53:19+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>362.44</v>
+      </c>
+      <c r="C393" t="n">
+        <v>353.61</v>
+      </c>
+      <c r="D393" t="n">
+        <v>338.69</v>
+      </c>
+      <c r="E393" t="n">
+        <v>338.51</v>
+      </c>
+      <c r="F393" t="n">
+        <v>336.4</v>
+      </c>
+      <c r="G393" t="n">
+        <v>341.13</v>
+      </c>
+      <c r="H393" t="n">
+        <v>342.2872727272728</v>
+      </c>
+      <c r="I393" t="n">
+        <v>340.52</v>
+      </c>
+      <c r="J393" t="n">
+        <v>344.1272727272727</v>
+      </c>
+      <c r="K393" t="n">
+        <v>355.64</v>
+      </c>
+      <c r="L393" t="n">
+        <v>350.25</v>
+      </c>
+      <c r="M393" t="n">
+        <v>358.6672727272727</v>
+      </c>
+      <c r="N393" t="n">
+        <v>356.9072727272728</v>
+      </c>
+      <c r="O393" t="n">
+        <v>360.71</v>
+      </c>
+      <c r="P393" t="n">
+        <v>368.87</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>358.2272727272727</v>
+      </c>
+      <c r="R393" t="n">
+        <v>342.6507692307692</v>
+      </c>
+      <c r="S393" t="n">
+        <v>340.4285714285714</v>
+      </c>
+      <c r="T393" t="n">
+        <v>338.2607692307692</v>
+      </c>
+      <c r="U393" t="n">
+        <v>341.4207692307692</v>
+      </c>
+      <c r="V393" t="n">
+        <v>340.06</v>
+      </c>
+      <c r="W393" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:53:31+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>356.3666666666667</v>
+      </c>
+      <c r="C394" t="n">
+        <v>340.08</v>
+      </c>
+      <c r="D394" t="n">
+        <v>336.06</v>
+      </c>
+      <c r="E394" t="n">
+        <v>331.29</v>
+      </c>
+      <c r="F394" t="n">
+        <v>328.59</v>
+      </c>
+      <c r="G394" t="n">
+        <v>333.62</v>
+      </c>
+      <c r="H394" t="n">
+        <v>334.6481818181818</v>
+      </c>
+      <c r="I394" t="n">
+        <v>333.36</v>
+      </c>
+      <c r="J394" t="n">
+        <v>337.3981818181818</v>
+      </c>
+      <c r="K394" t="n">
+        <v>345.42</v>
+      </c>
+      <c r="L394" t="n">
+        <v>345.4</v>
+      </c>
+      <c r="M394" t="n">
+        <v>351.6581818181818</v>
+      </c>
+      <c r="N394" t="n">
+        <v>352.0081818181818</v>
+      </c>
+      <c r="O394" t="n">
+        <v>353.8766666666667</v>
+      </c>
+      <c r="P394" t="n">
+        <v>360.8866666666667</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>354.2081818181818</v>
+      </c>
+      <c r="R394" t="n">
+        <v>342.6015384615384</v>
+      </c>
+      <c r="S394" t="n">
+        <v>334.6142857142857</v>
+      </c>
+      <c r="T394" t="n">
+        <v>333.0715384615385</v>
+      </c>
+      <c r="U394" t="n">
+        <v>334.9615384615385</v>
+      </c>
+      <c r="V394" t="n">
+        <v>337.4633333333333</v>
+      </c>
+      <c r="W394" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28009,7 +28309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B392"/>
+  <dimension ref="A1:B396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31937,6 +32237,46 @@
       </c>
       <c r="B392" t="n">
         <v>-0.53</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>-0.23</v>
       </c>
     </row>
   </sheetData>
@@ -32110,28 +32450,28 @@
         <v>0.06850000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1819933858551869</v>
+        <v>0.1912038052846222</v>
       </c>
       <c r="J2" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K2" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02701385111103682</v>
+        <v>0.02969273836918485</v>
       </c>
       <c r="M2" t="n">
-        <v>6.332986412841843</v>
+        <v>6.397030725447878</v>
       </c>
       <c r="N2" t="n">
-        <v>62.9406150021749</v>
+        <v>64.11003111097548</v>
       </c>
       <c r="O2" t="n">
-        <v>7.933512147981807</v>
+        <v>8.006873991201278</v>
       </c>
       <c r="P2" t="n">
-        <v>340.6360416459021</v>
+        <v>340.5480896881434</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32188,28 +32528,28 @@
         <v>0.0521</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2200186175007279</v>
+        <v>0.2316176838994687</v>
       </c>
       <c r="J3" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K3" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0357336135939762</v>
+        <v>0.03982974376106507</v>
       </c>
       <c r="M3" t="n">
-        <v>6.455048925361689</v>
+        <v>6.491161641986094</v>
       </c>
       <c r="N3" t="n">
-        <v>69.13256799931186</v>
+        <v>69.58139711019571</v>
       </c>
       <c r="O3" t="n">
-        <v>8.314599689661064</v>
+        <v>8.341546445965262</v>
       </c>
       <c r="P3" t="n">
-        <v>330.0301919692142</v>
+        <v>329.9194038001966</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32266,28 +32606,28 @@
         <v>0.0545</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2503493850591835</v>
+        <v>0.248667225467404</v>
       </c>
       <c r="J4" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K4" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04126541998606659</v>
+        <v>0.04148416411079092</v>
       </c>
       <c r="M4" t="n">
-        <v>6.67324293127156</v>
+        <v>6.668202916163264</v>
       </c>
       <c r="N4" t="n">
-        <v>75.9924127249858</v>
+        <v>75.81576761552255</v>
       </c>
       <c r="O4" t="n">
-        <v>8.717362716153653</v>
+        <v>8.7072250238249</v>
       </c>
       <c r="P4" t="n">
-        <v>327.0321850941945</v>
+        <v>327.048115416644</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32344,28 +32684,28 @@
         <v>0.0579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2167190924100368</v>
+        <v>0.2123085529923742</v>
       </c>
       <c r="J5" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K5" t="n">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02595239003370609</v>
+        <v>0.02540213810536995</v>
       </c>
       <c r="M5" t="n">
-        <v>7.430284231435167</v>
+        <v>7.412244055999236</v>
       </c>
       <c r="N5" t="n">
-        <v>92.51918871533003</v>
+        <v>92.26700378135563</v>
       </c>
       <c r="O5" t="n">
-        <v>9.618689552913642</v>
+        <v>9.605571496863455</v>
       </c>
       <c r="P5" t="n">
-        <v>325.2721543090249</v>
+        <v>325.3144017258388</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32422,28 +32762,28 @@
         <v>0.0527</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2022034106484436</v>
+        <v>0.197130360052573</v>
       </c>
       <c r="J6" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K6" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02272187063610009</v>
+        <v>0.02198371649859687</v>
       </c>
       <c r="M6" t="n">
-        <v>7.520152742317294</v>
+        <v>7.504640222821084</v>
       </c>
       <c r="N6" t="n">
-        <v>92.4512036949307</v>
+        <v>92.34492858829086</v>
       </c>
       <c r="O6" t="n">
-        <v>9.615154897084638</v>
+        <v>9.609626870398811</v>
       </c>
       <c r="P6" t="n">
-        <v>323.2048960646536</v>
+        <v>323.253809288674</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32500,28 +32840,28 @@
         <v>0.0552</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2175374947867472</v>
+        <v>0.2220559658661537</v>
       </c>
       <c r="J7" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K7" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02387387727173751</v>
+        <v>0.0252633534957285</v>
       </c>
       <c r="M7" t="n">
-        <v>7.76576642320703</v>
+        <v>7.771580481671359</v>
       </c>
       <c r="N7" t="n">
-        <v>100.6237901472557</v>
+        <v>100.4826068468034</v>
       </c>
       <c r="O7" t="n">
-        <v>10.03114101920892</v>
+        <v>10.02410129871019</v>
       </c>
       <c r="P7" t="n">
-        <v>323.2835250480193</v>
+        <v>323.2391348388367</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32578,28 +32918,28 @@
         <v>0.0615</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1128987959634322</v>
+        <v>0.113783610937999</v>
       </c>
       <c r="J8" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K8" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006911965597478198</v>
+        <v>0.007106809520514012</v>
       </c>
       <c r="M8" t="n">
-        <v>7.626965000466585</v>
+        <v>7.644043404661952</v>
       </c>
       <c r="N8" t="n">
-        <v>94.08791458302626</v>
+        <v>94.39419214242979</v>
       </c>
       <c r="O8" t="n">
-        <v>9.699892503684062</v>
+        <v>9.71566735445537</v>
       </c>
       <c r="P8" t="n">
-        <v>327.1059537963794</v>
+        <v>327.0969376728235</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32656,28 +32996,28 @@
         <v>0.0566</v>
       </c>
       <c r="I9" t="n">
-        <v>0.214902967590538</v>
+        <v>0.211462391244681</v>
       </c>
       <c r="J9" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K9" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02655542658667087</v>
+        <v>0.02605109826857155</v>
       </c>
       <c r="M9" t="n">
-        <v>7.547421387887183</v>
+        <v>7.554776605914525</v>
       </c>
       <c r="N9" t="n">
-        <v>87.89481138438069</v>
+        <v>88.19777800943586</v>
       </c>
       <c r="O9" t="n">
-        <v>9.375223271174969</v>
+        <v>9.391367206612458</v>
       </c>
       <c r="P9" t="n">
-        <v>327.1457062602594</v>
+        <v>327.1789966652058</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32734,28 +33074,28 @@
         <v>0.0644</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1982948121255772</v>
+        <v>0.1946697600528386</v>
       </c>
       <c r="J10" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K10" t="n">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01676652030927928</v>
+        <v>0.01638854029233294</v>
       </c>
       <c r="M10" t="n">
-        <v>8.609228834131191</v>
+        <v>8.617611348008856</v>
       </c>
       <c r="N10" t="n">
-        <v>122.2652471376793</v>
+        <v>122.5006083000647</v>
       </c>
       <c r="O10" t="n">
-        <v>11.05736167165022</v>
+        <v>11.067999290751</v>
       </c>
       <c r="P10" t="n">
-        <v>330.8736418517398</v>
+        <v>330.9082066659508</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32812,28 +33152,28 @@
         <v>0.0581</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1279408924677404</v>
+        <v>0.1382844941655435</v>
       </c>
       <c r="J11" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K11" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005973088803657878</v>
+        <v>0.00709852329302485</v>
       </c>
       <c r="M11" t="n">
-        <v>9.378449533343597</v>
+        <v>9.375888227248751</v>
       </c>
       <c r="N11" t="n">
-        <v>144.2190731668838</v>
+        <v>143.858343414369</v>
       </c>
       <c r="O11" t="n">
-        <v>12.00912457953883</v>
+        <v>11.99409618997484</v>
       </c>
       <c r="P11" t="n">
-        <v>336.118230881104</v>
+        <v>336.0187348141089</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32890,28 +33230,28 @@
         <v>0.0551</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1687623607568668</v>
+        <v>0.1746479586367405</v>
       </c>
       <c r="J12" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K12" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01060423438186575</v>
+        <v>0.01162661374494323</v>
       </c>
       <c r="M12" t="n">
-        <v>9.372385037012737</v>
+        <v>9.327062305251145</v>
       </c>
       <c r="N12" t="n">
-        <v>140.0724407790342</v>
+        <v>138.8863610449451</v>
       </c>
       <c r="O12" t="n">
-        <v>11.83522035194251</v>
+        <v>11.78500577195213</v>
       </c>
       <c r="P12" t="n">
-        <v>337.6292913057216</v>
+        <v>337.5725956965958</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32968,28 +33308,28 @@
         <v>0.059</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1715667667911399</v>
+        <v>0.175438981038903</v>
       </c>
       <c r="J13" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K13" t="n">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01188239451422934</v>
+        <v>0.01268654534377367</v>
       </c>
       <c r="M13" t="n">
-        <v>8.953579828608696</v>
+        <v>8.933366869796496</v>
       </c>
       <c r="N13" t="n">
-        <v>127.9861669066832</v>
+        <v>127.2771035678524</v>
       </c>
       <c r="O13" t="n">
-        <v>11.31309714033621</v>
+        <v>11.28171545323903</v>
       </c>
       <c r="P13" t="n">
-        <v>343.8804576341361</v>
+        <v>343.8427890668274</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33046,28 +33386,28 @@
         <v>0.0597</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09537514206369101</v>
+        <v>0.1000833301615314</v>
       </c>
       <c r="J14" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K14" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004485495976431442</v>
+        <v>0.005035478244119762</v>
       </c>
       <c r="M14" t="n">
-        <v>8.159228602583346</v>
+        <v>8.155894945275072</v>
       </c>
       <c r="N14" t="n">
-        <v>106.3446747345616</v>
+        <v>105.965609637106</v>
       </c>
       <c r="O14" t="n">
-        <v>10.31235544066251</v>
+        <v>10.29395986183675</v>
       </c>
       <c r="P14" t="n">
-        <v>344.7766946864129</v>
+        <v>344.7311340662272</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33124,28 +33464,28 @@
         <v>0.0641</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09056712193156577</v>
+        <v>0.09432252034396389</v>
       </c>
       <c r="J15" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K15" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00459844328934611</v>
+        <v>0.005081384794901722</v>
       </c>
       <c r="M15" t="n">
-        <v>7.929412178272495</v>
+        <v>7.930496555449859</v>
       </c>
       <c r="N15" t="n">
-        <v>95.05361346349912</v>
+        <v>94.88279760977709</v>
       </c>
       <c r="O15" t="n">
-        <v>9.749544269528659</v>
+        <v>9.740780133530224</v>
       </c>
       <c r="P15" t="n">
-        <v>349.4178577275656</v>
+        <v>349.3818991928853</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33202,28 +33542,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002474136883163159</v>
+        <v>-0.003225836969271483</v>
       </c>
       <c r="J16" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K16" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L16" t="n">
-        <v>3.487713637007062e-06</v>
+        <v>5.995329425911855e-06</v>
       </c>
       <c r="M16" t="n">
-        <v>7.694238959793096</v>
+        <v>7.698866079625221</v>
       </c>
       <c r="N16" t="n">
-        <v>92.1965410274032</v>
+        <v>92.64036995366355</v>
       </c>
       <c r="O16" t="n">
-        <v>9.601902989897534</v>
+        <v>9.624986750830546</v>
       </c>
       <c r="P16" t="n">
-        <v>360.2962921075502</v>
+        <v>360.3507679947991</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33280,28 +33620,28 @@
         <v>0.0583</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04503011770026247</v>
+        <v>0.03417782716733136</v>
       </c>
       <c r="J17" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K17" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001167171314225501</v>
+        <v>0.000683836338305932</v>
       </c>
       <c r="M17" t="n">
-        <v>7.58638197270531</v>
+        <v>7.572857339088214</v>
       </c>
       <c r="N17" t="n">
-        <v>90.25586467762047</v>
+        <v>90.23993303161778</v>
       </c>
       <c r="O17" t="n">
-        <v>9.500308662228846</v>
+        <v>9.499470144782697</v>
       </c>
       <c r="P17" t="n">
-        <v>353.2079922569898</v>
+        <v>353.3123052565284</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33358,28 +33698,28 @@
         <v>0.0673</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08510555519828912</v>
+        <v>0.07081921561265493</v>
       </c>
       <c r="J18" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K18" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L18" t="n">
-        <v>0.006892951314192097</v>
+        <v>0.004868940203462624</v>
       </c>
       <c r="M18" t="n">
-        <v>5.722605574581273</v>
+        <v>5.722841686985693</v>
       </c>
       <c r="N18" t="n">
-        <v>55.23343286809428</v>
+        <v>55.14584594652922</v>
       </c>
       <c r="O18" t="n">
-        <v>7.431919864213707</v>
+        <v>7.426024908827684</v>
       </c>
       <c r="P18" t="n">
-        <v>343.2580805668291</v>
+        <v>343.3939151757763</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -33436,28 +33776,28 @@
         <v>0.078</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08774566332361758</v>
+        <v>0.07495854664158937</v>
       </c>
       <c r="J19" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K19" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L19" t="n">
-        <v>0.007218539174908112</v>
+        <v>0.005346977622302851</v>
       </c>
       <c r="M19" t="n">
-        <v>6.10381465866991</v>
+        <v>6.110690127910204</v>
       </c>
       <c r="N19" t="n">
-        <v>57.95102104802559</v>
+        <v>58.13426042797143</v>
       </c>
       <c r="O19" t="n">
-        <v>7.612556800972036</v>
+        <v>7.624582639592244</v>
       </c>
       <c r="P19" t="n">
-        <v>334.8361443584558</v>
+        <v>334.9560646575878</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -33514,28 +33854,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>0.198909430098144</v>
+        <v>0.1861479953576634</v>
       </c>
       <c r="J20" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K20" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03705636022005854</v>
+        <v>0.03323462676451117</v>
       </c>
       <c r="M20" t="n">
-        <v>5.764410331145532</v>
+        <v>5.756720049423748</v>
       </c>
       <c r="N20" t="n">
-        <v>56.10940272208946</v>
+        <v>55.91397573022859</v>
       </c>
       <c r="O20" t="n">
-        <v>7.490620983742901</v>
+        <v>7.477564826213718</v>
       </c>
       <c r="P20" t="n">
-        <v>333.8155125421799</v>
+        <v>333.9355097388796</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -33592,28 +33932,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3919919553355473</v>
+        <v>0.3785023892307507</v>
       </c>
       <c r="J21" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K21" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1275124870522644</v>
+        <v>0.1219110122684761</v>
       </c>
       <c r="M21" t="n">
-        <v>5.851844710768499</v>
+        <v>5.849762652915977</v>
       </c>
       <c r="N21" t="n">
-        <v>56.63062943304682</v>
+        <v>56.50525549328042</v>
       </c>
       <c r="O21" t="n">
-        <v>7.525332513121717</v>
+        <v>7.516997771270151</v>
       </c>
       <c r="P21" t="n">
-        <v>330.9519254962786</v>
+        <v>331.0791384742791</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -33670,28 +34010,28 @@
         <v>0.0833</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3216813469337341</v>
+        <v>0.3067583423308516</v>
       </c>
       <c r="J22" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K22" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L22" t="n">
-        <v>0.06663417425041962</v>
+        <v>0.06210760596574949</v>
       </c>
       <c r="M22" t="n">
-        <v>6.868388522056336</v>
+        <v>6.853464918463583</v>
       </c>
       <c r="N22" t="n">
-        <v>77.04250458412018</v>
+        <v>76.76150271038117</v>
       </c>
       <c r="O22" t="n">
-        <v>8.777385976708565</v>
+        <v>8.761364203728844</v>
       </c>
       <c r="P22" t="n">
-        <v>335.4494048884422</v>
+        <v>335.5913679566192</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -33729,7 +34069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W390"/>
+  <dimension ref="A1:W394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75907,6 +76247,474 @@
         </is>
       </c>
     </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:53:44+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>-38.274513677656635,178.33027186229342</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>-38.27518194526489,178.3305633993456</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>-38.27586935991821,178.33079708025016</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>-38.2765416645583,178.33107638602328</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>-38.277213522106464,178.3313509751927</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>-38.27785767475386,178.331699638954</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>-38.278532406125024,178.33195644869667</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>-38.279195136233824,178.33226236439043</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>-38.27986804588538,178.33257216039112</t>
+        </is>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>-38.2804835935922,178.33307261900617</t>
+        </is>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>-38.2810925756625,178.33354943640506</t>
+        </is>
+      </c>
+      <c r="M391" t="inlineStr">
+        <is>
+          <t>-38.281729549892056,178.33397174233616</t>
+        </is>
+      </c>
+      <c r="N391" t="inlineStr">
+        <is>
+          <t>-38.28233007451557,178.33447776451777</t>
+        </is>
+      </c>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>-38.28288449943345,178.3350346764309</t>
+        </is>
+      </c>
+      <c r="P391" t="inlineStr">
+        <is>
+          <t>-38.283466661332675,178.33557862031898</t>
+        </is>
+      </c>
+      <c r="Q391" t="inlineStr">
+        <is>
+          <t>-38.283971823193404,178.336239065311</t>
+        </is>
+      </c>
+      <c r="R391" t="inlineStr">
+        <is>
+          <t>-38.284445622728704,178.33690222846835</t>
+        </is>
+      </c>
+      <c r="S391" t="inlineStr">
+        <is>
+          <t>-38.28501045857511,178.33745128503193</t>
+        </is>
+      </c>
+      <c r="T391" t="inlineStr">
+        <is>
+          <t>-38.28547331564831,178.33814551509087</t>
+        </is>
+      </c>
+      <c r="U391" t="inlineStr">
+        <is>
+          <t>-38.28591304390795,178.33888834695279</t>
+        </is>
+      </c>
+      <c r="V391" t="inlineStr">
+        <is>
+          <t>-38.286273492168455,178.3396837760489</t>
+        </is>
+      </c>
+      <c r="W391" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>-38.27445096424161,178.3304613008093</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>-38.27513447491819,178.33070679346895</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>-38.27580922122624,178.33097874232735</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>-38.27649175752985,178.3312271415339</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>-38.2771581646113,178.33152034508365</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>-38.27780274397826,178.33187378629256</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>-38.27846801822622,178.33216533633097</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>-38.279115919198205,178.332519360757</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>-38.279771742974475,178.3328609603044</t>
+        </is>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>-38.28041624622764,178.3332431881061</t>
+        </is>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>-38.28104655755349,178.3336560555779</t>
+        </is>
+      </c>
+      <c r="M392" t="inlineStr">
+        <is>
+          <t>-38.281655446744445,178.33411708772005</t>
+        </is>
+      </c>
+      <c r="N392" t="inlineStr">
+        <is>
+          <t>-38.28223380971413,178.33463688117254</t>
+        </is>
+      </c>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>-38.28276699999455,178.3352260087263</t>
+        </is>
+      </c>
+      <c r="P392" t="inlineStr">
+        <is>
+          <t>-38.28331929042283,178.3357726635569</t>
+        </is>
+      </c>
+      <c r="Q392" t="inlineStr">
+        <is>
+          <t>-38.283876589362734,178.33633882271658</t>
+        </is>
+      </c>
+      <c r="R392" t="inlineStr">
+        <is>
+          <t>-38.28442805941612,178.33692096645157</t>
+        </is>
+      </c>
+      <c r="S392" t="inlineStr">
+        <is>
+          <t>-38.28495321484898,178.33751660618537</t>
+        </is>
+      </c>
+      <c r="T392" t="inlineStr">
+        <is>
+          <t>-38.28542523560975,178.33819599176329</t>
+        </is>
+      </c>
+      <c r="U392" t="inlineStr">
+        <is>
+          <t>-38.28587789336499,178.338916677388</t>
+        </is>
+      </c>
+      <c r="V392" t="inlineStr">
+        <is>
+          <t>-38.28620117797665,178.33973371552045</t>
+        </is>
+      </c>
+      <c r="W392" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:53:19+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>-38.274399793318324,178.33061587200106</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>-38.275090484656886,178.33083967464387</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>-38.27580236512034,178.33099945262433</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>-38.27646294083735,178.33131418854578</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>-38.27712941855867,178.3316082951333</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>-38.27777352538245,178.3319664177377</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>-38.27843454304749,178.3322739361142</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>-38.27910622980571,178.33255079498093</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>-38.27976345611797,178.33288581137853</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>-38.28037514530381,178.333347283009</t>
+        </is>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>-38.281029807976076,178.33369486252082</t>
+        </is>
+      </c>
+      <c r="M393" t="inlineStr">
+        <is>
+          <t>-38.28162383148297,178.33417909747826</t>
+        </is>
+      </c>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>-38.28221046115562,178.33467547402995</t>
+        </is>
+      </c>
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>-38.282761512629726,178.33523494414789</t>
+        </is>
+      </c>
+      <c r="P393" t="inlineStr">
+        <is>
+          <t>-38.2832809144868,178.33582319295402</t>
+        </is>
+      </c>
+      <c r="Q393" t="inlineStr">
+        <is>
+          <t>-38.28382005645233,178.33639804076626</t>
+        </is>
+      </c>
+      <c r="R393" t="inlineStr">
+        <is>
+          <t>-38.28439150930302,178.33695996107497</t>
+        </is>
+      </c>
+      <c r="S393" t="inlineStr">
+        <is>
+          <t>-38.284885660340535,178.3375936928588</t>
+        </is>
+      </c>
+      <c r="T393" t="inlineStr">
+        <is>
+          <t>-38.28540367789134,178.33821862403676</t>
+        </is>
+      </c>
+      <c r="U393" t="inlineStr">
+        <is>
+          <t>-38.2858285553705,178.33895644249375</t>
+        </is>
+      </c>
+      <c r="V393" t="inlineStr">
+        <is>
+          <t>-38.28620483579093,178.33973118947227</t>
+        </is>
+      </c>
+      <c r="W393" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:53:31+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>-38.274420929913944,178.33055202512185</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>-38.27513757232846,178.33069743711377</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>-38.27581151819496,178.33097180385127</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>-38.27648806843971,178.33123828523773</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>-38.277156305587,178.3315260328736</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>-38.27779860328999,178.33188691349662</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>-38.27845954900595,178.33219281211552</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>-38.279129667647034,178.3324747581261</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>-38.27978702095799,178.33281514380536</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>-38.28041628648315,178.33324308615218</t>
+        </is>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>-38.28105074494603,178.3336463538392</t>
+        </is>
+      </c>
+      <c r="M394" t="inlineStr">
+        <is>
+          <t>-38.28165804732474,178.33411198697104</t>
+        </is>
+      </c>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>-38.282237272444235,178.33463115761853</t>
+        </is>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>-38.282799261268394,178.33517347561576</t>
+        </is>
+      </c>
+      <c r="P394" t="inlineStr">
+        <is>
+          <t>-38.28333070341439,178.33575763611478</t>
+        </is>
+      </c>
+      <c r="Q394" t="inlineStr">
+        <is>
+          <t>-38.28384791334304,178.3363688607734</t>
+        </is>
+      </c>
+      <c r="R394" t="inlineStr">
+        <is>
+          <t>-38.28439184797503,178.33695959975242</t>
+        </is>
+      </c>
+      <c r="S394" t="inlineStr">
+        <is>
+          <t>-38.284924516598984,178.33754935387662</t>
+        </is>
+      </c>
+      <c r="T394" t="inlineStr">
+        <is>
+          <t>-38.28543961274695,178.33818089798126</t>
+        </is>
+      </c>
+      <c r="U394" t="inlineStr">
+        <is>
+          <t>-38.28587756070999,178.33891694549922</t>
+        </is>
+      </c>
+      <c r="V394" t="inlineStr">
+        <is>
+          <t>-38.2862253353393,178.3397170326943</t>
+        </is>
+      </c>
+      <c r="W394" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0253/nzd0253.xlsx
+++ b/data/nzd0253/nzd0253.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W394"/>
+  <dimension ref="A1:W395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28298,6 +28298,81 @@
         </is>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:05+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>349.09</v>
+      </c>
+      <c r="C395" t="n">
+        <v>345.95</v>
+      </c>
+      <c r="D395" t="n">
+        <v>346.91</v>
+      </c>
+      <c r="E395" t="n">
+        <v>338.84</v>
+      </c>
+      <c r="F395" t="n">
+        <v>343.37</v>
+      </c>
+      <c r="G395" t="n">
+        <v>336.59</v>
+      </c>
+      <c r="H395" t="n">
+        <v>336.5763636363636</v>
+      </c>
+      <c r="I395" t="n">
+        <v>340.84</v>
+      </c>
+      <c r="J395" t="n">
+        <v>341.3763636363636</v>
+      </c>
+      <c r="K395" t="n">
+        <v>353.45</v>
+      </c>
+      <c r="L395" t="n">
+        <v>344.03</v>
+      </c>
+      <c r="M395" t="n">
+        <v>344.5963636363636</v>
+      </c>
+      <c r="N395" t="n">
+        <v>353.7263636363636</v>
+      </c>
+      <c r="O395" t="n">
+        <v>357.73</v>
+      </c>
+      <c r="P395" t="n">
+        <v>365.46</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>358.1263636363636</v>
+      </c>
+      <c r="R395" t="n">
+        <v>348.5115384615385</v>
+      </c>
+      <c r="S395" t="n">
+        <v>347.24</v>
+      </c>
+      <c r="T395" t="n">
+        <v>346.3415384615384</v>
+      </c>
+      <c r="U395" t="n">
+        <v>351.0615384615385</v>
+      </c>
+      <c r="V395" t="n">
+        <v>363.23</v>
+      </c>
+      <c r="W395" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28309,7 +28384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B396"/>
+  <dimension ref="A1:B397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32277,6 +32352,16 @@
       </c>
       <c r="B396" t="n">
         <v>-0.23</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -32450,28 +32535,28 @@
         <v>0.06850000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1912038052846222</v>
+        <v>0.1934016715134822</v>
       </c>
       <c r="J2" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K2" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02969273836918485</v>
+        <v>0.03055011799923912</v>
       </c>
       <c r="M2" t="n">
-        <v>6.397030725447878</v>
+        <v>6.390103115823293</v>
       </c>
       <c r="N2" t="n">
-        <v>64.11003111097548</v>
+        <v>63.96461416278916</v>
       </c>
       <c r="O2" t="n">
-        <v>8.006873991201278</v>
+        <v>7.997788079387273</v>
       </c>
       <c r="P2" t="n">
-        <v>340.5480896881434</v>
+        <v>340.5270568438759</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32528,28 +32613,28 @@
         <v>0.0521</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2316176838994687</v>
+        <v>0.2376557127666831</v>
       </c>
       <c r="J3" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K3" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03982974376106507</v>
+        <v>0.04196031946821654</v>
       </c>
       <c r="M3" t="n">
-        <v>6.491161641986094</v>
+        <v>6.504940179721277</v>
       </c>
       <c r="N3" t="n">
-        <v>69.58139711019571</v>
+        <v>69.66792459975879</v>
       </c>
       <c r="O3" t="n">
-        <v>8.341546445965262</v>
+        <v>8.346731372205458</v>
       </c>
       <c r="P3" t="n">
-        <v>329.9194038001966</v>
+        <v>329.861474209259</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32606,28 +32691,28 @@
         <v>0.0545</v>
       </c>
       <c r="I4" t="n">
-        <v>0.248667225467404</v>
+        <v>0.2567428525359381</v>
       </c>
       <c r="J4" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K4" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04148416411079092</v>
+        <v>0.04411669948650021</v>
       </c>
       <c r="M4" t="n">
-        <v>6.668202916163264</v>
+        <v>6.690097482025162</v>
       </c>
       <c r="N4" t="n">
-        <v>75.81576761552255</v>
+        <v>76.10370993772899</v>
       </c>
       <c r="O4" t="n">
-        <v>8.7072250238249</v>
+        <v>8.723744032107373</v>
       </c>
       <c r="P4" t="n">
-        <v>327.048115416644</v>
+        <v>326.9701424654742</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32684,28 +32769,28 @@
         <v>0.0579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2123085529923742</v>
+        <v>0.2171829109690056</v>
       </c>
       <c r="J5" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K5" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02540213810536995</v>
+        <v>0.02667877961361464</v>
       </c>
       <c r="M5" t="n">
-        <v>7.412244055999236</v>
+        <v>7.414636211004185</v>
       </c>
       <c r="N5" t="n">
-        <v>92.26700378135563</v>
+        <v>92.18706685956451</v>
       </c>
       <c r="O5" t="n">
-        <v>9.605571496863455</v>
+        <v>9.601409628776626</v>
       </c>
       <c r="P5" t="n">
-        <v>325.3144017258388</v>
+        <v>325.267165254437</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32762,28 +32847,28 @@
         <v>0.0527</v>
       </c>
       <c r="I6" t="n">
-        <v>0.197130360052573</v>
+        <v>0.2061815760979634</v>
       </c>
       <c r="J6" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K6" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02198371649859687</v>
+        <v>0.0239965616267771</v>
       </c>
       <c r="M6" t="n">
-        <v>7.504640222821084</v>
+        <v>7.527521007999032</v>
       </c>
       <c r="N6" t="n">
-        <v>92.34492858829086</v>
+        <v>92.72172737357701</v>
       </c>
       <c r="O6" t="n">
-        <v>9.609626870398811</v>
+        <v>9.629212188625662</v>
       </c>
       <c r="P6" t="n">
-        <v>323.253809288674</v>
+        <v>323.1655357824527</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32840,28 +32925,28 @@
         <v>0.0552</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2220559658661537</v>
+        <v>0.2265409434255904</v>
       </c>
       <c r="J7" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K7" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0252633534957285</v>
+        <v>0.02639646451692956</v>
       </c>
       <c r="M7" t="n">
-        <v>7.771580481671359</v>
+        <v>7.77040552987726</v>
       </c>
       <c r="N7" t="n">
-        <v>100.4826068468034</v>
+        <v>100.3635321557388</v>
       </c>
       <c r="O7" t="n">
-        <v>10.02410129871019</v>
+        <v>10.01816011829212</v>
       </c>
       <c r="P7" t="n">
-        <v>323.2391348388367</v>
+        <v>323.195042751579</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32918,28 +33003,28 @@
         <v>0.0615</v>
       </c>
       <c r="I8" t="n">
-        <v>0.113783610937999</v>
+        <v>0.1176602528487996</v>
       </c>
       <c r="J8" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K8" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007106809520514012</v>
+        <v>0.007636583772923644</v>
       </c>
       <c r="M8" t="n">
-        <v>7.644043404661952</v>
+        <v>7.641636900975174</v>
       </c>
       <c r="N8" t="n">
-        <v>94.39419214242979</v>
+        <v>94.2502993112692</v>
       </c>
       <c r="O8" t="n">
-        <v>9.71566735445537</v>
+        <v>9.7082593347762</v>
       </c>
       <c r="P8" t="n">
-        <v>327.0969376728235</v>
+        <v>327.0585522777699</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32996,28 +33081,28 @@
         <v>0.0566</v>
       </c>
       <c r="I9" t="n">
-        <v>0.211462391244681</v>
+        <v>0.2164183836327176</v>
       </c>
       <c r="J9" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K9" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02605109826857155</v>
+        <v>0.02737728575393394</v>
       </c>
       <c r="M9" t="n">
-        <v>7.554776605914525</v>
+        <v>7.556317640764136</v>
       </c>
       <c r="N9" t="n">
-        <v>88.19777800943586</v>
+        <v>88.13684084264781</v>
       </c>
       <c r="O9" t="n">
-        <v>9.391367206612458</v>
+        <v>9.388122327848516</v>
       </c>
       <c r="P9" t="n">
-        <v>327.1789966652058</v>
+        <v>327.1303383147149</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33074,28 +33159,28 @@
         <v>0.0644</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1946697600528386</v>
+        <v>0.1978838415516507</v>
       </c>
       <c r="J10" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K10" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01638854029233294</v>
+        <v>0.01702572455945317</v>
       </c>
       <c r="M10" t="n">
-        <v>8.617611348008856</v>
+        <v>8.60779719189417</v>
       </c>
       <c r="N10" t="n">
-        <v>122.5006083000647</v>
+        <v>122.2384001558982</v>
       </c>
       <c r="O10" t="n">
-        <v>11.067999290751</v>
+        <v>11.0561476182212</v>
       </c>
       <c r="P10" t="n">
-        <v>330.9082066659508</v>
+        <v>330.877085187924</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33152,28 +33237,28 @@
         <v>0.0581</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1382844941655435</v>
+        <v>0.1464221385166115</v>
       </c>
       <c r="J11" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K11" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00709852329302485</v>
+        <v>0.007975628081931307</v>
       </c>
       <c r="M11" t="n">
-        <v>9.375888227248751</v>
+        <v>9.383167576835168</v>
       </c>
       <c r="N11" t="n">
-        <v>143.858343414369</v>
+        <v>143.9881427558057</v>
       </c>
       <c r="O11" t="n">
-        <v>11.99409618997484</v>
+        <v>11.99950593798785</v>
       </c>
       <c r="P11" t="n">
-        <v>336.0187348141089</v>
+        <v>335.9401477659307</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33230,28 +33315,28 @@
         <v>0.0551</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1746479586367405</v>
+        <v>0.1758073307169074</v>
       </c>
       <c r="J12" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K12" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01162661374494323</v>
+        <v>0.0118581116380071</v>
       </c>
       <c r="M12" t="n">
-        <v>9.327062305251145</v>
+        <v>9.305829969758195</v>
       </c>
       <c r="N12" t="n">
-        <v>138.8863610449451</v>
+        <v>138.5079278367441</v>
       </c>
       <c r="O12" t="n">
-        <v>11.78500577195213</v>
+        <v>11.76893911262796</v>
       </c>
       <c r="P12" t="n">
-        <v>337.5725956965958</v>
+        <v>337.5613832394372</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33308,28 +33393,28 @@
         <v>0.059</v>
       </c>
       <c r="I13" t="n">
-        <v>0.175438981038903</v>
+        <v>0.1731822065824233</v>
       </c>
       <c r="J13" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K13" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01268654534377367</v>
+        <v>0.01244614793304299</v>
       </c>
       <c r="M13" t="n">
-        <v>8.933366869796496</v>
+        <v>8.91911322446923</v>
       </c>
       <c r="N13" t="n">
-        <v>127.2771035678524</v>
+        <v>126.9582108460491</v>
       </c>
       <c r="O13" t="n">
-        <v>11.28171545323903</v>
+        <v>11.2675734231488</v>
       </c>
       <c r="P13" t="n">
-        <v>343.8427890668274</v>
+        <v>343.864759440264</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33386,28 +33471,28 @@
         <v>0.0597</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1000833301615314</v>
+        <v>0.1039667469696189</v>
       </c>
       <c r="J14" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K14" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005035478244119762</v>
+        <v>0.005463167072369379</v>
       </c>
       <c r="M14" t="n">
-        <v>8.155894945275072</v>
+        <v>8.14968421556493</v>
       </c>
       <c r="N14" t="n">
-        <v>105.965609637106</v>
+        <v>105.7787538043813</v>
       </c>
       <c r="O14" t="n">
-        <v>10.29395986183675</v>
+        <v>10.28487986339079</v>
       </c>
       <c r="P14" t="n">
-        <v>344.7311340662272</v>
+        <v>344.6935069390004</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33464,28 +33549,28 @@
         <v>0.0641</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09432252034396389</v>
+        <v>0.09811903457283631</v>
       </c>
       <c r="J15" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K15" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005081384794901722</v>
+        <v>0.005530614475458995</v>
       </c>
       <c r="M15" t="n">
-        <v>7.930496555449859</v>
+        <v>7.92317674349978</v>
       </c>
       <c r="N15" t="n">
-        <v>94.88279760977709</v>
+        <v>94.69743840521711</v>
       </c>
       <c r="O15" t="n">
-        <v>9.740780133530224</v>
+        <v>9.731260884655036</v>
       </c>
       <c r="P15" t="n">
-        <v>349.3818991928853</v>
+        <v>349.3455425630543</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33542,28 +33627,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.003225836969271483</v>
+        <v>-0.0001867627035544704</v>
       </c>
       <c r="J16" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K16" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L16" t="n">
-        <v>5.995329425911855e-06</v>
+        <v>2.02155742146104e-08</v>
       </c>
       <c r="M16" t="n">
-        <v>7.698866079625221</v>
+        <v>7.692163811238315</v>
       </c>
       <c r="N16" t="n">
-        <v>92.64036995366355</v>
+        <v>92.45923355836803</v>
       </c>
       <c r="O16" t="n">
-        <v>9.624986750830546</v>
+        <v>9.615572450892772</v>
       </c>
       <c r="P16" t="n">
-        <v>360.3507679947991</v>
+        <v>360.3213821342065</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33620,28 +33705,28 @@
         <v>0.0583</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03417782716733136</v>
+        <v>0.03648969731117794</v>
       </c>
       <c r="J17" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K17" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000683836338305932</v>
+        <v>0.0007843317059846866</v>
       </c>
       <c r="M17" t="n">
-        <v>7.572857339088214</v>
+        <v>7.563276575423396</v>
       </c>
       <c r="N17" t="n">
-        <v>90.23993303161778</v>
+        <v>90.03579689886863</v>
       </c>
       <c r="O17" t="n">
-        <v>9.499470144782697</v>
+        <v>9.488719455167205</v>
       </c>
       <c r="P17" t="n">
-        <v>353.3123052565284</v>
+        <v>353.2898947585971</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33698,28 +33783,28 @@
         <v>0.0673</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07081921561265493</v>
+        <v>0.07275725370834216</v>
       </c>
       <c r="J18" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K18" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004868940203462624</v>
+        <v>0.00516988559174314</v>
       </c>
       <c r="M18" t="n">
-        <v>5.722841686985693</v>
+        <v>5.716483371415675</v>
       </c>
       <c r="N18" t="n">
-        <v>55.14584594652922</v>
+        <v>55.02315973168413</v>
       </c>
       <c r="O18" t="n">
-        <v>7.426024908827684</v>
+        <v>7.417759751547911</v>
       </c>
       <c r="P18" t="n">
-        <v>343.3939151757763</v>
+        <v>343.3753574535153</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -33776,28 +33861,28 @@
         <v>0.078</v>
       </c>
       <c r="I19" t="n">
-        <v>0.07495854664158937</v>
+        <v>0.08123376925494456</v>
       </c>
       <c r="J19" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K19" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005346977622302851</v>
+        <v>0.006283715297170533</v>
       </c>
       <c r="M19" t="n">
-        <v>6.110690127910204</v>
+        <v>6.124598351730342</v>
       </c>
       <c r="N19" t="n">
-        <v>58.13426042797143</v>
+        <v>58.27615302052688</v>
       </c>
       <c r="O19" t="n">
-        <v>7.624582639592244</v>
+        <v>7.633881910307945</v>
       </c>
       <c r="P19" t="n">
-        <v>334.9560646575878</v>
+        <v>334.8967206566131</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -33854,28 +33939,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1861479953576634</v>
+        <v>0.1907970176516675</v>
       </c>
       <c r="J20" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K20" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03323462676451117</v>
+        <v>0.03499100817809997</v>
       </c>
       <c r="M20" t="n">
-        <v>5.756720049423748</v>
+        <v>5.762420784065516</v>
       </c>
       <c r="N20" t="n">
-        <v>55.91397573022859</v>
+        <v>55.91807964850816</v>
       </c>
       <c r="O20" t="n">
-        <v>7.477564826213718</v>
+        <v>7.477839236604927</v>
       </c>
       <c r="P20" t="n">
-        <v>333.9355097388796</v>
+        <v>333.8914708757721</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -33932,28 +34017,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3785023892307507</v>
+        <v>0.3846830157072949</v>
       </c>
       <c r="J21" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K21" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1219110122684761</v>
+        <v>0.1256080801277262</v>
       </c>
       <c r="M21" t="n">
-        <v>5.849762652915977</v>
+        <v>5.862656190798204</v>
       </c>
       <c r="N21" t="n">
-        <v>56.50525549328042</v>
+        <v>56.64112699611346</v>
       </c>
       <c r="O21" t="n">
-        <v>7.516997771270151</v>
+        <v>7.526029962477791</v>
       </c>
       <c r="P21" t="n">
-        <v>331.0791384742791</v>
+        <v>331.0204320882372</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34010,28 +34095,28 @@
         <v>0.0833</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3067583423308516</v>
+        <v>0.3184164458991219</v>
       </c>
       <c r="J22" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K22" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L22" t="n">
-        <v>0.06210760596574949</v>
+        <v>0.06615451254877358</v>
       </c>
       <c r="M22" t="n">
-        <v>6.853464918463583</v>
+        <v>6.89586377429582</v>
       </c>
       <c r="N22" t="n">
-        <v>76.76150271038117</v>
+        <v>77.62408851213009</v>
       </c>
       <c r="O22" t="n">
-        <v>8.761364203728844</v>
+        <v>8.810453365867733</v>
       </c>
       <c r="P22" t="n">
-        <v>335.5913679566192</v>
+        <v>335.479688767723</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34069,7 +34154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W394"/>
+  <dimension ref="A1:W395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76715,6 +76800,123 @@
         </is>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:05+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>-38.274446254343616,178.33047552795682</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>-38.27511714332876,178.3307591469908</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>-38.27577375737284,178.33108586813202</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>-38.27646179234475,178.3313176578092</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>-38.277105423303766,178.33168170966727</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>-38.277788685668106,178.33191835526097</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>-38.27845323726057,178.33221328861796</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>-38.27910518230334,178.33255419327486</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>-38.279773089627994,178.33285692188494</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>-38.280383961277934,178.33332495512178</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>-38.28105665909713,178.3336326513815</t>
+        </is>
+      </c>
+      <c r="M395" t="inlineStr">
+        <is>
+          <t>-38.28169252052747,178.334044371545</t>
+        </is>
+      </c>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>-38.2822278693404,178.3346467000268</t>
+        </is>
+      </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>-38.282777974722414,178.33520813787902</t>
+        </is>
+      </c>
+      <c r="P395" t="inlineStr">
+        <is>
+          <t>-38.28330218132682,178.33579519102497</t>
+        </is>
+      </c>
+      <c r="Q395" t="inlineStr">
+        <is>
+          <t>-38.283820755867666,178.33639730813155</t>
+        </is>
+      </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>-38.28435119145242,178.3370029753685</t>
+        </is>
+      </c>
+      <c r="S395" t="inlineStr">
+        <is>
+          <t>-38.284840140264315,178.33764563586212</t>
+        </is>
+      </c>
+      <c r="T395" t="inlineStr">
+        <is>
+          <t>-38.28534771942899,178.33827737169753</t>
+        </is>
+      </c>
+      <c r="U395" t="inlineStr">
+        <is>
+          <t>-38.28575541209655,178.33901539390908</t>
+        </is>
+      </c>
+      <c r="V395" t="inlineStr">
+        <is>
+          <t>-38.286021918716266,178.33985750975992</t>
+        </is>
+      </c>
+      <c r="W395" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0253/nzd0253.xlsx
+++ b/data/nzd0253/nzd0253.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W395"/>
+  <dimension ref="A1:W397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28373,6 +28373,156 @@
         </is>
       </c>
     </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:08+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>349.0033333333333</v>
+      </c>
+      <c r="C396" t="n">
+        <v>346.53</v>
+      </c>
+      <c r="D396" t="n">
+        <v>340.83</v>
+      </c>
+      <c r="E396" t="n">
+        <v>339.03</v>
+      </c>
+      <c r="F396" t="n">
+        <v>330.23</v>
+      </c>
+      <c r="G396" t="n">
+        <v>330.56</v>
+      </c>
+      <c r="H396" t="n">
+        <v>334.2454545454545</v>
+      </c>
+      <c r="I396" t="n">
+        <v>338.53</v>
+      </c>
+      <c r="J396" t="n">
+        <v>341.0054545454545</v>
+      </c>
+      <c r="K396" t="n">
+        <v>347.2</v>
+      </c>
+      <c r="L396" t="n">
+        <v>345.3</v>
+      </c>
+      <c r="M396" t="n">
+        <v>345.2754545454546</v>
+      </c>
+      <c r="N396" t="n">
+        <v>346.4754545454546</v>
+      </c>
+      <c r="O396" t="n">
+        <v>350.2633333333333</v>
+      </c>
+      <c r="P396" t="n">
+        <v>359.2933333333333</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>356.6354545454545</v>
+      </c>
+      <c r="R396" t="n">
+        <v>350.9207692307692</v>
+      </c>
+      <c r="S396" t="n">
+        <v>342.6242857142857</v>
+      </c>
+      <c r="T396" t="n">
+        <v>341.7907692307692</v>
+      </c>
+      <c r="U396" t="n">
+        <v>341.2407692307692</v>
+      </c>
+      <c r="V396" t="n">
+        <v>364.8366666666666</v>
+      </c>
+      <c r="W396" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>352.0466666666667</v>
+      </c>
+      <c r="C397" t="n">
+        <v>336.39</v>
+      </c>
+      <c r="D397" t="n">
+        <v>332.53</v>
+      </c>
+      <c r="E397" t="n">
+        <v>327.3</v>
+      </c>
+      <c r="F397" t="n">
+        <v>333.2</v>
+      </c>
+      <c r="G397" t="n">
+        <v>329.68</v>
+      </c>
+      <c r="H397" t="n">
+        <v>338.79</v>
+      </c>
+      <c r="I397" t="n">
+        <v>330.45</v>
+      </c>
+      <c r="J397" t="n">
+        <v>331.91</v>
+      </c>
+      <c r="K397" t="n">
+        <v>345.23</v>
+      </c>
+      <c r="L397" t="n">
+        <v>348.43</v>
+      </c>
+      <c r="M397" t="n">
+        <v>350.29</v>
+      </c>
+      <c r="N397" t="n">
+        <v>341.75</v>
+      </c>
+      <c r="O397" t="n">
+        <v>351.5666666666667</v>
+      </c>
+      <c r="P397" t="n">
+        <v>356.3266666666667</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>345.75</v>
+      </c>
+      <c r="R397" t="n">
+        <v>345.3507692307692</v>
+      </c>
+      <c r="S397" t="n">
+        <v>340.4442857142857</v>
+      </c>
+      <c r="T397" t="n">
+        <v>343.0307692307692</v>
+      </c>
+      <c r="U397" t="n">
+        <v>340.0807692307692</v>
+      </c>
+      <c r="V397" t="n">
+        <v>349.0733333333333</v>
+      </c>
+      <c r="W397" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28384,7 +28534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B397"/>
+  <dimension ref="A1:B399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32362,6 +32512,26 @@
       </c>
       <c r="B397" t="n">
         <v>0.42</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>-0.44</v>
       </c>
     </row>
   </sheetData>
@@ -32535,28 +32705,28 @@
         <v>0.06850000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1934016715134822</v>
+        <v>0.1993987312044103</v>
       </c>
       <c r="J2" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K2" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03055011799923912</v>
+        <v>0.03277800282259713</v>
       </c>
       <c r="M2" t="n">
-        <v>6.390103115823293</v>
+        <v>6.384368980609011</v>
       </c>
       <c r="N2" t="n">
-        <v>63.96461416278916</v>
+        <v>63.75485435913859</v>
       </c>
       <c r="O2" t="n">
-        <v>7.997788079387273</v>
+        <v>7.984663697309899</v>
       </c>
       <c r="P2" t="n">
-        <v>340.5270568438759</v>
+        <v>340.4695265828446</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32613,28 +32783,28 @@
         <v>0.0521</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2376557127666831</v>
+        <v>0.2441079955981944</v>
       </c>
       <c r="J3" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K3" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04196031946821654</v>
+        <v>0.04456161572957029</v>
       </c>
       <c r="M3" t="n">
-        <v>6.504940179721277</v>
+        <v>6.502562899782429</v>
       </c>
       <c r="N3" t="n">
-        <v>69.66792459975879</v>
+        <v>69.58529155708645</v>
       </c>
       <c r="O3" t="n">
-        <v>8.346731372205458</v>
+        <v>8.341779879443383</v>
       </c>
       <c r="P3" t="n">
-        <v>329.861474209259</v>
+        <v>329.7994532622578</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32691,28 +32861,28 @@
         <v>0.0545</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2567428525359381</v>
+        <v>0.2603794902433214</v>
       </c>
       <c r="J4" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K4" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04411669948650021</v>
+        <v>0.04583195465604728</v>
       </c>
       <c r="M4" t="n">
-        <v>6.690097482025162</v>
+        <v>6.677441865015514</v>
       </c>
       <c r="N4" t="n">
-        <v>76.10370993772899</v>
+        <v>75.82908275919965</v>
       </c>
       <c r="O4" t="n">
-        <v>8.723744032107373</v>
+        <v>8.70798959342509</v>
       </c>
       <c r="P4" t="n">
-        <v>326.9701424654742</v>
+        <v>326.9349713696569</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32769,28 +32939,28 @@
         <v>0.0579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2171829109690056</v>
+        <v>0.2199048320678921</v>
       </c>
       <c r="J5" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K5" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02667877961361464</v>
+        <v>0.02763526430917229</v>
       </c>
       <c r="M5" t="n">
-        <v>7.414636211004185</v>
+        <v>7.406370516118655</v>
       </c>
       <c r="N5" t="n">
-        <v>92.18706685956451</v>
+        <v>91.88887661062432</v>
       </c>
       <c r="O5" t="n">
-        <v>9.601409628776626</v>
+        <v>9.585868589263276</v>
       </c>
       <c r="P5" t="n">
-        <v>325.267165254437</v>
+        <v>325.2407583163712</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32847,28 +33017,28 @@
         <v>0.0527</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2061815760979634</v>
+        <v>0.2100084466268017</v>
       </c>
       <c r="J6" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K6" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0239965616267771</v>
+        <v>0.02518471963293367</v>
       </c>
       <c r="M6" t="n">
-        <v>7.527521007999032</v>
+        <v>7.503403933736892</v>
       </c>
       <c r="N6" t="n">
-        <v>92.72172737357701</v>
+        <v>92.26398237479638</v>
       </c>
       <c r="O6" t="n">
-        <v>9.629212188625662</v>
+        <v>9.605414221926944</v>
       </c>
       <c r="P6" t="n">
-        <v>323.1655357824527</v>
+        <v>323.1281172816682</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32925,28 +33095,28 @@
         <v>0.0552</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2265409434255904</v>
+        <v>0.2277844536114319</v>
       </c>
       <c r="J7" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K7" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02639646451692956</v>
+        <v>0.02702152873579777</v>
       </c>
       <c r="M7" t="n">
-        <v>7.77040552987726</v>
+        <v>7.733089922996488</v>
       </c>
       <c r="N7" t="n">
-        <v>100.3635321557388</v>
+        <v>99.81635551493497</v>
       </c>
       <c r="O7" t="n">
-        <v>10.01816011829212</v>
+        <v>9.990813556209272</v>
       </c>
       <c r="P7" t="n">
-        <v>323.195042751579</v>
+        <v>323.182791601346</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33003,28 +33173,28 @@
         <v>0.0615</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1176602528487996</v>
+        <v>0.1251613292154862</v>
       </c>
       <c r="J8" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K8" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007636583772923644</v>
+        <v>0.008723461845965175</v>
       </c>
       <c r="M8" t="n">
-        <v>7.641636900975174</v>
+        <v>7.635502762651641</v>
       </c>
       <c r="N8" t="n">
-        <v>94.2502993112692</v>
+        <v>93.98225964680951</v>
       </c>
       <c r="O8" t="n">
-        <v>9.7082593347762</v>
+        <v>9.69444478280265</v>
       </c>
       <c r="P8" t="n">
-        <v>327.0585522777699</v>
+        <v>326.9840958302847</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33081,28 +33251,28 @@
         <v>0.0566</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2164183836327176</v>
+        <v>0.2185186303237322</v>
       </c>
       <c r="J9" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K9" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02737728575393394</v>
+        <v>0.0282318877387322</v>
       </c>
       <c r="M9" t="n">
-        <v>7.556317640764136</v>
+        <v>7.536330155124343</v>
       </c>
       <c r="N9" t="n">
-        <v>88.13684084264781</v>
+        <v>87.74855053965548</v>
       </c>
       <c r="O9" t="n">
-        <v>9.388122327848516</v>
+        <v>9.367419630808449</v>
       </c>
       <c r="P9" t="n">
-        <v>327.1303383147149</v>
+        <v>327.1096923050306</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33159,28 +33329,28 @@
         <v>0.0644</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1978838415516507</v>
+        <v>0.1984235268905659</v>
       </c>
       <c r="J10" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K10" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01702572455945317</v>
+        <v>0.01732622638421566</v>
       </c>
       <c r="M10" t="n">
-        <v>8.60779719189417</v>
+        <v>8.584914358869762</v>
       </c>
       <c r="N10" t="n">
-        <v>122.2384001558982</v>
+        <v>121.6707727738935</v>
       </c>
       <c r="O10" t="n">
-        <v>11.0561476182212</v>
+        <v>11.03044753280181</v>
       </c>
       <c r="P10" t="n">
-        <v>330.877085187924</v>
+        <v>330.8718717642885</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33237,28 +33407,28 @@
         <v>0.0581</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1464221385166115</v>
+        <v>0.153934549165598</v>
       </c>
       <c r="J11" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K11" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007975628081931307</v>
+        <v>0.008910194096493296</v>
       </c>
       <c r="M11" t="n">
-        <v>9.383167576835168</v>
+        <v>9.362259326358698</v>
       </c>
       <c r="N11" t="n">
-        <v>143.9881427558057</v>
+        <v>143.4249580883335</v>
       </c>
       <c r="O11" t="n">
-        <v>11.99950593798785</v>
+        <v>11.97601595224111</v>
       </c>
       <c r="P11" t="n">
-        <v>335.9401477659307</v>
+        <v>335.8674331946522</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33315,28 +33485,28 @@
         <v>0.0551</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1758073307169074</v>
+        <v>0.1813767251192908</v>
       </c>
       <c r="J12" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K12" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0118581116380071</v>
+        <v>0.01276789772736719</v>
       </c>
       <c r="M12" t="n">
-        <v>9.305829969758195</v>
+        <v>9.27723577205014</v>
       </c>
       <c r="N12" t="n">
-        <v>138.5079278367441</v>
+        <v>137.8738409451483</v>
       </c>
       <c r="O12" t="n">
-        <v>11.76893911262796</v>
+        <v>11.74196921070517</v>
       </c>
       <c r="P12" t="n">
-        <v>337.5613832394372</v>
+        <v>337.5073865063534</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33393,28 +33563,28 @@
         <v>0.059</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1731822065824233</v>
+        <v>0.1725286426697407</v>
       </c>
       <c r="J13" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K13" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01244614793304299</v>
+        <v>0.01251625125946565</v>
       </c>
       <c r="M13" t="n">
-        <v>8.91911322446923</v>
+        <v>8.883274091040187</v>
       </c>
       <c r="N13" t="n">
-        <v>126.9582108460491</v>
+        <v>126.2838248258444</v>
       </c>
       <c r="O13" t="n">
-        <v>11.2675734231488</v>
+        <v>11.2376076113132</v>
       </c>
       <c r="P13" t="n">
-        <v>343.864759440264</v>
+        <v>343.8711232904107</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33471,28 +33641,28 @@
         <v>0.0597</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1039667469696189</v>
+        <v>0.1000663930447177</v>
       </c>
       <c r="J14" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K14" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005463167072369379</v>
+        <v>0.005128079986528977</v>
       </c>
       <c r="M14" t="n">
-        <v>8.14968421556493</v>
+        <v>8.122719507097642</v>
       </c>
       <c r="N14" t="n">
-        <v>105.7787538043813</v>
+        <v>105.2674997805037</v>
       </c>
       <c r="O14" t="n">
-        <v>10.28487986339079</v>
+        <v>10.25999511600779</v>
       </c>
       <c r="P14" t="n">
-        <v>344.6935069390004</v>
+        <v>344.7313997561502</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33549,28 +33719,28 @@
         <v>0.0641</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09811903457283631</v>
+        <v>0.09690046535451607</v>
       </c>
       <c r="J15" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K15" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005530614475458995</v>
+        <v>0.005473182283992073</v>
       </c>
       <c r="M15" t="n">
-        <v>7.92317674349978</v>
+        <v>7.880856793617028</v>
       </c>
       <c r="N15" t="n">
-        <v>94.69743840521711</v>
+        <v>94.12642131728515</v>
       </c>
       <c r="O15" t="n">
-        <v>9.731260884655036</v>
+        <v>9.701877205844504</v>
       </c>
       <c r="P15" t="n">
-        <v>349.3455425630543</v>
+        <v>349.3572360570276</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33627,28 +33797,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0001867627035544704</v>
+        <v>-0.003081688521407471</v>
       </c>
       <c r="J16" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K16" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L16" t="n">
-        <v>2.02155742146104e-08</v>
+        <v>5.575116212019893e-06</v>
       </c>
       <c r="M16" t="n">
-        <v>7.692163811238315</v>
+        <v>7.663394792982433</v>
       </c>
       <c r="N16" t="n">
-        <v>92.45923355836803</v>
+        <v>91.99970735211409</v>
       </c>
       <c r="O16" t="n">
-        <v>9.615572450892772</v>
+        <v>9.591647791287693</v>
       </c>
       <c r="P16" t="n">
-        <v>360.3213821342065</v>
+        <v>360.3494468166337</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33705,28 +33875,28 @@
         <v>0.0583</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03648969731117794</v>
+        <v>0.03295989707350844</v>
       </c>
       <c r="J17" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K17" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0007843317059846866</v>
+        <v>0.0006471510179728579</v>
       </c>
       <c r="M17" t="n">
-        <v>7.563276575423396</v>
+        <v>7.551406367117519</v>
       </c>
       <c r="N17" t="n">
-        <v>90.03579689886863</v>
+        <v>89.75752847503838</v>
       </c>
       <c r="O17" t="n">
-        <v>9.488719455167205</v>
+        <v>9.474044990131638</v>
       </c>
       <c r="P17" t="n">
-        <v>353.2898947585971</v>
+        <v>353.3242175718056</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33783,28 +33953,28 @@
         <v>0.0673</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07275725370834216</v>
+        <v>0.07609803810853764</v>
       </c>
       <c r="J18" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K18" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00516988559174314</v>
+        <v>0.005720214459384421</v>
       </c>
       <c r="M18" t="n">
-        <v>5.716483371415675</v>
+        <v>5.701315695124811</v>
       </c>
       <c r="N18" t="n">
-        <v>55.02315973168413</v>
+        <v>54.80821558191235</v>
       </c>
       <c r="O18" t="n">
-        <v>7.417759751547911</v>
+        <v>7.403257092787765</v>
       </c>
       <c r="P18" t="n">
-        <v>343.3753574535153</v>
+        <v>343.3433080688922</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -33861,28 +34031,28 @@
         <v>0.078</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08123376925494456</v>
+        <v>0.0866539653187417</v>
       </c>
       <c r="J19" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K19" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L19" t="n">
-        <v>0.006283715297170533</v>
+        <v>0.007227210033630471</v>
       </c>
       <c r="M19" t="n">
-        <v>6.124598351730342</v>
+        <v>6.115913506382687</v>
       </c>
       <c r="N19" t="n">
-        <v>58.27615302052688</v>
+        <v>58.05917406597295</v>
       </c>
       <c r="O19" t="n">
-        <v>7.633881910307945</v>
+        <v>7.619657083227103</v>
       </c>
       <c r="P19" t="n">
-        <v>334.8967206566131</v>
+        <v>334.8453426970129</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -33939,28 +34109,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1907970176516675</v>
+        <v>0.1951201688192197</v>
       </c>
       <c r="J20" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K20" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03499100817809997</v>
+        <v>0.03698032307409227</v>
       </c>
       <c r="M20" t="n">
-        <v>5.762420784065516</v>
+        <v>5.749402073947144</v>
       </c>
       <c r="N20" t="n">
-        <v>55.91807964850816</v>
+        <v>55.66423064771572</v>
       </c>
       <c r="O20" t="n">
-        <v>7.477839236604927</v>
+        <v>7.46084651012978</v>
       </c>
       <c r="P20" t="n">
-        <v>333.8914708757721</v>
+        <v>333.8504150737715</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34017,28 +34187,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3846830157072949</v>
+        <v>0.3843277570665781</v>
       </c>
       <c r="J21" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K21" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1256080801277262</v>
+        <v>0.1269283030568086</v>
       </c>
       <c r="M21" t="n">
-        <v>5.862656190798204</v>
+        <v>5.832306765767353</v>
       </c>
       <c r="N21" t="n">
-        <v>56.64112699611346</v>
+        <v>56.31806422426471</v>
       </c>
       <c r="O21" t="n">
-        <v>7.526029962477791</v>
+        <v>7.504536243117539</v>
       </c>
       <c r="P21" t="n">
-        <v>331.0204320882372</v>
+        <v>331.0238177457167</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34095,28 +34265,28 @@
         <v>0.0833</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3184164458991219</v>
+        <v>0.3338419654014483</v>
       </c>
       <c r="J22" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K22" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L22" t="n">
-        <v>0.06615451254877358</v>
+        <v>0.07203029646384662</v>
       </c>
       <c r="M22" t="n">
-        <v>6.89586377429582</v>
+        <v>6.938574067275896</v>
       </c>
       <c r="N22" t="n">
-        <v>77.62408851213009</v>
+        <v>78.49507085630482</v>
       </c>
       <c r="O22" t="n">
-        <v>8.810453365867733</v>
+        <v>8.859744401296508</v>
       </c>
       <c r="P22" t="n">
-        <v>335.479688767723</v>
+        <v>335.3316149449012</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34154,7 +34324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W395"/>
+  <dimension ref="A1:W397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63852,7 +64022,7 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>-38.28437679294503,178.33697566166452</t>
+          <t>-38.284376792945025,178.33697566166452</t>
         </is>
       </c>
       <c r="S275" t="inlineStr">
@@ -64623,7 +64793,7 @@
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>-38.284339814185586,178.33701511353183</t>
+          <t>-38.28433981418558,178.33701511353183</t>
         </is>
       </c>
       <c r="S282" t="inlineStr">
@@ -67702,7 +67872,7 @@
       </c>
       <c r="U310" t="inlineStr">
         <is>
-          <t>-38.2858956933251,178.33890233108093</t>
+          <t>-38.28589569332511,178.33890233108093</t>
         </is>
       </c>
       <c r="V310" t="inlineStr">
@@ -68527,7 +68697,7 @@
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>-38.282293875111435,178.3345375988122</t>
+          <t>-38.28229387511144,178.3345375988122</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -69151,7 +69321,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>-38.27582874544828,178.3309197652654</t>
+          <t>-38.27582874544827,178.3309197652654</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -70830,7 +71000,7 @@
       </c>
       <c r="U338" t="inlineStr">
         <is>
-          <t>-38.285802392339626,178.3389775291736</t>
+          <t>-38.28580239233963,178.3389775291736</t>
         </is>
       </c>
       <c r="V338" t="inlineStr">
@@ -73020,7 +73190,7 @@
       </c>
       <c r="U360" t="inlineStr">
         <is>
-          <t>-38.285850703193944,178.338938591947</t>
+          <t>-38.28585070319394,178.338938591947</t>
         </is>
       </c>
       <c r="V360" t="inlineStr">
@@ -76917,6 +77087,240 @@
         </is>
       </c>
     </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:08+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>-38.27444655596275,178.33047461685877</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>-38.27511512478882,178.33076524438718</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>-38.27579491736695,178.3310219500994</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>-38.27646113109139,178.3313196552638</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>-38.27715065965976,178.33154330690036</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>-38.27780882143764,178.3318545189417</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>-38.27846086730029,178.33218853531608</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>-38.279112743958954,178.33252966183815</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>-38.27977438852773,178.33285302667167</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>-38.280409121000076,178.33326123395042</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>-38.281051176635934,178.3336453536599</t>
+        </is>
+      </c>
+      <c r="M396" t="inlineStr">
+        <is>
+          <t>-38.28168920545657,178.33405087370073</t>
+        </is>
+      </c>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t>-38.282267551421484,178.3345811093911</t>
+        </is>
+      </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>-38.282819222000704,178.3351409722289</t>
+        </is>
+      </c>
+      <c r="P396" t="inlineStr">
+        <is>
+          <t>-38.28334064040756,178.33574455210848</t>
+        </is>
+      </c>
+      <c r="Q396" t="inlineStr">
+        <is>
+          <t>-38.28383108957124,178.33638648361722</t>
+        </is>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>-38.28433461768475,178.33702065756611</t>
+        </is>
+      </c>
+      <c r="S396" t="inlineStr">
+        <is>
+          <t>-38.284870986609945,178.33761043707645</t>
+        </is>
+      </c>
+      <c r="T396" t="inlineStr">
+        <is>
+          <t>-38.285379233021885,178.33824428735238</t>
+        </is>
+      </c>
+      <c r="U396" t="inlineStr">
+        <is>
+          <t>-38.28582992100711,178.33895534182795</t>
+        </is>
+      </c>
+      <c r="V396" t="inlineStr">
+        <is>
+          <t>-38.28600923477812,178.3398662691074</t>
+        </is>
+      </c>
+      <c r="W396" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>-38.27443596448704,178.33050661041247</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>-38.275150414392925,178.33065864502515</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>-38.27582380349093,178.33093469350894</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>-38.27650195472671,178.33119633864814</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>-38.27714043501722,178.33157458973403</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>-38.27781175998836,178.33184520285866</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>-38.27844599109899,178.3322367965261</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>-38.27913919334873,178.3324438548638</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>-38.2798062401856,178.33275750797534</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>-38.28041705133792,178.33324114902743</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>-38.28103766473806,178.33367665926644</t>
+        </is>
+      </c>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t>-38.28166472628859,178.33409888692265</t>
+        </is>
+      </c>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>-38.2822934124196,178.3345383635987</t>
+        </is>
+      </c>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>-38.282812022143354,178.33515269623865</t>
+        </is>
+      </c>
+      <c r="P397" t="inlineStr">
+        <is>
+          <t>-38.28335914233721,178.33572019066457</t>
+        </is>
+      </c>
+      <c r="Q397" t="inlineStr">
+        <is>
+          <t>-38.283906538185455,178.3363074513702</t>
+        </is>
+      </c>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>-38.284372935258695,178.33697977735204</t>
+        </is>
+      </c>
+      <c r="S397" t="inlineStr">
+        <is>
+          <t>-38.284885555323605,178.33759381269383</t>
+        </is>
+      </c>
+      <c r="T397" t="inlineStr">
+        <is>
+          <t>-38.2853706461545,178.33825330222408</t>
+        </is>
+      </c>
+      <c r="U397" t="inlineStr">
+        <is>
+          <t>-38.28583872177613,178.33894824864723</t>
+        </is>
+      </c>
+      <c r="V397" t="inlineStr">
+        <is>
+          <t>-38.28613367945477,178.33978032924395</t>
+        </is>
+      </c>
+      <c r="W397" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0253/nzd0253.xlsx
+++ b/data/nzd0253/nzd0253.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W397"/>
+  <dimension ref="A1:W399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28523,6 +28523,156 @@
         </is>
       </c>
     </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:53:44+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>347.89</v>
+      </c>
+      <c r="C398" t="n">
+        <v>347.54</v>
+      </c>
+      <c r="D398" t="n">
+        <v>351.42</v>
+      </c>
+      <c r="E398" t="n">
+        <v>333</v>
+      </c>
+      <c r="F398" t="n">
+        <v>344.21</v>
+      </c>
+      <c r="G398" t="n">
+        <v>344.4299999999999</v>
+      </c>
+      <c r="H398" t="n">
+        <v>343.6763636363636</v>
+      </c>
+      <c r="I398" t="n">
+        <v>348.97</v>
+      </c>
+      <c r="J398" t="n">
+        <v>369.6363636363636</v>
+      </c>
+      <c r="K398" t="n">
+        <v>368.42</v>
+      </c>
+      <c r="L398" t="n">
+        <v>372.86</v>
+      </c>
+      <c r="M398" t="n">
+        <v>378.0663636363636</v>
+      </c>
+      <c r="N398" t="n">
+        <v>377.7663636363636</v>
+      </c>
+      <c r="O398" t="n">
+        <v>373.33</v>
+      </c>
+      <c r="P398" t="n">
+        <v>381.05</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>362.9463636363636</v>
+      </c>
+      <c r="R398" t="n">
+        <v>353.7115384615385</v>
+      </c>
+      <c r="S398" t="n">
+        <v>334.6</v>
+      </c>
+      <c r="T398" t="n">
+        <v>330.9515384615385</v>
+      </c>
+      <c r="U398" t="n">
+        <v>327.2415384615384</v>
+      </c>
+      <c r="V398" t="n">
+        <v>339.62</v>
+      </c>
+      <c r="W398" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:53:21+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>357.8533333333333</v>
+      </c>
+      <c r="C399" t="n">
+        <v>333.8</v>
+      </c>
+      <c r="D399" t="n">
+        <v>334.05</v>
+      </c>
+      <c r="E399" t="n">
+        <v>334.97</v>
+      </c>
+      <c r="F399" t="n">
+        <v>331.28</v>
+      </c>
+      <c r="G399" t="n">
+        <v>334.02</v>
+      </c>
+      <c r="H399" t="n">
+        <v>338.0136363636364</v>
+      </c>
+      <c r="I399" t="n">
+        <v>327.18</v>
+      </c>
+      <c r="J399" t="n">
+        <v>336.4536363636363</v>
+      </c>
+      <c r="K399" t="n">
+        <v>352.52</v>
+      </c>
+      <c r="L399" t="n">
+        <v>344.9</v>
+      </c>
+      <c r="M399" t="n">
+        <v>354.6336363636364</v>
+      </c>
+      <c r="N399" t="n">
+        <v>342.5936363636364</v>
+      </c>
+      <c r="O399" t="n">
+        <v>347.2733333333333</v>
+      </c>
+      <c r="P399" t="n">
+        <v>353.0133333333333</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>341.6136363636364</v>
+      </c>
+      <c r="R399" t="n">
+        <v>346.7807692307692</v>
+      </c>
+      <c r="S399" t="n">
+        <v>335.8314285714285</v>
+      </c>
+      <c r="T399" t="n">
+        <v>337.3407692307692</v>
+      </c>
+      <c r="U399" t="n">
+        <v>337.1507692307692</v>
+      </c>
+      <c r="V399" t="n">
+        <v>346.3366666666667</v>
+      </c>
+      <c r="W399" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28534,7 +28684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B399"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32532,6 +32682,26 @@
       </c>
       <c r="B399" t="n">
         <v>-0.44</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>-0.31</v>
       </c>
     </row>
   </sheetData>
@@ -32705,28 +32875,28 @@
         <v>0.06850000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1993987312044103</v>
+        <v>0.2079510529453675</v>
       </c>
       <c r="J2" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K2" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03277800282259713</v>
+        <v>0.03578937992950915</v>
       </c>
       <c r="M2" t="n">
-        <v>6.384368980609011</v>
+        <v>6.392342054004331</v>
       </c>
       <c r="N2" t="n">
-        <v>63.75485435913859</v>
+        <v>63.8249669000359</v>
       </c>
       <c r="O2" t="n">
-        <v>7.984663697309899</v>
+        <v>7.989052941371455</v>
       </c>
       <c r="P2" t="n">
-        <v>340.4695265828446</v>
+        <v>340.387315929993</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32783,28 +32953,28 @@
         <v>0.0521</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2441079955981944</v>
+        <v>0.2494055083220384</v>
       </c>
       <c r="J3" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K3" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04456161572957029</v>
+        <v>0.04678422062011744</v>
       </c>
       <c r="M3" t="n">
-        <v>6.502562899782429</v>
+        <v>6.507647453047412</v>
       </c>
       <c r="N3" t="n">
-        <v>69.58529155708645</v>
+        <v>69.57406767001156</v>
       </c>
       <c r="O3" t="n">
-        <v>8.341779879443383</v>
+        <v>8.341107100979555</v>
       </c>
       <c r="P3" t="n">
-        <v>329.7994532622578</v>
+        <v>329.7484509201011</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32861,28 +33031,28 @@
         <v>0.0545</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2603794902433214</v>
+        <v>0.2709313225245917</v>
       </c>
       <c r="J4" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K4" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04583195465604728</v>
+        <v>0.04953705815064269</v>
       </c>
       <c r="M4" t="n">
-        <v>6.677441865015514</v>
+        <v>6.693739776192777</v>
       </c>
       <c r="N4" t="n">
-        <v>75.82908275919965</v>
+        <v>76.27106965098854</v>
       </c>
       <c r="O4" t="n">
-        <v>8.70798959342509</v>
+        <v>8.73333095966187</v>
       </c>
       <c r="P4" t="n">
-        <v>326.9349713696569</v>
+        <v>326.8327153878603</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32939,28 +33109,28 @@
         <v>0.0579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2199048320678921</v>
+        <v>0.2234937093697115</v>
       </c>
       <c r="J5" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K5" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02763526430917229</v>
+        <v>0.02887775947462379</v>
       </c>
       <c r="M5" t="n">
-        <v>7.406370516118655</v>
+        <v>7.382171876754055</v>
       </c>
       <c r="N5" t="n">
-        <v>91.88887661062432</v>
+        <v>91.42816423641868</v>
       </c>
       <c r="O5" t="n">
-        <v>9.585868589263276</v>
+        <v>9.561807582064109</v>
       </c>
       <c r="P5" t="n">
-        <v>325.2407583163712</v>
+        <v>325.2058275865788</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33017,28 +33187,28 @@
         <v>0.0527</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2100084466268017</v>
+        <v>0.2207359040364203</v>
       </c>
       <c r="J6" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K6" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02518471963293367</v>
+        <v>0.02790264939294218</v>
       </c>
       <c r="M6" t="n">
-        <v>7.503403933736892</v>
+        <v>7.513652748287679</v>
       </c>
       <c r="N6" t="n">
-        <v>92.26398237479638</v>
+        <v>92.44693888411825</v>
       </c>
       <c r="O6" t="n">
-        <v>9.605414221926944</v>
+        <v>9.614933119066313</v>
       </c>
       <c r="P6" t="n">
-        <v>323.1281172816682</v>
+        <v>323.0230851224057</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33095,28 +33265,28 @@
         <v>0.0552</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2277844536114319</v>
+        <v>0.2393796140254904</v>
       </c>
       <c r="J7" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K7" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02702152873579777</v>
+        <v>0.02992904711318456</v>
       </c>
       <c r="M7" t="n">
-        <v>7.733089922996488</v>
+        <v>7.743659157804666</v>
       </c>
       <c r="N7" t="n">
-        <v>99.81635551493497</v>
+        <v>99.97235453348527</v>
       </c>
       <c r="O7" t="n">
-        <v>9.990813556209272</v>
+        <v>9.998617631127079</v>
       </c>
       <c r="P7" t="n">
-        <v>323.182791601346</v>
+        <v>323.0683461663702</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33173,28 +33343,28 @@
         <v>0.0615</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1251613292154862</v>
+        <v>0.1373854917385247</v>
       </c>
       <c r="J8" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K8" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008723461845965175</v>
+        <v>0.01055522816409826</v>
       </c>
       <c r="M8" t="n">
-        <v>7.635502762651641</v>
+        <v>7.652934851217942</v>
       </c>
       <c r="N8" t="n">
-        <v>93.98225964680951</v>
+        <v>94.11814585281832</v>
       </c>
       <c r="O8" t="n">
-        <v>9.69444478280265</v>
+        <v>9.701450708673333</v>
       </c>
       <c r="P8" t="n">
-        <v>326.9840958302847</v>
+        <v>326.8625679322956</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33251,28 +33421,28 @@
         <v>0.0566</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2185186303237322</v>
+        <v>0.2247318448894728</v>
       </c>
       <c r="J9" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K9" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0282318877387322</v>
+        <v>0.02992581822976814</v>
       </c>
       <c r="M9" t="n">
-        <v>7.536330155124343</v>
+        <v>7.554908088226894</v>
       </c>
       <c r="N9" t="n">
-        <v>87.74855053965548</v>
+        <v>88.0781985657725</v>
       </c>
       <c r="O9" t="n">
-        <v>9.367419630808449</v>
+        <v>9.38499859167664</v>
       </c>
       <c r="P9" t="n">
-        <v>327.1096923050306</v>
+        <v>327.0484941674975</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33329,28 +33499,28 @@
         <v>0.0644</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1984235268905659</v>
+        <v>0.2179296045228744</v>
       </c>
       <c r="J10" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K10" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01732622638421566</v>
+        <v>0.02057493631878049</v>
       </c>
       <c r="M10" t="n">
-        <v>8.584914358869762</v>
+        <v>8.624960821034316</v>
       </c>
       <c r="N10" t="n">
-        <v>121.6707727738935</v>
+        <v>124.1142901871793</v>
       </c>
       <c r="O10" t="n">
-        <v>11.03044753280181</v>
+        <v>11.14065932461716</v>
       </c>
       <c r="P10" t="n">
-        <v>330.8718717642885</v>
+        <v>330.6822760075218</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33407,28 +33577,28 @@
         <v>0.0581</v>
       </c>
       <c r="I11" t="n">
-        <v>0.153934549165598</v>
+        <v>0.1774387044759989</v>
       </c>
       <c r="J11" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K11" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008910194096493296</v>
+        <v>0.01174274725126201</v>
       </c>
       <c r="M11" t="n">
-        <v>9.362259326358698</v>
+        <v>9.407930881597625</v>
       </c>
       <c r="N11" t="n">
-        <v>143.4249580883335</v>
+        <v>145.2823044295495</v>
       </c>
       <c r="O11" t="n">
-        <v>11.97601595224111</v>
+        <v>12.05331093225216</v>
       </c>
       <c r="P11" t="n">
-        <v>335.8674331946522</v>
+        <v>335.6395242551133</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33485,28 +33655,28 @@
         <v>0.0551</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1813767251192908</v>
+        <v>0.2005734304654913</v>
       </c>
       <c r="J12" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K12" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01276789772736719</v>
+        <v>0.01548503405420765</v>
       </c>
       <c r="M12" t="n">
-        <v>9.27723577205014</v>
+        <v>9.306623931199915</v>
       </c>
       <c r="N12" t="n">
-        <v>137.8738409451483</v>
+        <v>139.7056081222879</v>
       </c>
       <c r="O12" t="n">
-        <v>11.74196921070517</v>
+        <v>11.81971269203647</v>
       </c>
       <c r="P12" t="n">
-        <v>337.5073865063534</v>
+        <v>337.3210221728398</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33563,28 +33733,28 @@
         <v>0.059</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1725286426697407</v>
+        <v>0.1934625657537173</v>
       </c>
       <c r="J13" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K13" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01251625125946565</v>
+        <v>0.01558416907242743</v>
       </c>
       <c r="M13" t="n">
-        <v>8.883274091040187</v>
+        <v>8.930936225360384</v>
       </c>
       <c r="N13" t="n">
-        <v>126.2838248258444</v>
+        <v>128.1193272201062</v>
       </c>
       <c r="O13" t="n">
-        <v>11.2376076113132</v>
+        <v>11.31898083840176</v>
       </c>
       <c r="P13" t="n">
-        <v>343.8711232904107</v>
+        <v>343.6665325904545</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33641,28 +33811,28 @@
         <v>0.0597</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1000663930447177</v>
+        <v>0.115156103063788</v>
       </c>
       <c r="J14" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K14" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005128079986528977</v>
+        <v>0.0067014834874215</v>
       </c>
       <c r="M14" t="n">
-        <v>8.122719507097642</v>
+        <v>8.173100471724917</v>
       </c>
       <c r="N14" t="n">
-        <v>105.2674997805037</v>
+        <v>107.3427129998928</v>
       </c>
       <c r="O14" t="n">
-        <v>10.25999511600779</v>
+        <v>10.36063284746124</v>
       </c>
       <c r="P14" t="n">
-        <v>344.7313997561502</v>
+        <v>344.5846693316785</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33719,28 +33889,28 @@
         <v>0.0641</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09690046535451607</v>
+        <v>0.1073661397909035</v>
       </c>
       <c r="J15" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K15" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005473182283992073</v>
+        <v>0.006703369551919969</v>
       </c>
       <c r="M15" t="n">
-        <v>7.880856793617028</v>
+        <v>7.910157099790976</v>
       </c>
       <c r="N15" t="n">
-        <v>94.12642131728515</v>
+        <v>95.01021347303377</v>
       </c>
       <c r="O15" t="n">
-        <v>9.701877205844504</v>
+        <v>9.747318270839102</v>
       </c>
       <c r="P15" t="n">
-        <v>349.3572360570276</v>
+        <v>349.2566559025635</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33797,28 +33967,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.003081688521407471</v>
+        <v>0.004594102397810063</v>
       </c>
       <c r="J16" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K16" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L16" t="n">
-        <v>5.575116212019893e-06</v>
+        <v>1.237617105498412e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>7.663394792982433</v>
+        <v>7.699074185430709</v>
       </c>
       <c r="N16" t="n">
-        <v>91.99970735211409</v>
+        <v>92.81165693491786</v>
       </c>
       <c r="O16" t="n">
-        <v>9.591647791287693</v>
+        <v>9.633880678881063</v>
       </c>
       <c r="P16" t="n">
-        <v>360.3494468166337</v>
+        <v>360.2749892176255</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33875,28 +34045,28 @@
         <v>0.0583</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03295989707350844</v>
+        <v>0.03078134458300678</v>
       </c>
       <c r="J17" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K17" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0006471510179728579</v>
+        <v>0.000567954338433152</v>
       </c>
       <c r="M17" t="n">
-        <v>7.551406367117519</v>
+        <v>7.568135058361118</v>
       </c>
       <c r="N17" t="n">
-        <v>89.75752847503838</v>
+        <v>89.90606659756314</v>
       </c>
       <c r="O17" t="n">
-        <v>9.474044990131638</v>
+        <v>9.481880963055966</v>
       </c>
       <c r="P17" t="n">
-        <v>353.3242175718056</v>
+        <v>353.3454777612455</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33953,28 +34123,28 @@
         <v>0.0673</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07609803810853764</v>
+        <v>0.08173581239888061</v>
       </c>
       <c r="J18" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K18" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005720214459384421</v>
+        <v>0.006657220498419103</v>
       </c>
       <c r="M18" t="n">
-        <v>5.701315695124811</v>
+        <v>5.697715455295737</v>
       </c>
       <c r="N18" t="n">
-        <v>54.80821558191235</v>
+        <v>54.70490597022611</v>
       </c>
       <c r="O18" t="n">
-        <v>7.403257092787765</v>
+        <v>7.396276493630164</v>
       </c>
       <c r="P18" t="n">
-        <v>343.3433080688922</v>
+        <v>343.2891150365377</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34031,28 +34201,28 @@
         <v>0.078</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0866539653187417</v>
+        <v>0.08445326260289708</v>
       </c>
       <c r="J19" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K19" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L19" t="n">
-        <v>0.007227210033630471</v>
+        <v>0.006957862020767203</v>
       </c>
       <c r="M19" t="n">
-        <v>6.115913506382687</v>
+        <v>6.090626977420214</v>
       </c>
       <c r="N19" t="n">
-        <v>58.05917406597295</v>
+        <v>57.74195740828301</v>
       </c>
       <c r="O19" t="n">
-        <v>7.619657083227103</v>
+        <v>7.598812894675261</v>
       </c>
       <c r="P19" t="n">
-        <v>334.8453426970129</v>
+        <v>334.8662435511279</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34109,28 +34279,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1951201688192197</v>
+        <v>0.1894901048890795</v>
       </c>
       <c r="J20" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K20" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03698032307409227</v>
+        <v>0.03529793901349598</v>
       </c>
       <c r="M20" t="n">
-        <v>5.749402073947144</v>
+        <v>5.743247529378589</v>
       </c>
       <c r="N20" t="n">
-        <v>55.66423064771572</v>
+        <v>55.52709359407576</v>
       </c>
       <c r="O20" t="n">
-        <v>7.46084651012978</v>
+        <v>7.45165039397822</v>
       </c>
       <c r="P20" t="n">
-        <v>333.8504150737715</v>
+        <v>333.9039653688637</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34187,28 +34357,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3843277570665781</v>
+        <v>0.3740444427597781</v>
       </c>
       <c r="J21" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K21" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1269283030568086</v>
+        <v>0.1214068459793974</v>
       </c>
       <c r="M21" t="n">
-        <v>5.832306765767353</v>
+        <v>5.848252968631876</v>
       </c>
       <c r="N21" t="n">
-        <v>56.31806422426471</v>
+        <v>56.56770182827601</v>
       </c>
       <c r="O21" t="n">
-        <v>7.504536243117539</v>
+        <v>7.521150299540357</v>
       </c>
       <c r="P21" t="n">
-        <v>331.0238177457167</v>
+        <v>331.1218877767898</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34265,28 +34435,28 @@
         <v>0.0833</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3338419654014483</v>
+        <v>0.3327067018810228</v>
       </c>
       <c r="J22" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K22" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07203029646384662</v>
+        <v>0.07240656400817225</v>
       </c>
       <c r="M22" t="n">
-        <v>6.938574067275896</v>
+        <v>6.918220332294942</v>
       </c>
       <c r="N22" t="n">
-        <v>78.49507085630482</v>
+        <v>78.12891366927063</v>
       </c>
       <c r="O22" t="n">
-        <v>8.859744401296508</v>
+        <v>8.839056152625721</v>
       </c>
       <c r="P22" t="n">
-        <v>335.3316149449012</v>
+        <v>335.342518606557</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34324,7 +34494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W397"/>
+  <dimension ref="A1:W399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77321,6 +77491,240 @@
         </is>
       </c>
     </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:53:44+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>-38.27445043060792,178.3304629127522</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>-38.27511160974443,178.33077586226614</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>-38.27575806136949,178.33113328098852</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>-38.27648211716957,178.33125626234218</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>-38.27710253147675,178.3316905573263</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>-38.27776250578004,178.33200135300436</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>-38.278429995962895,178.33228868768086</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>-38.279078569165584,178.33264053114365</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>-38.279674124577,178.33315370231875</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>-38.28032369858285,178.33347757987914</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>-38.28093220260426,178.33392100260158</t>
+        </is>
+      </c>
+      <c r="M398" t="inlineStr">
+        <is>
+          <t>-38.28152913197348,178.33436483917245</t>
+        </is>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>-38.28209630530256,178.33486416173352</t>
+        </is>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>-38.2826917972658,178.33534846585985</t>
+        </is>
+      </c>
+      <c r="P398" t="inlineStr">
+        <is>
+          <t>-38.28320495253181,178.33592321143993</t>
+        </is>
+      </c>
+      <c r="Q398" t="inlineStr">
+        <is>
+          <t>-38.28378734775473,178.33643230297358</t>
+        </is>
+      </c>
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>-38.2843154192054,178.3370411399996</t>
+        </is>
+      </c>
+      <c r="S398" t="inlineStr">
+        <is>
+          <t>-38.28492461206888,178.3375492449356</t>
+        </is>
+      </c>
+      <c r="T398" t="inlineStr">
+        <is>
+          <t>-38.285454293512345,178.33816548542856</t>
+        </is>
+      </c>
+      <c r="U398" t="inlineStr">
+        <is>
+          <t>-38.285936131328086,178.3388697390684</t>
+        </is>
+      </c>
+      <c r="V398" t="inlineStr">
+        <is>
+          <t>-38.2862083093987,178.33972879063495</t>
+        </is>
+      </c>
+      <c r="W398" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:53:21+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>-38.274415755975305,178.33056765394457</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>-38.27515942819258,178.33063141696482</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>-38.275818513506465,178.3309506730348</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>-38.276475261024814,178.33127697280358</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>-38.27714704488803,178.33155436648912</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>-38.27779726758378,178.33189114807823</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>-38.278448532463756,178.33222855186406</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>-38.27914989747868,178.33240912850684</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>-38.27979032869177,178.332805224373</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>-38.2803877050466,178.33331547341447</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>-38.2810529033955,178.33364135294252</t>
+        </is>
+      </c>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t>-38.2816435222381,178.33414047630336</t>
+        </is>
+      </c>
+      <c r="N399" t="inlineStr">
+        <is>
+          <t>-38.28228879545132,178.33454599501604</t>
+        </is>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>-38.28283573931665,178.33511407596228</t>
+        </is>
+      </c>
+      <c r="P399" t="inlineStr">
+        <is>
+          <t>-38.28337980628512,178.33569298247542</t>
+        </is>
+      </c>
+      <c r="Q399" t="inlineStr">
+        <is>
+          <t>-38.2839352078917,178.336277419866</t>
+        </is>
+      </c>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>-38.28436309789339,178.33699027263546</t>
+        </is>
+      </c>
+      <c r="S399" t="inlineStr">
+        <is>
+          <t>-38.28491638256269,178.33755863565273</t>
+        </is>
+      </c>
+      <c r="T399" t="inlineStr">
+        <is>
+          <t>-38.285410048791434,178.33821193557776</t>
+        </is>
+      </c>
+      <c r="U399" t="inlineStr">
+        <is>
+          <t>-38.28586095130341,178.33893033224385</t>
+        </is>
+      </c>
+      <c r="V399" t="inlineStr">
+        <is>
+          <t>-38.286155284246206,178.33976540922671</t>
+        </is>
+      </c>
+      <c r="W399" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0253/nzd0253.xlsx
+++ b/data/nzd0253/nzd0253.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W399"/>
+  <dimension ref="A1:W402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28673,6 +28673,231 @@
         </is>
       </c>
     </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:53:26+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>338.7</v>
+      </c>
+      <c r="C400" t="n">
+        <v>335.99</v>
+      </c>
+      <c r="D400" t="n">
+        <v>326.81</v>
+      </c>
+      <c r="E400" t="n">
+        <v>327.18</v>
+      </c>
+      <c r="F400" t="n">
+        <v>322.17</v>
+      </c>
+      <c r="G400" t="n">
+        <v>324.72</v>
+      </c>
+      <c r="H400" t="n">
+        <v>331.0990909090909</v>
+      </c>
+      <c r="I400" t="n">
+        <v>327.69</v>
+      </c>
+      <c r="J400" t="n">
+        <v>336.319090909091</v>
+      </c>
+      <c r="K400" t="n">
+        <v>344.35</v>
+      </c>
+      <c r="L400" t="n">
+        <v>338.04</v>
+      </c>
+      <c r="M400" t="n">
+        <v>346.9690909090909</v>
+      </c>
+      <c r="N400" t="n">
+        <v>346.2190909090909</v>
+      </c>
+      <c r="O400" t="n">
+        <v>348.22</v>
+      </c>
+      <c r="P400" t="n">
+        <v>353.41</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>345.7790909090909</v>
+      </c>
+      <c r="R400" t="n">
+        <v>343.1769230769231</v>
+      </c>
+      <c r="S400" t="n">
+        <v>333.7128571428572</v>
+      </c>
+      <c r="T400" t="n">
+        <v>333.8169230769231</v>
+      </c>
+      <c r="U400" t="n">
+        <v>332.8369230769231</v>
+      </c>
+      <c r="V400" t="n">
+        <v>342.34</v>
+      </c>
+      <c r="W400" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-19 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>371.2566666666667</v>
+      </c>
+      <c r="C401" t="n">
+        <v>339.03</v>
+      </c>
+      <c r="D401" t="n">
+        <v>322.86</v>
+      </c>
+      <c r="E401" t="n">
+        <v>333.81</v>
+      </c>
+      <c r="F401" t="n">
+        <v>331.48</v>
+      </c>
+      <c r="G401" t="n">
+        <v>330.93</v>
+      </c>
+      <c r="H401" t="n">
+        <v>324.4036363636364</v>
+      </c>
+      <c r="I401" t="n">
+        <v>323.64</v>
+      </c>
+      <c r="J401" t="n">
+        <v>339.8236363636364</v>
+      </c>
+      <c r="K401" t="n">
+        <v>348.99</v>
+      </c>
+      <c r="L401" t="n">
+        <v>346.53</v>
+      </c>
+      <c r="M401" t="n">
+        <v>353.0936363636364</v>
+      </c>
+      <c r="N401" t="n">
+        <v>339.6236363636364</v>
+      </c>
+      <c r="O401" t="n">
+        <v>350.3466666666667</v>
+      </c>
+      <c r="P401" t="n">
+        <v>362.4366666666667</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>346.9936363636364</v>
+      </c>
+      <c r="R401" t="n">
+        <v>342.4130769230769</v>
+      </c>
+      <c r="S401" t="n">
+        <v>333.4728571428572</v>
+      </c>
+      <c r="T401" t="n">
+        <v>332.8430769230769</v>
+      </c>
+      <c r="U401" t="n">
+        <v>329.9230769230769</v>
+      </c>
+      <c r="V401" t="n">
+        <v>340.0733333333333</v>
+      </c>
+      <c r="W401" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>342.89</v>
+      </c>
+      <c r="C402" t="n">
+        <v>334.23</v>
+      </c>
+      <c r="D402" t="n">
+        <v>328.22</v>
+      </c>
+      <c r="E402" t="n">
+        <v>333.12</v>
+      </c>
+      <c r="F402" t="n">
+        <v>331.46</v>
+      </c>
+      <c r="G402" t="n">
+        <v>332.15</v>
+      </c>
+      <c r="H402" t="n">
+        <v>324.4518181818182</v>
+      </c>
+      <c r="I402" t="n">
+        <v>331.29</v>
+      </c>
+      <c r="J402" t="n">
+        <v>340.9418181818182</v>
+      </c>
+      <c r="K402" t="n">
+        <v>349.86</v>
+      </c>
+      <c r="L402" t="n">
+        <v>345.33</v>
+      </c>
+      <c r="M402" t="n">
+        <v>354.3618181818182</v>
+      </c>
+      <c r="N402" t="n">
+        <v>344.1718181818182</v>
+      </c>
+      <c r="O402" t="n">
+        <v>349.82</v>
+      </c>
+      <c r="P402" t="n">
+        <v>360.82</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>351.4918181818182</v>
+      </c>
+      <c r="R402" t="n">
+        <v>340.7830769230769</v>
+      </c>
+      <c r="S402" t="n">
+        <v>334.1885714285714</v>
+      </c>
+      <c r="T402" t="n">
+        <v>337.4530769230769</v>
+      </c>
+      <c r="U402" t="n">
+        <v>341.4730769230769</v>
+      </c>
+      <c r="V402" t="n">
+        <v>351.55</v>
+      </c>
+      <c r="W402" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28684,7 +28909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B401"/>
+  <dimension ref="A1:B404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32702,6 +32927,36 @@
       </c>
       <c r="B401" t="n">
         <v>-0.31</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2025-07-19 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -32875,28 +33130,28 @@
         <v>0.06850000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2079510529453675</v>
+        <v>0.2169091261674485</v>
       </c>
       <c r="J2" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K2" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03578937992950915</v>
+        <v>0.03843387484629868</v>
       </c>
       <c r="M2" t="n">
-        <v>6.392342054004331</v>
+        <v>6.441755875367051</v>
       </c>
       <c r="N2" t="n">
-        <v>63.8249669000359</v>
+        <v>65.25547213440157</v>
       </c>
       <c r="O2" t="n">
-        <v>7.989052941371455</v>
+        <v>8.078085920216594</v>
       </c>
       <c r="P2" t="n">
-        <v>340.387315929993</v>
+        <v>340.3008900942779</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32953,28 +33208,28 @@
         <v>0.0521</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2494055083220384</v>
+        <v>0.2497403402260043</v>
       </c>
       <c r="J3" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K3" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04678422062011744</v>
+        <v>0.04777919047973811</v>
       </c>
       <c r="M3" t="n">
-        <v>6.507647453047412</v>
+        <v>6.467702154004897</v>
       </c>
       <c r="N3" t="n">
-        <v>69.57406767001156</v>
+        <v>69.02891116316422</v>
       </c>
       <c r="O3" t="n">
-        <v>8.341107100979555</v>
+        <v>8.308363928184912</v>
       </c>
       <c r="P3" t="n">
-        <v>329.7484509201011</v>
+        <v>329.7452225203592</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33031,28 +33286,28 @@
         <v>0.0545</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2709313225245917</v>
+        <v>0.2574238086198913</v>
       </c>
       <c r="J4" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K4" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04953705815064269</v>
+        <v>0.04548970596783397</v>
       </c>
       <c r="M4" t="n">
-        <v>6.693739776192777</v>
+        <v>6.697841793454176</v>
       </c>
       <c r="N4" t="n">
-        <v>76.27106965098854</v>
+        <v>76.1853529336999</v>
       </c>
       <c r="O4" t="n">
-        <v>8.73333095966187</v>
+        <v>8.728422133106298</v>
       </c>
       <c r="P4" t="n">
-        <v>326.8327153878603</v>
+        <v>326.9640544183422</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33109,28 +33364,28 @@
         <v>0.0579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2234937093697115</v>
+        <v>0.2241342154660279</v>
       </c>
       <c r="J5" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K5" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02887775947462379</v>
+        <v>0.02958085122783238</v>
       </c>
       <c r="M5" t="n">
-        <v>7.382171876754055</v>
+        <v>7.34471754128986</v>
       </c>
       <c r="N5" t="n">
-        <v>91.42816423641868</v>
+        <v>90.73703859918248</v>
       </c>
       <c r="O5" t="n">
-        <v>9.561807582064109</v>
+        <v>9.525599120222438</v>
       </c>
       <c r="P5" t="n">
-        <v>325.2058275865788</v>
+        <v>325.1995212101331</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33187,28 +33442,28 @@
         <v>0.0527</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2207359040364203</v>
+        <v>0.2201001505022679</v>
       </c>
       <c r="J6" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K6" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02790264939294218</v>
+        <v>0.02823128074563874</v>
       </c>
       <c r="M6" t="n">
-        <v>7.513652748287679</v>
+        <v>7.484017725360269</v>
       </c>
       <c r="N6" t="n">
-        <v>92.44693888411825</v>
+        <v>91.83062645579345</v>
       </c>
       <c r="O6" t="n">
-        <v>9.614933119066313</v>
+        <v>9.582829772869465</v>
       </c>
       <c r="P6" t="n">
-        <v>323.0230851224057</v>
+        <v>323.0292458999462</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33265,28 +33520,28 @@
         <v>0.0552</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2393796140254904</v>
+        <v>0.2393709161883917</v>
       </c>
       <c r="J7" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K7" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02992904711318456</v>
+        <v>0.03046082163463537</v>
       </c>
       <c r="M7" t="n">
-        <v>7.743659157804666</v>
+        <v>7.705056669319969</v>
       </c>
       <c r="N7" t="n">
-        <v>99.97235453348527</v>
+        <v>99.24132031656934</v>
       </c>
       <c r="O7" t="n">
-        <v>9.998617631127079</v>
+        <v>9.961993792237042</v>
       </c>
       <c r="P7" t="n">
-        <v>323.0683461663702</v>
+        <v>323.0683684719079</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33343,28 +33598,28 @@
         <v>0.0615</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1373854917385247</v>
+        <v>0.1309900791767238</v>
       </c>
       <c r="J8" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K8" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01055522816409826</v>
+        <v>0.009768810922089366</v>
       </c>
       <c r="M8" t="n">
-        <v>7.652934851217942</v>
+        <v>7.624162644116834</v>
       </c>
       <c r="N8" t="n">
-        <v>94.11814585281832</v>
+        <v>93.54477144668125</v>
       </c>
       <c r="O8" t="n">
-        <v>9.701450708673333</v>
+        <v>9.671854602230187</v>
       </c>
       <c r="P8" t="n">
-        <v>326.8625679322956</v>
+        <v>326.9264036627015</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33421,28 +33676,28 @@
         <v>0.0566</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2247318448894728</v>
+        <v>0.2155487086787597</v>
       </c>
       <c r="J9" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K9" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02992581822976814</v>
+        <v>0.02803009991506633</v>
       </c>
       <c r="M9" t="n">
-        <v>7.554908088226894</v>
+        <v>7.535658280022105</v>
       </c>
       <c r="N9" t="n">
-        <v>88.0781985657725</v>
+        <v>87.65536490103541</v>
       </c>
       <c r="O9" t="n">
-        <v>9.38499859167664</v>
+        <v>9.362444387073037</v>
       </c>
       <c r="P9" t="n">
-        <v>327.0484941674975</v>
+        <v>327.1392848609039</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33499,28 +33754,28 @@
         <v>0.0644</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2179296045228744</v>
+        <v>0.2224649939959427</v>
       </c>
       <c r="J10" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K10" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02057493631878049</v>
+        <v>0.02181434909899316</v>
       </c>
       <c r="M10" t="n">
-        <v>8.624960821034316</v>
+        <v>8.574026595893624</v>
       </c>
       <c r="N10" t="n">
-        <v>124.1142901871793</v>
+        <v>123.1760444211758</v>
       </c>
       <c r="O10" t="n">
-        <v>11.14065932461716</v>
+        <v>11.09847036402656</v>
       </c>
       <c r="P10" t="n">
-        <v>330.6822760075218</v>
+        <v>330.6379980926725</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33577,28 +33832,28 @@
         <v>0.0581</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1774387044759989</v>
+        <v>0.1899878976965029</v>
       </c>
       <c r="J11" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K11" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01174274725126201</v>
+        <v>0.01365142816288745</v>
       </c>
       <c r="M11" t="n">
-        <v>9.407930881597625</v>
+        <v>9.383630527904037</v>
       </c>
       <c r="N11" t="n">
-        <v>145.2823044295495</v>
+        <v>144.5865269858282</v>
       </c>
       <c r="O11" t="n">
-        <v>12.05331093225216</v>
+        <v>12.02441378969587</v>
       </c>
       <c r="P11" t="n">
-        <v>335.6395242551133</v>
+        <v>335.5174027342877</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33655,28 +33910,28 @@
         <v>0.0551</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2005734304654913</v>
+        <v>0.2018967243461737</v>
       </c>
       <c r="J12" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K12" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01548503405420765</v>
+        <v>0.01597721816812159</v>
       </c>
       <c r="M12" t="n">
-        <v>9.306623931199915</v>
+        <v>9.260216402848616</v>
       </c>
       <c r="N12" t="n">
-        <v>139.7056081222879</v>
+        <v>138.674685983483</v>
       </c>
       <c r="O12" t="n">
-        <v>11.81971269203647</v>
+        <v>11.77602165349075</v>
       </c>
       <c r="P12" t="n">
-        <v>337.3210221728398</v>
+        <v>337.3080651316728</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33733,28 +33988,28 @@
         <v>0.059</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1934625657537173</v>
+        <v>0.1982343581737785</v>
       </c>
       <c r="J13" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K13" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01558416907242743</v>
+        <v>0.01664896362630164</v>
       </c>
       <c r="M13" t="n">
-        <v>8.930936225360384</v>
+        <v>8.888794092482781</v>
       </c>
       <c r="N13" t="n">
-        <v>128.1193272201062</v>
+        <v>127.2062867071979</v>
       </c>
       <c r="O13" t="n">
-        <v>11.31898083840176</v>
+        <v>11.27857644861256</v>
       </c>
       <c r="P13" t="n">
-        <v>343.6665325904545</v>
+        <v>343.6196796519742</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33811,28 +34066,28 @@
         <v>0.0597</v>
       </c>
       <c r="I14" t="n">
-        <v>0.115156103063788</v>
+        <v>0.1078509877361221</v>
       </c>
       <c r="J14" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K14" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0067014834874215</v>
+        <v>0.005988432829330925</v>
       </c>
       <c r="M14" t="n">
-        <v>8.173100471724917</v>
+        <v>8.140432879346543</v>
       </c>
       <c r="N14" t="n">
-        <v>107.3427129998928</v>
+        <v>106.6491162114156</v>
       </c>
       <c r="O14" t="n">
-        <v>10.36063284746124</v>
+        <v>10.32710589717253</v>
       </c>
       <c r="P14" t="n">
-        <v>344.5846693316785</v>
+        <v>344.6559912739115</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33889,28 +34144,28 @@
         <v>0.0641</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1073661397909035</v>
+        <v>0.1026751887750643</v>
       </c>
       <c r="J15" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K15" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L15" t="n">
-        <v>0.006703369551919969</v>
+        <v>0.006259100062817713</v>
       </c>
       <c r="M15" t="n">
-        <v>7.910157099790976</v>
+        <v>7.862181329633542</v>
       </c>
       <c r="N15" t="n">
-        <v>95.01021347303377</v>
+        <v>94.21741766018435</v>
       </c>
       <c r="O15" t="n">
-        <v>9.747318270839102</v>
+        <v>9.70656569854572</v>
       </c>
       <c r="P15" t="n">
-        <v>349.2566559025635</v>
+        <v>349.301895122633</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33967,28 +34222,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>0.004594102397810063</v>
+        <v>0.002094009880696439</v>
       </c>
       <c r="J16" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K16" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L16" t="n">
-        <v>1.237617105498412e-05</v>
+        <v>2.617374943891804e-06</v>
       </c>
       <c r="M16" t="n">
-        <v>7.699074185430709</v>
+        <v>7.662035178331126</v>
       </c>
       <c r="N16" t="n">
-        <v>92.81165693491786</v>
+        <v>92.20387207533263</v>
       </c>
       <c r="O16" t="n">
-        <v>9.633880678881063</v>
+        <v>9.602284732048547</v>
       </c>
       <c r="P16" t="n">
-        <v>360.2749892176255</v>
+        <v>360.2992701265846</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34045,28 +34300,28 @@
         <v>0.0583</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03078134458300678</v>
+        <v>0.02063483207399875</v>
       </c>
       <c r="J17" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K17" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000567954338433152</v>
+        <v>0.0002593583571907088</v>
       </c>
       <c r="M17" t="n">
-        <v>7.568135058361118</v>
+        <v>7.555353106625948</v>
       </c>
       <c r="N17" t="n">
-        <v>89.90606659756314</v>
+        <v>89.51951119673944</v>
       </c>
       <c r="O17" t="n">
-        <v>9.481880963055966</v>
+        <v>9.461475106807576</v>
       </c>
       <c r="P17" t="n">
-        <v>353.3454777612455</v>
+        <v>353.4444872296218</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34123,28 +34378,28 @@
         <v>0.0673</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08173581239888061</v>
+        <v>0.07621758008405406</v>
       </c>
       <c r="J18" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K18" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L18" t="n">
-        <v>0.006657220498419103</v>
+        <v>0.00589748510442778</v>
       </c>
       <c r="M18" t="n">
-        <v>5.697715455295737</v>
+        <v>5.676794084660058</v>
       </c>
       <c r="N18" t="n">
-        <v>54.70490597022611</v>
+        <v>54.35364955919492</v>
       </c>
       <c r="O18" t="n">
-        <v>7.396276493630164</v>
+        <v>7.372492764268739</v>
       </c>
       <c r="P18" t="n">
-        <v>343.2891150365377</v>
+        <v>343.342352857694</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34201,28 +34456,28 @@
         <v>0.078</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08445326260289708</v>
+        <v>0.07882183549048373</v>
       </c>
       <c r="J19" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K19" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L19" t="n">
-        <v>0.006957862020767203</v>
+        <v>0.006178280805947733</v>
       </c>
       <c r="M19" t="n">
-        <v>6.090626977420214</v>
+        <v>6.064080467972189</v>
       </c>
       <c r="N19" t="n">
-        <v>57.74195740828301</v>
+        <v>57.33075482288901</v>
       </c>
       <c r="O19" t="n">
-        <v>7.598812894675261</v>
+        <v>7.571707523596578</v>
       </c>
       <c r="P19" t="n">
-        <v>334.8662435511279</v>
+        <v>334.9199022651512</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34279,28 +34534,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1894901048890795</v>
+        <v>0.1823426635393517</v>
       </c>
       <c r="J20" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K20" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03529793901349598</v>
+        <v>0.03331074556804636</v>
       </c>
       <c r="M20" t="n">
-        <v>5.743247529378589</v>
+        <v>5.72773991336132</v>
       </c>
       <c r="N20" t="n">
-        <v>55.52709359407576</v>
+        <v>55.21973380140997</v>
       </c>
       <c r="O20" t="n">
-        <v>7.45165039397822</v>
+        <v>7.43099816992374</v>
       </c>
       <c r="P20" t="n">
-        <v>333.9039653688637</v>
+        <v>333.972160315572</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34357,28 +34612,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3740444427597781</v>
+        <v>0.3635937578441831</v>
       </c>
       <c r="J21" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K21" t="n">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1214068459793974</v>
+        <v>0.1166179793904782</v>
       </c>
       <c r="M21" t="n">
-        <v>5.848252968631876</v>
+        <v>5.854395056122156</v>
       </c>
       <c r="N21" t="n">
-        <v>56.56770182827601</v>
+        <v>56.59651640334172</v>
       </c>
       <c r="O21" t="n">
-        <v>7.521150299540357</v>
+        <v>7.523065625351258</v>
       </c>
       <c r="P21" t="n">
-        <v>331.1218877767898</v>
+        <v>331.221830627292</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34435,28 +34690,28 @@
         <v>0.0833</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3327067018810228</v>
+        <v>0.333862684643014</v>
       </c>
       <c r="J22" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K22" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07240656400817225</v>
+        <v>0.07402602407912873</v>
       </c>
       <c r="M22" t="n">
-        <v>6.918220332294942</v>
+        <v>6.897829301744506</v>
       </c>
       <c r="N22" t="n">
-        <v>78.12891366927063</v>
+        <v>77.69242622330384</v>
       </c>
       <c r="O22" t="n">
-        <v>8.839056152625721</v>
+        <v>8.814330730310942</v>
       </c>
       <c r="P22" t="n">
-        <v>335.342518606557</v>
+        <v>335.3313039709122</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34494,7 +34749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W399"/>
+  <dimension ref="A1:W402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77725,6 +77980,357 @@
         </is>
       </c>
     </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:53:26+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>-38.27448241379026,178.33036630125784</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>-38.275151806485916,178.33065443991978</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>-38.27584371051959,178.3308745600073</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>-38.276502372359175,178.33119507709628</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>-38.27717840730379,178.33145841135033</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>-38.27782832271589,178.33179269401165</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>-38.27847116665585,178.3321551222111</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>-38.27914822802786,178.33241454454492</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>-38.279790799860706,178.33280381140278</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>-38.280420593822875,178.3332321770806</t>
+        </is>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>-38.28108251730283,178.333572740608</t>
+        </is>
+      </c>
+      <c r="M400" t="inlineStr">
+        <is>
+          <t>-38.281680937748234,178.3340670899178</t>
+        </is>
+      </c>
+      <c r="N400" t="inlineStr">
+        <is>
+          <t>-38.28226895442325,178.33457879036277</t>
+        </is>
+      </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>-38.28283050975456,178.33512259161552</t>
+        </is>
+      </c>
+      <c r="P400" t="inlineStr">
+        <is>
+          <t>-38.28337733243248,178.33569623979466</t>
+        </is>
+      </c>
+      <c r="Q400" t="inlineStr">
+        <is>
+          <t>-38.283906336552334,178.33630766258068</t>
+        </is>
+      </c>
+      <c r="R400" t="inlineStr">
+        <is>
+          <t>-38.28438788974588,178.3369638227092</t>
+        </is>
+      </c>
+      <c r="S400" t="inlineStr">
+        <is>
+          <t>-38.28493054074987,178.33754247969605</t>
+        </is>
+      </c>
+      <c r="T400" t="inlineStr">
+        <is>
+          <t>-38.285434451040594,178.33818631697963</t>
+        </is>
+      </c>
+      <c r="U400" t="inlineStr">
+        <is>
+          <t>-38.28589367988706,178.33890395386024</t>
+        </is>
+      </c>
+      <c r="V400" t="inlineStr">
+        <is>
+          <t>-38.28618683618652,178.3397436198077</t>
+        </is>
+      </c>
+      <c r="W400" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-19 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>-38.27436910923488,178.3307085585345</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>-38.275141226575656,178.33068639871607</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>-38.27585745748949,178.33083303422902</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>-38.27647929814601,178.33126477781158</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>-38.27714635635998,178.33155647307734</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>-38.27780758591042,178.33185843593088</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>-38.27849308363108,178.33208401916622</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>-38.27916148542506,178.3323715348233</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>-38.279778527178,178.33284061545194</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>-38.280401915258885,178.33327948369873</t>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>-38.28104586684949,178.33365765586458</t>
+        </is>
+      </c>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>-38.28165103995862,178.33412573113864</t>
+        </is>
+      </c>
+      <c r="N401" t="inlineStr">
+        <is>
+          <t>-38.282305049366826,178.3345191288043</t>
+        </is>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>-38.28281876165179,178.33514172184596</t>
+        </is>
+      </c>
+      <c r="P401" t="inlineStr">
+        <is>
+          <t>-38.283321036672994,178.3357703642764</t>
+        </is>
+      </c>
+      <c r="Q401" t="inlineStr">
+        <is>
+          <t>-38.283897918369284,178.33631648061788</t>
+        </is>
+      </c>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t>-38.28439314445381,178.33695821656462</t>
+        </is>
+      </c>
+      <c r="S401" t="inlineStr">
+        <is>
+          <t>-38.28493214464419,178.33754064948613</t>
+        </is>
+      </c>
+      <c r="T401" t="inlineStr">
+        <is>
+          <t>-38.2854411948179,178.3381792370497</t>
+        </is>
+      </c>
+      <c r="U401" t="inlineStr">
+        <is>
+          <t>-38.28591578685231,178.33888613620877</t>
+        </is>
+      </c>
+      <c r="V401" t="inlineStr">
+        <is>
+          <t>-38.286204730530095,178.3397312621643</t>
+        </is>
+      </c>
+      <c r="W401" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>-38.27446783169562,178.3304103493827</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>-38.27515793169342,178.3306359374541</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>-38.27583880337009,178.33088938312903</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>-38.27648169953649,178.33125752389324</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>-38.277146425212784,178.3315562624185</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>-38.277803512009015,178.33187135140776</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>-38.27849292591232,178.332084530838</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>-38.27913644366244,178.33245277539405</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>-38.27977461137815,178.33285235837528</t>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>-38.2803984130262,178.33328835368673</t>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>-38.281051047128955,178.3336456537137</t>
+        </is>
+      </c>
+      <c r="M402" t="inlineStr">
+        <is>
+          <t>-38.281644849155825,178.33413787370367</t>
+        </is>
+      </c>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t>-38.282280158535364,178.33456027102682</t>
+        </is>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>-38.282821671056816,178.33513698426597</t>
+        </is>
+      </c>
+      <c r="P402" t="inlineStr">
+        <is>
+          <t>-38.28333111918818,178.3357570886669</t>
+        </is>
+      </c>
+      <c r="Q402" t="inlineStr">
+        <is>
+          <t>-38.283866740842484,178.33634913901955</t>
+        </is>
+      </c>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t>-38.28440435767173,178.3369462533994</t>
+        </is>
+      </c>
+      <c r="S402" t="inlineStr">
+        <is>
+          <t>-38.28492736160213,178.33754610743333</t>
+        </is>
+      </c>
+      <c r="T402" t="inlineStr">
+        <is>
+          <t>-38.28540927107287,178.33821275206196</t>
+        </is>
+      </c>
+      <c r="U402" t="inlineStr">
+        <is>
+          <t>-38.28582815851885,178.33895676234536</t>
+        </is>
+      </c>
+      <c r="V402" t="inlineStr">
+        <is>
+          <t>-38.28611412724897,178.33979383176148</t>
+        </is>
+      </c>
+      <c r="W402" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0253/nzd0253.xlsx
+++ b/data/nzd0253/nzd0253.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W402"/>
+  <dimension ref="A1:W403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28898,6 +28898,81 @@
         </is>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:53:47+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>339.17</v>
+      </c>
+      <c r="C403" t="n">
+        <v>330.1799999999999</v>
+      </c>
+      <c r="D403" t="n">
+        <v>322.99</v>
+      </c>
+      <c r="E403" t="n">
+        <v>323.37</v>
+      </c>
+      <c r="F403" t="n">
+        <v>319.91</v>
+      </c>
+      <c r="G403" t="n">
+        <v>319.85</v>
+      </c>
+      <c r="H403" t="n">
+        <v>318.3436363636364</v>
+      </c>
+      <c r="I403" t="n">
+        <v>317.97</v>
+      </c>
+      <c r="J403" t="n">
+        <v>323.3836363636364</v>
+      </c>
+      <c r="K403" t="n">
+        <v>327.86</v>
+      </c>
+      <c r="L403" t="n">
+        <v>331.47</v>
+      </c>
+      <c r="M403" t="n">
+        <v>333.2136363636364</v>
+      </c>
+      <c r="N403" t="n">
+        <v>334.8036363636364</v>
+      </c>
+      <c r="O403" t="n">
+        <v>337.4</v>
+      </c>
+      <c r="P403" t="n">
+        <v>340.5</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>342.1736363636364</v>
+      </c>
+      <c r="R403" t="n">
+        <v>339.0892307692308</v>
+      </c>
+      <c r="S403" t="n">
+        <v>326.7428571428572</v>
+      </c>
+      <c r="T403" t="n">
+        <v>332.0592307692308</v>
+      </c>
+      <c r="U403" t="n">
+        <v>330.5692307692308</v>
+      </c>
+      <c r="V403" t="n">
+        <v>337.63</v>
+      </c>
+      <c r="W403" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28909,7 +28984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B404"/>
+  <dimension ref="A1:B405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32957,6 +33032,16 @@
       </c>
       <c r="B404" t="n">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -33130,28 +33215,28 @@
         <v>0.06850000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2169091261674485</v>
+        <v>0.212992875364861</v>
       </c>
       <c r="J2" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K2" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03843387484629868</v>
+        <v>0.03728052765850876</v>
       </c>
       <c r="M2" t="n">
-        <v>6.441755875367051</v>
+        <v>6.440756233251826</v>
       </c>
       <c r="N2" t="n">
-        <v>65.25547213440157</v>
+        <v>65.20085710896409</v>
       </c>
       <c r="O2" t="n">
-        <v>8.078085920216594</v>
+        <v>8.074704769151879</v>
       </c>
       <c r="P2" t="n">
-        <v>340.3008900942779</v>
+        <v>340.338825685194</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33208,28 +33293,28 @@
         <v>0.0521</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2497403402260043</v>
+        <v>0.2462765340543271</v>
       </c>
       <c r="J3" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K3" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04777919047973811</v>
+        <v>0.04675260211075771</v>
       </c>
       <c r="M3" t="n">
-        <v>6.467702154004897</v>
+        <v>6.464338332264296</v>
       </c>
       <c r="N3" t="n">
-        <v>69.02891116316422</v>
+        <v>68.93920691608183</v>
       </c>
       <c r="O3" t="n">
-        <v>8.308363928184912</v>
+        <v>8.302963742910228</v>
       </c>
       <c r="P3" t="n">
-        <v>329.7452225203592</v>
+        <v>329.7788651795508</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33286,28 +33371,28 @@
         <v>0.0545</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2574238086198913</v>
+        <v>0.2513290083597214</v>
       </c>
       <c r="J4" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K4" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04548970596783397</v>
+        <v>0.04356028051607697</v>
       </c>
       <c r="M4" t="n">
-        <v>6.697841793454176</v>
+        <v>6.705868964613064</v>
       </c>
       <c r="N4" t="n">
-        <v>76.1853529336999</v>
+        <v>76.28588116662284</v>
       </c>
       <c r="O4" t="n">
-        <v>8.728422133106298</v>
+        <v>8.734178906263763</v>
       </c>
       <c r="P4" t="n">
-        <v>326.9640544183422</v>
+        <v>327.0236134340902</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33364,28 +33449,28 @@
         <v>0.0579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2241342154660279</v>
+        <v>0.219722529155821</v>
       </c>
       <c r="J5" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K5" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02958085122783238</v>
+        <v>0.02859390157554487</v>
       </c>
       <c r="M5" t="n">
-        <v>7.34471754128986</v>
+        <v>7.345246822986506</v>
       </c>
       <c r="N5" t="n">
-        <v>90.73703859918248</v>
+        <v>90.64668685026152</v>
       </c>
       <c r="O5" t="n">
-        <v>9.525599120222438</v>
+        <v>9.520855363372638</v>
       </c>
       <c r="P5" t="n">
-        <v>325.1995212101331</v>
+        <v>325.2428012357467</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33442,28 +33527,28 @@
         <v>0.0527</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2201001505022679</v>
+        <v>0.21503023134747</v>
       </c>
       <c r="J6" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K6" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02823128074563874</v>
+        <v>0.02708905400922612</v>
       </c>
       <c r="M6" t="n">
-        <v>7.484017725360269</v>
+        <v>7.487307782180291</v>
       </c>
       <c r="N6" t="n">
-        <v>91.83062645579345</v>
+        <v>91.79105054331406</v>
       </c>
       <c r="O6" t="n">
-        <v>9.582829772869465</v>
+        <v>9.580764611622293</v>
       </c>
       <c r="P6" t="n">
-        <v>323.0292458999462</v>
+        <v>323.0793096797979</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33520,28 +33605,28 @@
         <v>0.0552</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2393709161883917</v>
+        <v>0.2340709560845203</v>
       </c>
       <c r="J7" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K7" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03046082163463537</v>
+        <v>0.02927693747007809</v>
       </c>
       <c r="M7" t="n">
-        <v>7.705056669319969</v>
+        <v>7.710760672937227</v>
       </c>
       <c r="N7" t="n">
-        <v>99.24132031656934</v>
+        <v>99.2124989994762</v>
       </c>
       <c r="O7" t="n">
-        <v>9.961993792237042</v>
+        <v>9.960547123500605</v>
       </c>
       <c r="P7" t="n">
-        <v>323.0683684719079</v>
+        <v>323.1211160935522</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33598,28 +33683,28 @@
         <v>0.0615</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1309900791767238</v>
+        <v>0.1242208137693426</v>
       </c>
       <c r="J8" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K8" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009768810922089366</v>
+        <v>0.008813477544066362</v>
       </c>
       <c r="M8" t="n">
-        <v>7.624162644116834</v>
+        <v>7.634936354307871</v>
       </c>
       <c r="N8" t="n">
-        <v>93.54477144668125</v>
+        <v>93.67777670792306</v>
       </c>
       <c r="O8" t="n">
-        <v>9.671854602230187</v>
+        <v>9.678728052173129</v>
       </c>
       <c r="P8" t="n">
-        <v>326.9264036627015</v>
+        <v>326.9942466136577</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33676,28 +33761,28 @@
         <v>0.0566</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2155487086787597</v>
+        <v>0.2070590397906425</v>
       </c>
       <c r="J9" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K9" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02803009991506633</v>
+        <v>0.02591306327807008</v>
       </c>
       <c r="M9" t="n">
-        <v>7.535658280022105</v>
+        <v>7.554931706315565</v>
       </c>
       <c r="N9" t="n">
-        <v>87.65536490103541</v>
+        <v>88.01366493596204</v>
       </c>
       <c r="O9" t="n">
-        <v>9.362444387073037</v>
+        <v>9.381559834908161</v>
       </c>
       <c r="P9" t="n">
-        <v>327.1392848609039</v>
+        <v>327.2236622932512</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33754,28 +33839,28 @@
         <v>0.0644</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2224649939959427</v>
+        <v>0.2151369600428804</v>
       </c>
       <c r="J10" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K10" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02181434909899316</v>
+        <v>0.02048251500317655</v>
       </c>
       <c r="M10" t="n">
-        <v>8.574026595893624</v>
+        <v>8.589127927788187</v>
       </c>
       <c r="N10" t="n">
-        <v>123.1760444211758</v>
+        <v>123.3017837296597</v>
       </c>
       <c r="O10" t="n">
-        <v>11.09847036402656</v>
+        <v>11.10413363255593</v>
       </c>
       <c r="P10" t="n">
-        <v>330.6379980926725</v>
+        <v>330.7098469172601</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33832,28 +33917,28 @@
         <v>0.0581</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1899878976965029</v>
+        <v>0.1829429761322761</v>
       </c>
       <c r="J11" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K11" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01365142816288745</v>
+        <v>0.01271347875008699</v>
       </c>
       <c r="M11" t="n">
-        <v>9.383630527904037</v>
+        <v>9.396807233201816</v>
       </c>
       <c r="N11" t="n">
-        <v>144.5865269858282</v>
+        <v>144.6218442782197</v>
       </c>
       <c r="O11" t="n">
-        <v>12.02441378969587</v>
+        <v>12.02588226610504</v>
       </c>
       <c r="P11" t="n">
-        <v>335.5174027342877</v>
+        <v>335.5862856803906</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33910,28 +33995,28 @@
         <v>0.0551</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2018967243461737</v>
+        <v>0.1956342749865932</v>
       </c>
       <c r="J12" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K12" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01597721816812159</v>
+        <v>0.01507630624069189</v>
       </c>
       <c r="M12" t="n">
-        <v>9.260216402848616</v>
+        <v>9.268501509217636</v>
       </c>
       <c r="N12" t="n">
-        <v>138.674685983483</v>
+        <v>138.6292401592823</v>
       </c>
       <c r="O12" t="n">
-        <v>11.77602165349075</v>
+        <v>11.77409190380652</v>
       </c>
       <c r="P12" t="n">
-        <v>337.3080651316728</v>
+        <v>337.3693805650598</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33988,28 +34073,28 @@
         <v>0.059</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1982343581737785</v>
+        <v>0.1893665223411425</v>
       </c>
       <c r="J13" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K13" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01664896362630164</v>
+        <v>0.01523452644839318</v>
       </c>
       <c r="M13" t="n">
-        <v>8.888794092482781</v>
+        <v>8.908095017030673</v>
       </c>
       <c r="N13" t="n">
-        <v>127.2062867071979</v>
+        <v>127.5177748274</v>
       </c>
       <c r="O13" t="n">
-        <v>11.27857644861256</v>
+        <v>11.29237684579292</v>
       </c>
       <c r="P13" t="n">
-        <v>343.6196796519742</v>
+        <v>343.7070733400724</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34066,28 +34151,28 @@
         <v>0.0597</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1078509877361221</v>
+        <v>0.1005679134892128</v>
       </c>
       <c r="J14" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K14" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005988432829330925</v>
+        <v>0.005223545252165507</v>
       </c>
       <c r="M14" t="n">
-        <v>8.140432879346543</v>
+        <v>8.153333843143477</v>
       </c>
       <c r="N14" t="n">
-        <v>106.6491162114156</v>
+        <v>106.7953737230179</v>
       </c>
       <c r="O14" t="n">
-        <v>10.32710589717253</v>
+        <v>10.33418471496508</v>
       </c>
       <c r="P14" t="n">
-        <v>344.6559912739115</v>
+        <v>344.7274355098108</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34144,28 +34229,28 @@
         <v>0.0641</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1026751887750643</v>
+        <v>0.09383231521497905</v>
       </c>
       <c r="J15" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K15" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L15" t="n">
-        <v>0.006259100062817713</v>
+        <v>0.005234181169236241</v>
       </c>
       <c r="M15" t="n">
-        <v>7.862181329633542</v>
+        <v>7.882234210446935</v>
       </c>
       <c r="N15" t="n">
-        <v>94.21741766018435</v>
+        <v>94.56634409124787</v>
       </c>
       <c r="O15" t="n">
-        <v>9.70656569854572</v>
+        <v>9.724522820747961</v>
       </c>
       <c r="P15" t="n">
-        <v>349.301895122633</v>
+        <v>349.3876543784212</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34222,28 +34307,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002094009880696439</v>
+        <v>-0.008970515214085357</v>
       </c>
       <c r="J16" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K16" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L16" t="n">
-        <v>2.617374943891804e-06</v>
+        <v>4.779484709527271e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>7.662035178331126</v>
+        <v>7.693623082660603</v>
       </c>
       <c r="N16" t="n">
-        <v>92.20387207533263</v>
+        <v>93.0060118084976</v>
       </c>
       <c r="O16" t="n">
-        <v>9.602284732048547</v>
+        <v>9.64396245370634</v>
       </c>
       <c r="P16" t="n">
-        <v>360.2992701265846</v>
+        <v>360.4075700667269</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34300,28 +34385,28 @@
         <v>0.0583</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02063483207399875</v>
+        <v>0.01402730772772624</v>
       </c>
       <c r="J17" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K17" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002593583571907088</v>
+        <v>0.0001201508949351116</v>
       </c>
       <c r="M17" t="n">
-        <v>7.555353106625948</v>
+        <v>7.566581054161968</v>
       </c>
       <c r="N17" t="n">
-        <v>89.51951119673944</v>
+        <v>89.64926396724151</v>
       </c>
       <c r="O17" t="n">
-        <v>9.461475106807576</v>
+        <v>9.468329523587649</v>
       </c>
       <c r="P17" t="n">
-        <v>353.4444872296218</v>
+        <v>353.5093106821402</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34378,28 +34463,28 @@
         <v>0.0673</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07621758008405406</v>
+        <v>0.07272343486406774</v>
       </c>
       <c r="J18" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K18" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00589748510442778</v>
+        <v>0.005396522980704144</v>
       </c>
       <c r="M18" t="n">
-        <v>5.676794084660058</v>
+        <v>5.67758572790452</v>
       </c>
       <c r="N18" t="n">
-        <v>54.35364955919492</v>
+        <v>54.31100919672505</v>
       </c>
       <c r="O18" t="n">
-        <v>7.372492764268739</v>
+        <v>7.369600341723088</v>
       </c>
       <c r="P18" t="n">
-        <v>343.342352857694</v>
+        <v>343.3762225170541</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34456,28 +34541,28 @@
         <v>0.078</v>
       </c>
       <c r="I19" t="n">
-        <v>0.07882183549048373</v>
+        <v>0.07293687578089963</v>
       </c>
       <c r="J19" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K19" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L19" t="n">
-        <v>0.006178280805947733</v>
+        <v>0.005302260254650859</v>
       </c>
       <c r="M19" t="n">
-        <v>6.064080467972189</v>
+        <v>6.073790183340675</v>
       </c>
       <c r="N19" t="n">
-        <v>57.33075482288901</v>
+        <v>57.46474319153763</v>
       </c>
       <c r="O19" t="n">
-        <v>7.571707523596578</v>
+        <v>7.58055032247248</v>
       </c>
       <c r="P19" t="n">
-        <v>334.9199022651512</v>
+        <v>334.9762815810828</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34534,28 +34619,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1823426635393517</v>
+        <v>0.1784796309025438</v>
       </c>
       <c r="J20" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K20" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03331074556804636</v>
+        <v>0.03209401985630445</v>
       </c>
       <c r="M20" t="n">
-        <v>5.72773991336132</v>
+        <v>5.729943841828203</v>
       </c>
       <c r="N20" t="n">
-        <v>55.21973380140997</v>
+        <v>55.18713510104454</v>
       </c>
       <c r="O20" t="n">
-        <v>7.43099816992374</v>
+        <v>7.428804419356088</v>
       </c>
       <c r="P20" t="n">
-        <v>333.972160315572</v>
+        <v>334.0092296024238</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34612,28 +34697,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3635937578441831</v>
+        <v>0.3577826092594392</v>
       </c>
       <c r="J21" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K21" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1166179793904782</v>
+        <v>0.1134976807920499</v>
       </c>
       <c r="M21" t="n">
-        <v>5.854395056122156</v>
+        <v>5.867345048128229</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59651640334172</v>
+        <v>56.72375031737521</v>
       </c>
       <c r="O21" t="n">
-        <v>7.523065625351258</v>
+        <v>7.531517132515547</v>
       </c>
       <c r="P21" t="n">
-        <v>331.221830627292</v>
+        <v>331.2777262825367</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34690,28 +34775,28 @@
         <v>0.0833</v>
       </c>
       <c r="I22" t="n">
-        <v>0.333862684643014</v>
+        <v>0.3302644813562483</v>
       </c>
       <c r="J22" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K22" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07402602407912873</v>
+        <v>0.07289614489656815</v>
       </c>
       <c r="M22" t="n">
-        <v>6.897829301744506</v>
+        <v>6.89445136740716</v>
       </c>
       <c r="N22" t="n">
-        <v>77.69242622330384</v>
+        <v>77.59114660319086</v>
       </c>
       <c r="O22" t="n">
-        <v>8.814330730310942</v>
+        <v>8.808583688833913</v>
       </c>
       <c r="P22" t="n">
-        <v>335.3313039709122</v>
+        <v>335.3662013909675</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34749,7 +34834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W402"/>
+  <dimension ref="A1:W403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78331,6 +78416,123 @@
         </is>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:53:47+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>-38.274480778090684,178.33037124221792</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>-38.27517202662085,178.3305933607446</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>-38.27585700505779,178.33083440090047</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>-38.276515632183745,178.3311550228172</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>-38.27718618765031,178.33143460687813</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>-38.27784458488877,178.33174113792052</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>-38.27851292046767,178.33201966435323</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>-38.27918004575641,178.3323113211839</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>-38.27983609886062,178.33266796567816</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>-38.28048697504386,178.33306405485834</t>
+        </is>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>-38.28111087927621,178.33350702873926</t>
+        </is>
+      </c>
+      <c r="M403" t="inlineStr">
+        <is>
+          <t>-38.281748086748564,178.33393538418088</t>
+        </is>
+      </c>
+      <c r="N403" t="inlineStr">
+        <is>
+          <t>-38.2823314277638,178.33447552772054</t>
+        </is>
+      </c>
+      <c r="O403" t="inlineStr">
+        <is>
+          <t>-38.28289028140796,178.33502526122243</t>
+        </is>
+      </c>
+      <c r="P403" t="inlineStr">
+        <is>
+          <t>-38.283457846942426,178.33559022625644</t>
+        </is>
+      </c>
+      <c r="Q403" t="inlineStr">
+        <is>
+          <t>-38.2839313264549,178.336281485671</t>
+        </is>
+      </c>
+      <c r="R403" t="inlineStr">
+        <is>
+          <t>-38.28441601010388,178.3369338216401</t>
+        </is>
+      </c>
+      <c r="S403" t="inlineStr">
+        <is>
+          <t>-38.28497712050469,178.33748932731717</t>
+        </is>
+      </c>
+      <c r="T403" t="inlineStr">
+        <is>
+          <t>-38.2854466228659,178.3381735384322</t>
+        </is>
+      </c>
+      <c r="U403" t="inlineStr">
+        <is>
+          <t>-38.28591088456873,178.33889008732564</t>
+        </is>
+      </c>
+      <c r="V403" t="inlineStr">
+        <is>
+          <t>-38.286224019578846,178.33971794134524</t>
+        </is>
+      </c>
+      <c r="W403" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0253/nzd0253.xlsx
+++ b/data/nzd0253/nzd0253.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W403"/>
+  <dimension ref="A1:W404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28973,6 +28973,81 @@
         </is>
       </c>
     </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-15 21:54:03+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>333.68</v>
+      </c>
+      <c r="C404" t="n">
+        <v>334.42</v>
+      </c>
+      <c r="D404" t="n">
+        <v>333.49</v>
+      </c>
+      <c r="E404" t="n">
+        <v>326.42</v>
+      </c>
+      <c r="F404" t="n">
+        <v>319.66</v>
+      </c>
+      <c r="G404" t="n">
+        <v>318.72</v>
+      </c>
+      <c r="H404" t="n">
+        <v>327.2527272727273</v>
+      </c>
+      <c r="I404" t="n">
+        <v>335.52</v>
+      </c>
+      <c r="J404" t="n">
+        <v>338.7927272727272</v>
+      </c>
+      <c r="K404" t="n">
+        <v>343.09</v>
+      </c>
+      <c r="L404" t="n">
+        <v>344.46</v>
+      </c>
+      <c r="M404" t="n">
+        <v>351.8327272727273</v>
+      </c>
+      <c r="N404" t="n">
+        <v>350.9627272727272</v>
+      </c>
+      <c r="O404" t="n">
+        <v>353.77</v>
+      </c>
+      <c r="P404" t="n">
+        <v>356.21</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>346.3927272727273</v>
+      </c>
+      <c r="R404" t="n">
+        <v>337.4023076923077</v>
+      </c>
+      <c r="S404" t="n">
+        <v>335.4971428571428</v>
+      </c>
+      <c r="T404" t="n">
+        <v>338.1723076923077</v>
+      </c>
+      <c r="U404" t="n">
+        <v>338.7823076923077</v>
+      </c>
+      <c r="V404" t="n">
+        <v>335.9</v>
+      </c>
+      <c r="W404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28984,7 +29059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B405"/>
+  <dimension ref="A1:B406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33042,6 +33117,16 @@
       </c>
       <c r="B405" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2025-10-15 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -34834,7 +34919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W403"/>
+  <dimension ref="A1:W404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78533,6 +78618,123 @@
         </is>
       </c>
     </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-15 21:54:03+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>-38.274499884441916,178.33031352758402</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>-38.275157270449554,178.33063793487955</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>-38.275820462448344,178.33094478584135</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>-38.27650501736458,178.3311870872676</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>-38.277187048307844,178.33143197363972</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>-38.27784835824415,178.33172917520994</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>-38.27848375739019,178.33211427537603</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>-38.27912259701819,178.33249769662433</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>-38.279782137353486,178.33282978904822</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>-38.28042566601611,178.3332193308824</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>-38.281054802830866,178.33363695215317</t>
+        </is>
+      </c>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>-38.2816571952575,178.33411365820623</t>
+        </is>
+      </c>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>-38.28224299390866,178.3346217005956</t>
+        </is>
+      </c>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>-38.28279985051522,178.33517251610647</t>
+        </is>
+      </c>
+      <c r="P404" t="inlineStr">
+        <is>
+          <t>-38.283359869941094,178.33571923263003</t>
+        </is>
+      </c>
+      <c r="Q404" t="inlineStr">
+        <is>
+          <t>-38.28390208335363,178.3363121178018</t>
+        </is>
+      </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>-38.28442761490923,178.33692144068786</t>
+        </is>
+      </c>
+      <c r="S404" t="inlineStr">
+        <is>
+          <t>-38.284918616558635,178.33755608643273</t>
+        </is>
+      </c>
+      <c r="T404" t="inlineStr">
+        <is>
+          <t>-38.2854042904779,178.33821798091577</t>
+        </is>
+      </c>
+      <c r="U404" t="inlineStr">
+        <is>
+          <t>-38.285848573034464,178.33894030879847</t>
+        </is>
+      </c>
+      <c r="V404" t="inlineStr">
+        <is>
+          <t>-38.28623767717208,178.33970850954705</t>
+        </is>
+      </c>
+      <c r="W404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0253/nzd0253.xlsx
+++ b/data/nzd0253/nzd0253.xlsx
@@ -33300,28 +33300,28 @@
         <v>0.06850000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.212992875364861</v>
+        <v>0.2059161715757295</v>
       </c>
       <c r="J2" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K2" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03728052765850876</v>
+        <v>0.03494587074826516</v>
       </c>
       <c r="M2" t="n">
-        <v>6.440756233251826</v>
+        <v>6.453006212809522</v>
       </c>
       <c r="N2" t="n">
-        <v>65.20085710896409</v>
+        <v>65.43119193598351</v>
       </c>
       <c r="O2" t="n">
-        <v>8.074704769151879</v>
+        <v>8.088954934723244</v>
       </c>
       <c r="P2" t="n">
-        <v>340.338825685194</v>
+        <v>340.4077582824783</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33378,28 +33378,28 @@
         <v>0.0521</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2462765340543271</v>
+        <v>0.2452423003468274</v>
       </c>
       <c r="J3" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K3" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04675260211075771</v>
+        <v>0.04666910174149297</v>
       </c>
       <c r="M3" t="n">
-        <v>6.464338332264296</v>
+        <v>6.450830315982843</v>
       </c>
       <c r="N3" t="n">
-        <v>68.93920691608183</v>
+        <v>68.75823472728145</v>
       </c>
       <c r="O3" t="n">
-        <v>8.302963742910228</v>
+        <v>8.292058533758759</v>
       </c>
       <c r="P3" t="n">
-        <v>329.7788651795508</v>
+        <v>329.7889668807434</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33456,28 +33456,28 @@
         <v>0.0545</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2513290083597214</v>
+        <v>0.2512619224567067</v>
       </c>
       <c r="J4" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K4" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04356028051607697</v>
+        <v>0.04381703296051309</v>
       </c>
       <c r="M4" t="n">
-        <v>6.705868964613064</v>
+        <v>6.687931468285678</v>
       </c>
       <c r="N4" t="n">
-        <v>76.28588116662284</v>
+        <v>76.07861965828499</v>
       </c>
       <c r="O4" t="n">
-        <v>8.734178906263763</v>
+        <v>8.722305868191334</v>
       </c>
       <c r="P4" t="n">
-        <v>327.0236134340902</v>
+        <v>327.0242726197844</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33534,28 +33534,28 @@
         <v>0.0579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.219722529155821</v>
+        <v>0.2170842052543187</v>
       </c>
       <c r="J5" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K5" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02859390157554487</v>
+        <v>0.02809472345698993</v>
       </c>
       <c r="M5" t="n">
-        <v>7.345246822986506</v>
+        <v>7.337220985128576</v>
       </c>
       <c r="N5" t="n">
-        <v>90.64668685026152</v>
+        <v>90.45257467107436</v>
       </c>
       <c r="O5" t="n">
-        <v>9.520855363372638</v>
+        <v>9.510655848629701</v>
       </c>
       <c r="P5" t="n">
-        <v>325.2428012357467</v>
+        <v>325.2688295276533</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33612,28 +33612,28 @@
         <v>0.0527</v>
       </c>
       <c r="I6" t="n">
-        <v>0.21503023134747</v>
+        <v>0.2098366395456437</v>
       </c>
       <c r="J6" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K6" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02708905400922612</v>
+        <v>0.02593316580333926</v>
       </c>
       <c r="M6" t="n">
-        <v>7.487307782180291</v>
+        <v>7.491269674280277</v>
       </c>
       <c r="N6" t="n">
-        <v>91.79105054331406</v>
+        <v>91.76140365809708</v>
       </c>
       <c r="O6" t="n">
-        <v>9.580764611622293</v>
+        <v>9.57921727794589</v>
       </c>
       <c r="P6" t="n">
-        <v>323.0793096797979</v>
+        <v>323.1308869073172</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33690,28 +33690,28 @@
         <v>0.0552</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2340709560845203</v>
+        <v>0.2281537878252184</v>
       </c>
       <c r="J7" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K7" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02927693747007809</v>
+        <v>0.0279487891905732</v>
       </c>
       <c r="M7" t="n">
-        <v>7.710760672937227</v>
+        <v>7.71971177590882</v>
       </c>
       <c r="N7" t="n">
-        <v>99.2124989994762</v>
+        <v>99.24154541718239</v>
       </c>
       <c r="O7" t="n">
-        <v>9.960547123500605</v>
+        <v>9.962005090200586</v>
       </c>
       <c r="P7" t="n">
-        <v>323.1211160935522</v>
+        <v>323.1803373770895</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33768,28 +33768,28 @@
         <v>0.0615</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1242208137693426</v>
+        <v>0.1225263874964507</v>
       </c>
       <c r="J8" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K8" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008813477544066362</v>
+        <v>0.0086295665751559</v>
       </c>
       <c r="M8" t="n">
-        <v>7.634936354307871</v>
+        <v>7.622208766790192</v>
       </c>
       <c r="N8" t="n">
-        <v>93.67777670792306</v>
+        <v>93.44862507597496</v>
       </c>
       <c r="O8" t="n">
-        <v>9.678728052173129</v>
+        <v>9.666882903810047</v>
       </c>
       <c r="P8" t="n">
-        <v>326.9942466136577</v>
+        <v>327.0113225542731</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33846,28 +33846,28 @@
         <v>0.0566</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2070590397906425</v>
+        <v>0.2087116993720116</v>
       </c>
       <c r="J9" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K9" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02591306327807008</v>
+        <v>0.02648022997030108</v>
       </c>
       <c r="M9" t="n">
-        <v>7.554931706315565</v>
+        <v>7.542000131959814</v>
       </c>
       <c r="N9" t="n">
-        <v>88.01366493596204</v>
+        <v>87.79249973396277</v>
       </c>
       <c r="O9" t="n">
-        <v>9.381559834908161</v>
+        <v>9.369765190972652</v>
       </c>
       <c r="P9" t="n">
-        <v>327.2236622932512</v>
+        <v>327.2071447510594</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33924,28 +33924,28 @@
         <v>0.0644</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2151369600428804</v>
+        <v>0.2165139900207525</v>
       </c>
       <c r="J10" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K10" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02048251500317655</v>
+        <v>0.02086947569797371</v>
       </c>
       <c r="M10" t="n">
-        <v>8.589127927788187</v>
+        <v>8.571595156865934</v>
       </c>
       <c r="N10" t="n">
-        <v>123.3017837296597</v>
+        <v>122.9793441189564</v>
       </c>
       <c r="O10" t="n">
-        <v>11.10413363255593</v>
+        <v>11.08960522827375</v>
       </c>
       <c r="P10" t="n">
-        <v>330.7098469172601</v>
+        <v>330.6962682953028</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34002,28 +34002,28 @@
         <v>0.0581</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1829429761322761</v>
+        <v>0.1844612565231162</v>
       </c>
       <c r="J11" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K11" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01271347875008699</v>
+        <v>0.013003842253271</v>
       </c>
       <c r="M11" t="n">
-        <v>9.396807233201816</v>
+        <v>9.377586272876256</v>
       </c>
       <c r="N11" t="n">
-        <v>144.6218442782197</v>
+        <v>144.2486442888759</v>
       </c>
       <c r="O11" t="n">
-        <v>12.02588226610504</v>
+        <v>12.01035571033913</v>
       </c>
       <c r="P11" t="n">
-        <v>335.5862856803906</v>
+        <v>335.5713561149007</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34080,28 +34080,28 @@
         <v>0.0551</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1956342749865932</v>
+        <v>0.1967457259362203</v>
       </c>
       <c r="J12" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K12" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01507630624069189</v>
+        <v>0.01534299592051336</v>
       </c>
       <c r="M12" t="n">
-        <v>9.268501509217636</v>
+        <v>9.247830129818279</v>
       </c>
       <c r="N12" t="n">
-        <v>138.6292401592823</v>
+        <v>138.260932867937</v>
       </c>
       <c r="O12" t="n">
-        <v>11.77409190380652</v>
+        <v>11.75844091994925</v>
       </c>
       <c r="P12" t="n">
-        <v>337.3693805650598</v>
+        <v>337.3584369651418</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34158,28 +34158,28 @@
         <v>0.059</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1893665223411425</v>
+        <v>0.1911727182965861</v>
       </c>
       <c r="J13" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K13" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01523452644839318</v>
+        <v>0.01561966228058476</v>
       </c>
       <c r="M13" t="n">
-        <v>8.908095017030673</v>
+        <v>8.892054049462034</v>
       </c>
       <c r="N13" t="n">
-        <v>127.5177748274</v>
+        <v>127.1947163040922</v>
       </c>
       <c r="O13" t="n">
-        <v>11.29237684579292</v>
+        <v>11.27806349973666</v>
       </c>
       <c r="P13" t="n">
-        <v>343.7070733400724</v>
+        <v>343.6891732128188</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34236,28 +34236,28 @@
         <v>0.0597</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1005679134892128</v>
+        <v>0.1026430446827795</v>
       </c>
       <c r="J14" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K14" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005223545252165507</v>
+        <v>0.005474462020176318</v>
       </c>
       <c r="M14" t="n">
-        <v>8.153333843143477</v>
+        <v>8.140459832634569</v>
       </c>
       <c r="N14" t="n">
-        <v>106.7953737230179</v>
+        <v>106.5329397674759</v>
       </c>
       <c r="O14" t="n">
-        <v>10.33418471496508</v>
+        <v>10.3214795338399</v>
       </c>
       <c r="P14" t="n">
-        <v>344.7274355098108</v>
+        <v>344.7069639099246</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34314,28 +34314,28 @@
         <v>0.0641</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09383231521497905</v>
+        <v>0.09500124079667897</v>
       </c>
       <c r="J15" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K15" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005234181169236241</v>
+        <v>0.005401764551027033</v>
       </c>
       <c r="M15" t="n">
-        <v>7.882234210446935</v>
+        <v>7.864357545528073</v>
       </c>
       <c r="N15" t="n">
-        <v>94.56634409124787</v>
+        <v>94.2941876428747</v>
       </c>
       <c r="O15" t="n">
-        <v>9.724522820747961</v>
+        <v>9.710519432186658</v>
       </c>
       <c r="P15" t="n">
-        <v>349.3876543784212</v>
+        <v>349.3762521355289</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34392,28 +34392,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.008970515214085357</v>
+        <v>-0.01118379430842569</v>
       </c>
       <c r="J16" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K16" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L16" t="n">
-        <v>4.779484709527271e-05</v>
+        <v>7.473719913342336e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>7.693623082660603</v>
+        <v>7.683370515443813</v>
       </c>
       <c r="N16" t="n">
-        <v>93.0060118084976</v>
+        <v>92.79837806267399</v>
       </c>
       <c r="O16" t="n">
-        <v>9.64396245370634</v>
+        <v>9.633191478563788</v>
       </c>
       <c r="P16" t="n">
-        <v>360.4075700667269</v>
+        <v>360.4293548295852</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34470,28 +34470,28 @@
         <v>0.0583</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01402730772772624</v>
+        <v>0.009830514154335605</v>
       </c>
       <c r="J17" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K17" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001201508949351116</v>
+        <v>5.930344705751267e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>7.566581054161968</v>
+        <v>7.56610746002716</v>
       </c>
       <c r="N17" t="n">
-        <v>89.64926396724151</v>
+        <v>89.55843585957123</v>
       </c>
       <c r="O17" t="n">
-        <v>9.468329523587649</v>
+        <v>9.463531891401393</v>
       </c>
       <c r="P17" t="n">
-        <v>353.5093106821402</v>
+        <v>353.5507097495668</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34548,28 +34548,28 @@
         <v>0.0673</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07272343486406774</v>
+        <v>0.06830227610340164</v>
       </c>
       <c r="J18" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K18" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005396522980704144</v>
+        <v>0.004780048590603214</v>
       </c>
       <c r="M18" t="n">
-        <v>5.67758572790452</v>
+        <v>5.682641836071823</v>
       </c>
       <c r="N18" t="n">
-        <v>54.31100919672505</v>
+        <v>54.33040015841644</v>
       </c>
       <c r="O18" t="n">
-        <v>7.369600341723088</v>
+        <v>7.370915829014494</v>
       </c>
       <c r="P18" t="n">
-        <v>343.3762225170541</v>
+        <v>343.4193181240104</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34626,28 +34626,28 @@
         <v>0.078</v>
       </c>
       <c r="I19" t="n">
-        <v>0.07293687578089963</v>
+        <v>0.07213605015524394</v>
       </c>
       <c r="J19" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K19" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005302260254650859</v>
+        <v>0.005221260416038986</v>
       </c>
       <c r="M19" t="n">
-        <v>6.073790183340675</v>
+        <v>6.059938928836699</v>
       </c>
       <c r="N19" t="n">
-        <v>57.46474319153763</v>
+        <v>57.30465184630128</v>
       </c>
       <c r="O19" t="n">
-        <v>7.58055032247248</v>
+        <v>7.569983609381284</v>
       </c>
       <c r="P19" t="n">
-        <v>334.9762815810828</v>
+        <v>334.9839993058147</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34704,28 +34704,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1784796309025438</v>
+        <v>0.1781821867859081</v>
       </c>
       <c r="J20" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K20" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03209401985630445</v>
+        <v>0.03219975715629864</v>
       </c>
       <c r="M20" t="n">
-        <v>5.729943841828203</v>
+        <v>5.71476802598197</v>
       </c>
       <c r="N20" t="n">
-        <v>55.18713510104454</v>
+        <v>55.02792590337252</v>
       </c>
       <c r="O20" t="n">
-        <v>7.428804419356088</v>
+        <v>7.418081012187216</v>
       </c>
       <c r="P20" t="n">
-        <v>334.0092296024238</v>
+        <v>334.0121007732077</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34782,28 +34782,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3577826092594392</v>
+        <v>0.356709137846808</v>
       </c>
       <c r="J21" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K21" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1134976807920499</v>
+        <v>0.1135518256427429</v>
       </c>
       <c r="M21" t="n">
-        <v>5.867345048128229</v>
+        <v>5.85621154447899</v>
       </c>
       <c r="N21" t="n">
-        <v>56.72375031737521</v>
+        <v>56.57369909938578</v>
       </c>
       <c r="O21" t="n">
-        <v>7.531517132515547</v>
+        <v>7.521548982715315</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2777262825367</v>
+        <v>331.2881112850775</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34860,28 +34860,28 @@
         <v>0.0833</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3302644813562483</v>
+        <v>0.325693433143377</v>
       </c>
       <c r="J22" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K22" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07289614489656815</v>
+        <v>0.0713173456947811</v>
       </c>
       <c r="M22" t="n">
-        <v>6.89445136740716</v>
+        <v>6.895034222924174</v>
       </c>
       <c r="N22" t="n">
-        <v>77.59114660319086</v>
+        <v>77.55762144317355</v>
       </c>
       <c r="O22" t="n">
-        <v>8.808583688833913</v>
+        <v>8.806680500800148</v>
       </c>
       <c r="P22" t="n">
-        <v>335.3662013909675</v>
+        <v>335.4107850472899</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">

--- a/data/nzd0253/nzd0253.xlsx
+++ b/data/nzd0253/nzd0253.xlsx
@@ -33291,13 +33291,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0543</v>
+        <v>0.0611</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06850000000000001</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="I2" t="n">
         <v>0.2059345402012715</v>
@@ -33369,13 +33369,13 @@
         <v>0.05003310553361272</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0445</v>
+        <v>0.0682</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0521</v>
+        <v>0.0818</v>
       </c>
       <c r="I3" t="n">
         <v>0.2452423003468274</v>
@@ -33447,13 +33447,13 @@
         <v>0.1000662110665685</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0451</v>
+        <v>0.0665</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0545</v>
+        <v>0.07870000000000001</v>
       </c>
       <c r="I4" t="n">
         <v>0.2512619224567068</v>
@@ -33525,13 +33525,13 @@
         <v>0.1500993165995243</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0464</v>
+        <v>0.0593</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0579</v>
+        <v>0.0772</v>
       </c>
       <c r="I5" t="n">
         <v>0.2170842052543189</v>
@@ -33603,13 +33603,13 @@
         <v>0.200132422132701</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0454</v>
+        <v>0.0667</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0527</v>
+        <v>0.0833</v>
       </c>
       <c r="I6" t="n">
         <v>0.2098366395456439</v>
@@ -33681,13 +33681,13 @@
         <v>0.2501619397515275</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0471</v>
+        <v>0.064</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0552</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="I7" t="n">
         <v>0.2281537878252183</v>
@@ -33759,13 +33759,13 @@
         <v>0.3001950452846682</v>
       </c>
       <c r="F8" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.049</v>
+        <v>0.0596</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0615</v>
+        <v>0.0722</v>
       </c>
       <c r="I8" t="n">
         <v>0.1225221932609962</v>
@@ -33837,13 +33837,13 @@
         <v>0.350228150817369</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0472</v>
+        <v>0.0667</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0566</v>
+        <v>0.0813</v>
       </c>
       <c r="I9" t="n">
         <v>0.2087116993720116</v>
@@ -33915,13 +33915,13 @@
         <v>0.400261256350683</v>
       </c>
       <c r="F10" t="n">
-        <v>0.055</v>
+        <v>0.075</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0508</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0644</v>
+        <v>0.0868</v>
       </c>
       <c r="I10" t="n">
         <v>0.2165139074574116</v>
@@ -33993,13 +33993,13 @@
         <v>0.4501935067701574</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="G11" t="n">
-        <v>0.047</v>
+        <v>0.0708</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0581</v>
+        <v>0.1203</v>
       </c>
       <c r="I11" t="n">
         <v>0.1844612565231161</v>
@@ -34071,13 +34071,13 @@
         <v>0.5002266123036851</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0455</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0551</v>
+        <v>0.1197</v>
       </c>
       <c r="I12" t="n">
         <v>0.1967457259362204</v>
@@ -34149,13 +34149,13 @@
         <v>0.5502597178367962</v>
       </c>
       <c r="F13" t="n">
-        <v>0.055</v>
+        <v>0.075</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0481</v>
+        <v>0.0653</v>
       </c>
       <c r="H13" t="n">
-        <v>0.059</v>
+        <v>0.0834</v>
       </c>
       <c r="I13" t="n">
         <v>0.1911743330347737</v>
@@ -34227,13 +34227,13 @@
         <v>0.6002396617220762</v>
       </c>
       <c r="F14" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0497</v>
+        <v>0.0542</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0597</v>
+        <v>0.0707</v>
       </c>
       <c r="I14" t="n">
         <v>0.1026396646089003</v>
@@ -34305,13 +34305,13 @@
         <v>0.6502727672557753</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06</v>
+        <v>0.105</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0546</v>
+        <v>0.0751</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0641</v>
+        <v>0.1614</v>
       </c>
       <c r="I15" t="n">
         <v>0.09503409496764766</v>
@@ -34383,13 +34383,13 @@
         <v>0.7003058727887624</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0533</v>
+        <v>0.0552</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06370000000000001</v>
+        <v>0.1172</v>
       </c>
       <c r="I16" t="n">
         <v>-0.01115839884832257</v>
@@ -34461,13 +34461,13 @@
         <v>0.7502483970358317</v>
       </c>
       <c r="F17" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0523</v>
+        <v>0.0556</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0583</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="I17" t="n">
         <v>0.009825448259195834</v>
@@ -34539,13 +34539,13 @@
         <v>0.8002815025691586</v>
       </c>
       <c r="F18" t="n">
-        <v>0.065</v>
+        <v>0.09</v>
       </c>
       <c r="G18" t="n">
-        <v>0.059</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0673</v>
+        <v>0.1013</v>
       </c>
       <c r="I18" t="n">
         <v>0.06829046033198072</v>
@@ -34617,13 +34617,13 @@
         <v>0.8502869891036073</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0648</v>
+        <v>0.08</v>
       </c>
       <c r="H19" t="n">
-        <v>0.078</v>
+        <v>0.1034</v>
       </c>
       <c r="I19" t="n">
         <v>0.07210501212483887</v>
@@ -34695,13 +34695,13 @@
         <v>0.9003200946369629</v>
       </c>
       <c r="F20" t="n">
-        <v>0.065</v>
+        <v>0.09</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0587</v>
+        <v>0.0709</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06909999999999999</v>
+        <v>0.1226</v>
       </c>
       <c r="I20" t="n">
         <v>0.1781692613374521</v>
@@ -34773,13 +34773,13 @@
         <v>0.949966894466162</v>
       </c>
       <c r="F21" t="n">
-        <v>0.065</v>
+        <v>0.09</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0586</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.1004</v>
       </c>
       <c r="I21" t="n">
         <v>0.3566979112400913</v>
@@ -34851,13 +34851,13 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.075</v>
+        <v>0.095</v>
       </c>
       <c r="G22" t="n">
-        <v>0.066</v>
+        <v>0.08359999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0833</v>
+        <v>0.1127</v>
       </c>
       <c r="I22" t="n">
         <v>0.3256688820397325</v>

--- a/data/nzd0253/nzd0253.xlsx
+++ b/data/nzd0253/nzd0253.xlsx
@@ -599,7 +599,7 @@
         <v>339.18</v>
       </c>
       <c r="O2" t="n">
-        <v>350.25</v>
+        <v>350.26</v>
       </c>
       <c r="P2" t="n">
         <v>354.72</v>
@@ -674,7 +674,7 @@
         <v>348.46</v>
       </c>
       <c r="O3" t="n">
-        <v>361.44</v>
+        <v>361.28</v>
       </c>
       <c r="P3" t="n">
         <v>364.91</v>
@@ -739,7 +739,7 @@
         <v>348.71</v>
       </c>
       <c r="O4" t="n">
-        <v>358.47</v>
+        <v>358.15</v>
       </c>
       <c r="P4" t="n">
         <v>363.57</v>
@@ -814,7 +814,7 @@
         <v>343.21</v>
       </c>
       <c r="O5" t="n">
-        <v>360.22</v>
+        <v>359.96</v>
       </c>
       <c r="P5" t="n">
         <v>360.16</v>
@@ -889,7 +889,7 @@
         <v>354.91</v>
       </c>
       <c r="O6" t="n">
-        <v>361.4</v>
+        <v>361.21</v>
       </c>
       <c r="P6" t="n">
         <v>364.52</v>
@@ -964,7 +964,7 @@
         <v>351.55</v>
       </c>
       <c r="O7" t="n">
-        <v>355.66</v>
+        <v>355.72</v>
       </c>
       <c r="P7" t="n">
         <v>365.46</v>
@@ -1039,7 +1039,7 @@
         <v>348.33</v>
       </c>
       <c r="O8" t="n">
-        <v>360.71</v>
+        <v>360.46</v>
       </c>
       <c r="P8" t="n">
         <v>370.74</v>
@@ -1100,7 +1100,7 @@
         <v>340.69</v>
       </c>
       <c r="O9" t="n">
-        <v>353.8</v>
+        <v>353.61</v>
       </c>
       <c r="P9" t="n">
         <v>360.95</v>
@@ -1248,7 +1248,7 @@
         <v>339.02</v>
       </c>
       <c r="O11" t="n">
-        <v>339.31</v>
+        <v>339.34</v>
       </c>
       <c r="P11" t="n">
         <v>359.36</v>
@@ -1323,7 +1323,7 @@
         <v>329.93</v>
       </c>
       <c r="O12" t="n">
-        <v>343.59</v>
+        <v>343.42</v>
       </c>
       <c r="P12" t="n">
         <v>353.35</v>
@@ -1398,7 +1398,7 @@
         <v>340.16</v>
       </c>
       <c r="O13" t="n">
-        <v>347.74</v>
+        <v>347.91</v>
       </c>
       <c r="P13" t="n">
         <v>359.26</v>
@@ -1473,7 +1473,7 @@
         <v>343.97</v>
       </c>
       <c r="O14" t="n">
-        <v>353.22</v>
+        <v>352.89</v>
       </c>
       <c r="P14" t="n">
         <v>353.82</v>
@@ -1548,7 +1548,7 @@
         <v>348.64</v>
       </c>
       <c r="O15" t="n">
-        <v>349.59</v>
+        <v>349.35</v>
       </c>
       <c r="P15" t="n">
         <v>358.99</v>
@@ -1696,7 +1696,7 @@
         <v>360.84</v>
       </c>
       <c r="O17" t="n">
-        <v>357.25</v>
+        <v>357.58</v>
       </c>
       <c r="P17" t="n">
         <v>370.97</v>
@@ -1771,7 +1771,7 @@
         <v>344.98</v>
       </c>
       <c r="O18" t="n">
-        <v>345.82</v>
+        <v>346.01</v>
       </c>
       <c r="P18" t="n">
         <v>356.58</v>
@@ -1921,7 +1921,7 @@
         <v>345.83</v>
       </c>
       <c r="O20" t="n">
-        <v>352.84</v>
+        <v>352.64</v>
       </c>
       <c r="P20" t="n">
         <v>364.9</v>
@@ -1996,7 +1996,7 @@
         <v>332.26</v>
       </c>
       <c r="O21" t="n">
-        <v>346.81</v>
+        <v>346.5</v>
       </c>
       <c r="P21" t="n">
         <v>352.2</v>
@@ -2071,7 +2071,7 @@
         <v>347.45</v>
       </c>
       <c r="O22" t="n">
-        <v>353.94</v>
+        <v>353.73</v>
       </c>
       <c r="P22" t="n">
         <v>365.03</v>
@@ -2146,7 +2146,7 @@
         <v>352.97</v>
       </c>
       <c r="O23" t="n">
-        <v>349.17</v>
+        <v>349.5</v>
       </c>
       <c r="P23" t="n">
         <v>359.03</v>
@@ -2221,7 +2221,7 @@
         <v>352.33</v>
       </c>
       <c r="O24" t="n">
-        <v>356.07</v>
+        <v>356.29</v>
       </c>
       <c r="P24" t="n">
         <v>369.76</v>
@@ -2296,7 +2296,7 @@
         <v>338.3</v>
       </c>
       <c r="O25" t="n">
-        <v>348.48</v>
+        <v>348.26</v>
       </c>
       <c r="P25" t="n">
         <v>352.53</v>
@@ -2371,7 +2371,7 @@
         <v>344.87</v>
       </c>
       <c r="O26" t="n">
-        <v>350.93</v>
+        <v>350.94</v>
       </c>
       <c r="P26" t="n">
         <v>358.4</v>
@@ -2434,7 +2434,7 @@
         <v>339.59</v>
       </c>
       <c r="O27" t="n">
-        <v>347.84</v>
+        <v>347.55</v>
       </c>
       <c r="P27" t="n">
         <v>358.73</v>
@@ -2509,7 +2509,7 @@
         <v>350.17</v>
       </c>
       <c r="O28" t="n">
-        <v>347.78</v>
+        <v>348.06</v>
       </c>
       <c r="P28" t="n">
         <v>359.72</v>
@@ -2584,7 +2584,7 @@
         <v>355.37</v>
       </c>
       <c r="O29" t="n">
-        <v>353.97</v>
+        <v>354.31</v>
       </c>
       <c r="P29" t="n">
         <v>357.55</v>
@@ -2659,7 +2659,7 @@
         <v>347.88</v>
       </c>
       <c r="O30" t="n">
-        <v>352.02</v>
+        <v>352.42</v>
       </c>
       <c r="P30" t="n">
         <v>365.68</v>
@@ -2734,7 +2734,7 @@
         <v>337.91</v>
       </c>
       <c r="O31" t="n">
-        <v>345.63</v>
+        <v>345.61</v>
       </c>
       <c r="P31" t="n">
         <v>356.16</v>
@@ -2809,7 +2809,7 @@
         <v>328.32</v>
       </c>
       <c r="O32" t="n">
-        <v>340.05</v>
+        <v>339.79</v>
       </c>
       <c r="P32" t="n">
         <v>349.63</v>
@@ -2884,7 +2884,7 @@
         <v>331.49</v>
       </c>
       <c r="O33" t="n">
-        <v>338.77</v>
+        <v>338.45</v>
       </c>
       <c r="P33" t="n">
         <v>348.24</v>
@@ -3101,7 +3101,7 @@
         <v>354.19</v>
       </c>
       <c r="O36" t="n">
-        <v>355.14</v>
+        <v>354.95</v>
       </c>
       <c r="P36" t="n">
         <v>374.2</v>
@@ -3172,7 +3172,7 @@
         <v>327.56</v>
       </c>
       <c r="O37" t="n">
-        <v>330.63</v>
+        <v>330.92</v>
       </c>
       <c r="P37" t="n">
         <v>344.68</v>
@@ -3247,7 +3247,7 @@
         <v>332.66</v>
       </c>
       <c r="O38" t="n">
-        <v>339.44</v>
+        <v>339.28</v>
       </c>
       <c r="P38" t="n">
         <v>354.04</v>
@@ -3387,7 +3387,7 @@
         <v>340.56</v>
       </c>
       <c r="O40" t="n">
-        <v>345.41</v>
+        <v>345.18</v>
       </c>
       <c r="P40" t="n">
         <v>354.58</v>
@@ -3458,7 +3458,7 @@
         <v>344.29</v>
       </c>
       <c r="O41" t="n">
-        <v>351.22</v>
+        <v>350.96</v>
       </c>
       <c r="P41" t="n">
         <v>356.06</v>
@@ -3529,7 +3529,7 @@
         <v>365.21</v>
       </c>
       <c r="O42" t="n">
-        <v>360.18</v>
+        <v>360.53</v>
       </c>
       <c r="P42" t="n">
         <v>363.92</v>
@@ -3604,7 +3604,7 @@
         <v>346.6</v>
       </c>
       <c r="O43" t="n">
-        <v>351.81</v>
+        <v>351.65</v>
       </c>
       <c r="P43" t="n">
         <v>363.18</v>
@@ -3673,7 +3673,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="n">
-        <v>359.07</v>
+        <v>359.22</v>
       </c>
       <c r="P44" t="n">
         <v>369.12</v>
@@ -3748,7 +3748,7 @@
         <v>355.06</v>
       </c>
       <c r="O45" t="n">
-        <v>363.31</v>
+        <v>363.18</v>
       </c>
       <c r="P45" t="n">
         <v>373.7</v>
@@ -3886,7 +3886,7 @@
         <v>348.91</v>
       </c>
       <c r="O47" t="n">
-        <v>348.14</v>
+        <v>348.36</v>
       </c>
       <c r="P47" t="n">
         <v>360.77</v>
@@ -3955,7 +3955,7 @@
         <v>353.87</v>
       </c>
       <c r="O48" t="n">
-        <v>355.99</v>
+        <v>355.69</v>
       </c>
       <c r="P48" t="n">
         <v>367.44</v>
@@ -4022,7 +4022,7 @@
         <v>350.03</v>
       </c>
       <c r="O49" t="n">
-        <v>352.75</v>
+        <v>353.05</v>
       </c>
       <c r="P49" t="n">
         <v>362.45</v>
@@ -4160,7 +4160,7 @@
         <v>359</v>
       </c>
       <c r="O51" t="n">
-        <v>356.39</v>
+        <v>356.58</v>
       </c>
       <c r="P51" t="n">
         <v>366.37</v>
@@ -4235,7 +4235,7 @@
         <v>346.03</v>
       </c>
       <c r="O52" t="n">
-        <v>349.88</v>
+        <v>349.92</v>
       </c>
       <c r="P52" t="n">
         <v>365.22</v>
@@ -4306,7 +4306,7 @@
         <v>355.52</v>
       </c>
       <c r="O53" t="n">
-        <v>350.58</v>
+        <v>350.75</v>
       </c>
       <c r="P53" t="n">
         <v>362.38</v>
@@ -4381,7 +4381,7 @@
         <v>341.16</v>
       </c>
       <c r="O54" t="n">
-        <v>353.15</v>
+        <v>352.96</v>
       </c>
       <c r="P54" t="n">
         <v>360.36</v>
@@ -4456,7 +4456,7 @@
         <v>339.05</v>
       </c>
       <c r="O55" t="n">
-        <v>351.75</v>
+        <v>351.45</v>
       </c>
       <c r="P55" t="n">
         <v>362.7</v>
@@ -4527,7 +4527,7 @@
         <v>352</v>
       </c>
       <c r="O56" t="n">
-        <v>353.28</v>
+        <v>353.6</v>
       </c>
       <c r="P56" t="n">
         <v>368.19</v>
@@ -4602,7 +4602,7 @@
         <v>346.87</v>
       </c>
       <c r="O57" t="n">
-        <v>355.1</v>
+        <v>354.87</v>
       </c>
       <c r="P57" t="n">
         <v>369.76</v>
@@ -4746,7 +4746,7 @@
         <v>343.17</v>
       </c>
       <c r="O59" t="n">
-        <v>346.72</v>
+        <v>346.58</v>
       </c>
       <c r="P59" t="n">
         <v>359.2</v>
@@ -4817,7 +4817,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="n">
-        <v>348.4</v>
+        <v>348.46</v>
       </c>
       <c r="P60" t="n">
         <v>353.07</v>
@@ -4886,7 +4886,7 @@
         <v>348.94</v>
       </c>
       <c r="O61" t="n">
-        <v>352.31</v>
+        <v>352.29</v>
       </c>
       <c r="P61" t="n">
         <v>362.24</v>
@@ -4961,7 +4961,7 @@
         <v>334.25</v>
       </c>
       <c r="O62" t="n">
-        <v>331.14</v>
+        <v>331.38</v>
       </c>
       <c r="P62" t="n">
         <v>344.6</v>
@@ -5032,7 +5032,7 @@
         <v>332.14</v>
       </c>
       <c r="O63" t="n">
-        <v>336.57</v>
+        <v>336.33</v>
       </c>
       <c r="P63" t="n">
         <v>346.16</v>
@@ -5103,7 +5103,7 @@
         <v>345.63</v>
       </c>
       <c r="O64" t="n">
-        <v>350.01</v>
+        <v>349.78</v>
       </c>
       <c r="P64" t="n">
         <v>358.74</v>
@@ -5174,7 +5174,7 @@
         <v>333.6</v>
       </c>
       <c r="O65" t="n">
-        <v>339.51</v>
+        <v>339.77</v>
       </c>
       <c r="P65" t="n">
         <v>352.59</v>
@@ -5302,7 +5302,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="n">
-        <v>356.32</v>
+        <v>356.62</v>
       </c>
       <c r="P67" t="n">
         <v>356.57</v>
@@ -5377,7 +5377,7 @@
         <v>340.79</v>
       </c>
       <c r="O68" t="n">
-        <v>355.58</v>
+        <v>355.44</v>
       </c>
       <c r="P68" t="n">
         <v>365.22</v>
@@ -5452,7 +5452,7 @@
         <v>347.83</v>
       </c>
       <c r="O69" t="n">
-        <v>352.5</v>
+        <v>352.58</v>
       </c>
       <c r="P69" t="n">
         <v>364.16</v>
@@ -5527,7 +5527,7 @@
         <v>345.72</v>
       </c>
       <c r="O70" t="n">
-        <v>346.02</v>
+        <v>346.17</v>
       </c>
       <c r="P70" t="n">
         <v>359.65</v>
@@ -5667,7 +5667,7 @@
         <v>361.7</v>
       </c>
       <c r="O72" t="n">
-        <v>360.58</v>
+        <v>360.8</v>
       </c>
       <c r="P72" t="n">
         <v>369.05</v>
@@ -5742,7 +5742,7 @@
         <v>340.75</v>
       </c>
       <c r="O73" t="n">
-        <v>344.06</v>
+        <v>344.38</v>
       </c>
       <c r="P73" t="n">
         <v>357.7</v>
@@ -5817,7 +5817,7 @@
         <v>334.02</v>
       </c>
       <c r="O74" t="n">
-        <v>337.93</v>
+        <v>338.1</v>
       </c>
       <c r="P74" t="n">
         <v>362.02</v>
@@ -5937,7 +5937,7 @@
         <v>336.81</v>
       </c>
       <c r="O76" t="n">
-        <v>349.37</v>
+        <v>349.4</v>
       </c>
       <c r="P76" t="n">
         <v>362.98</v>
@@ -6012,7 +6012,7 @@
         <v>344.05</v>
       </c>
       <c r="O77" t="n">
-        <v>352.22</v>
+        <v>352.27</v>
       </c>
       <c r="P77" t="n">
         <v>361.82</v>
@@ -6087,7 +6087,7 @@
         <v>354.15</v>
       </c>
       <c r="O78" t="n">
-        <v>359.5</v>
+        <v>359.31</v>
       </c>
       <c r="P78" t="n">
         <v>362.19</v>
@@ -6158,7 +6158,7 @@
         <v>333.09</v>
       </c>
       <c r="O79" t="n">
-        <v>331.24</v>
+        <v>331.44</v>
       </c>
       <c r="P79" t="n">
         <v>346.2</v>
@@ -6233,7 +6233,7 @@
         <v>341.37</v>
       </c>
       <c r="O80" t="n">
-        <v>344.86</v>
+        <v>344.58</v>
       </c>
       <c r="P80" t="n">
         <v>350.57</v>
@@ -6304,7 +6304,7 @@
         <v>340.52</v>
       </c>
       <c r="O81" t="n">
-        <v>333.23</v>
+        <v>333.55</v>
       </c>
       <c r="P81" t="n">
         <v>343.16</v>
@@ -6375,7 +6375,7 @@
         <v>347.12</v>
       </c>
       <c r="O82" t="n">
-        <v>351.56</v>
+        <v>351.66</v>
       </c>
       <c r="P82" t="n">
         <v>363.7</v>
@@ -6450,7 +6450,7 @@
         <v>353.85</v>
       </c>
       <c r="O83" t="n">
-        <v>365.68</v>
+        <v>365.92</v>
       </c>
       <c r="P83" t="n">
         <v>379.05</v>
@@ -6521,7 +6521,7 @@
         <v>340.05</v>
       </c>
       <c r="O84" t="n">
-        <v>346.41</v>
+        <v>346.48</v>
       </c>
       <c r="P84" t="n">
         <v>358.15</v>
@@ -6596,7 +6596,7 @@
         <v>348.89</v>
       </c>
       <c r="O85" t="n">
-        <v>356.37</v>
+        <v>356.43</v>
       </c>
       <c r="P85" t="n">
         <v>364.27</v>
@@ -6667,7 +6667,7 @@
         <v>348.35</v>
       </c>
       <c r="O86" t="n">
-        <v>352.88</v>
+        <v>353.13</v>
       </c>
       <c r="P86" t="n">
         <v>361.48</v>
@@ -6734,7 +6734,7 @@
         <v>325.46</v>
       </c>
       <c r="O87" t="n">
-        <v>334.82</v>
+        <v>334.53</v>
       </c>
       <c r="P87" t="n">
         <v>336.69</v>
@@ -6805,7 +6805,7 @@
         <v>343.99</v>
       </c>
       <c r="O88" t="n">
-        <v>350.97</v>
+        <v>351</v>
       </c>
       <c r="P88" t="n">
         <v>363.31</v>
@@ -6874,7 +6874,7 @@
         <v>338.76</v>
       </c>
       <c r="O89" t="n">
-        <v>343.03</v>
+        <v>342.89</v>
       </c>
       <c r="P89" t="n">
         <v>355.58</v>
@@ -6945,7 +6945,7 @@
         <v>342.7</v>
       </c>
       <c r="O90" t="n">
-        <v>344.23</v>
+        <v>344.33</v>
       </c>
       <c r="P90" t="n">
         <v>353.51</v>
@@ -7075,7 +7075,7 @@
         <v>336.16</v>
       </c>
       <c r="O92" t="n">
-        <v>344.7</v>
+        <v>344.46</v>
       </c>
       <c r="P92" t="n">
         <v>357.24</v>
@@ -7150,7 +7150,7 @@
         <v>337.33</v>
       </c>
       <c r="O93" t="n">
-        <v>338.16</v>
+        <v>338.35</v>
       </c>
       <c r="P93" t="n">
         <v>352.49</v>
@@ -7225,7 +7225,7 @@
         <v>340.88</v>
       </c>
       <c r="O94" t="n">
-        <v>360.21</v>
+        <v>360.27</v>
       </c>
       <c r="P94" t="n">
         <v>363.45</v>
@@ -7300,7 +7300,7 @@
         <v>350.22</v>
       </c>
       <c r="O95" t="n">
-        <v>361.09</v>
+        <v>360.9</v>
       </c>
       <c r="P95" t="n">
         <v>369.37</v>
@@ -7371,7 +7371,7 @@
         <v>341.51</v>
       </c>
       <c r="O96" t="n">
-        <v>352.67</v>
+        <v>352.89</v>
       </c>
       <c r="P96" t="n">
         <v>367.98</v>
@@ -7440,7 +7440,7 @@
         <v>345.4</v>
       </c>
       <c r="O97" t="n">
-        <v>347.27</v>
+        <v>347.57</v>
       </c>
       <c r="P97" t="n">
         <v>358.02</v>
@@ -7572,7 +7572,7 @@
         <v>332.16</v>
       </c>
       <c r="O99" t="n">
-        <v>333.17</v>
+        <v>333.32</v>
       </c>
       <c r="P99" t="n">
         <v>344.89</v>
@@ -7708,7 +7708,7 @@
         <v>345.8</v>
       </c>
       <c r="O101" t="n">
-        <v>348.19</v>
+        <v>348.42</v>
       </c>
       <c r="P101" t="n">
         <v>359.33</v>
@@ -7775,7 +7775,7 @@
         <v>352.33</v>
       </c>
       <c r="O102" t="n">
-        <v>355.2</v>
+        <v>355.27</v>
       </c>
       <c r="P102" t="n">
         <v>365.92</v>
@@ -7844,7 +7844,7 @@
         <v>360.39</v>
       </c>
       <c r="O103" t="n">
-        <v>361.5</v>
+        <v>361.7</v>
       </c>
       <c r="P103" t="n">
         <v>369.51</v>
@@ -8114,7 +8114,7 @@
         <v>338.09</v>
       </c>
       <c r="O107" t="n">
-        <v>344.58</v>
+        <v>344.63</v>
       </c>
       <c r="P107" t="n">
         <v>354.06</v>
@@ -8185,7 +8185,7 @@
         <v>337.12</v>
       </c>
       <c r="O108" t="n">
-        <v>346.58</v>
+        <v>346.76</v>
       </c>
       <c r="P108" t="n">
         <v>354.98</v>
@@ -8327,7 +8327,7 @@
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="n">
-        <v>344.66</v>
+        <v>344.55</v>
       </c>
       <c r="P110" t="n">
         <v>347.61</v>
@@ -8396,7 +8396,7 @@
         <v>341.15</v>
       </c>
       <c r="O111" t="n">
-        <v>352.22</v>
+        <v>352.02</v>
       </c>
       <c r="P111" t="n">
         <v>358.83</v>
@@ -8467,7 +8467,7 @@
         <v>335.01</v>
       </c>
       <c r="O112" t="n">
-        <v>345.64</v>
+        <v>345.43</v>
       </c>
       <c r="P112" t="n">
         <v>352.77</v>
@@ -8597,7 +8597,7 @@
         <v>351.84</v>
       </c>
       <c r="O114" t="n">
-        <v>361.44</v>
+        <v>361.26</v>
       </c>
       <c r="P114" t="n">
         <v>372.79</v>
@@ -8662,7 +8662,7 @@
         <v>333.96</v>
       </c>
       <c r="O115" t="n">
-        <v>335.03</v>
+        <v>334.86</v>
       </c>
       <c r="P115" t="n">
         <v>349.42</v>
@@ -8731,7 +8731,7 @@
         <v>341.12</v>
       </c>
       <c r="O116" t="n">
-        <v>335.57</v>
+        <v>336.01</v>
       </c>
       <c r="P116" t="n">
         <v>343.99</v>
@@ -8800,7 +8800,7 @@
         <v>361.66</v>
       </c>
       <c r="O117" t="n">
-        <v>364.26</v>
+        <v>364.39</v>
       </c>
       <c r="P117" t="n">
         <v>372.37</v>
@@ -8871,7 +8871,7 @@
         <v>344.95</v>
       </c>
       <c r="O118" t="n">
-        <v>353.06</v>
+        <v>352.92</v>
       </c>
       <c r="P118" t="n">
         <v>360.61</v>
@@ -8938,7 +8938,7 @@
         <v>349.01</v>
       </c>
       <c r="O119" t="n">
-        <v>359.69</v>
+        <v>359.44</v>
       </c>
       <c r="P119" t="n">
         <v>363.53</v>
@@ -9003,7 +9003,7 @@
         <v>358.66</v>
       </c>
       <c r="O120" t="n">
-        <v>364.2</v>
+        <v>364.06</v>
       </c>
       <c r="P120" t="n">
         <v>370.69</v>
@@ -9074,7 +9074,7 @@
         <v>358.51</v>
       </c>
       <c r="O121" t="n">
-        <v>354.33</v>
+        <v>354.4</v>
       </c>
       <c r="P121" t="n">
         <v>362.95</v>
@@ -9145,7 +9145,7 @@
         <v>350.88</v>
       </c>
       <c r="O122" t="n">
-        <v>355.07</v>
+        <v>355.18</v>
       </c>
       <c r="P122" t="n">
         <v>361.54</v>
@@ -9344,7 +9344,7 @@
         <v>323.63</v>
       </c>
       <c r="O125" t="n">
-        <v>346.52</v>
+        <v>346.29</v>
       </c>
       <c r="P125" t="n">
         <v>353.38</v>
@@ -9413,7 +9413,7 @@
         <v>318.96</v>
       </c>
       <c r="O126" t="n">
-        <v>337.09</v>
+        <v>336.79</v>
       </c>
       <c r="P126" t="n">
         <v>337.67</v>
@@ -9484,7 +9484,7 @@
         <v>336.63</v>
       </c>
       <c r="O127" t="n">
-        <v>344.96</v>
+        <v>345.06</v>
       </c>
       <c r="P127" t="n">
         <v>347.99</v>
@@ -9555,7 +9555,7 @@
         <v>351.58</v>
       </c>
       <c r="O128" t="n">
-        <v>353.05</v>
+        <v>353.37</v>
       </c>
       <c r="P128" t="n">
         <v>362.22</v>
@@ -9622,7 +9622,7 @@
         <v>357.87</v>
       </c>
       <c r="O129" t="n">
-        <v>361.06</v>
+        <v>361.18</v>
       </c>
       <c r="P129" t="n">
         <v>370.54</v>
@@ -9758,7 +9758,7 @@
         <v>346.03</v>
       </c>
       <c r="O131" t="n">
-        <v>355.48</v>
+        <v>355.25</v>
       </c>
       <c r="P131" t="n">
         <v>366.2</v>
@@ -9829,7 +9829,7 @@
         <v>354.04</v>
       </c>
       <c r="O132" t="n">
-        <v>354.9</v>
+        <v>354.93</v>
       </c>
       <c r="P132" t="n">
         <v>359.86</v>
@@ -9967,7 +9967,7 @@
         <v>348.13</v>
       </c>
       <c r="O134" t="n">
-        <v>346.87</v>
+        <v>347.07</v>
       </c>
       <c r="P134" t="n">
         <v>356.3</v>
@@ -10038,7 +10038,7 @@
         <v>326.69</v>
       </c>
       <c r="O135" t="n">
-        <v>332.91</v>
+        <v>333.04</v>
       </c>
       <c r="P135" t="n">
         <v>346.27</v>
@@ -10109,7 +10109,7 @@
         <v>339.41</v>
       </c>
       <c r="O136" t="n">
-        <v>343.08</v>
+        <v>342.89</v>
       </c>
       <c r="P136" t="n">
         <v>356.16</v>
@@ -10176,7 +10176,7 @@
         <v>336.67</v>
       </c>
       <c r="O137" t="n">
-        <v>353.04</v>
+        <v>352.84</v>
       </c>
       <c r="P137" t="n">
         <v>362.78</v>
@@ -10245,7 +10245,7 @@
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="n">
-        <v>337.82</v>
+        <v>337.58</v>
       </c>
       <c r="P138" t="n">
         <v>349.03</v>
@@ -10316,7 +10316,7 @@
         <v>340.59</v>
       </c>
       <c r="O139" t="n">
-        <v>343.13</v>
+        <v>343.03</v>
       </c>
       <c r="P139" t="n">
         <v>355.7</v>
@@ -10383,7 +10383,7 @@
         <v>352.23</v>
       </c>
       <c r="O140" t="n">
-        <v>356.57</v>
+        <v>356.35</v>
       </c>
       <c r="P140" t="n">
         <v>361.64</v>
@@ -10454,7 +10454,7 @@
         <v>333.7</v>
       </c>
       <c r="O141" t="n">
-        <v>330.26</v>
+        <v>330.44</v>
       </c>
       <c r="P141" t="n">
         <v>341.02</v>
@@ -10525,7 +10525,7 @@
         <v>350.12</v>
       </c>
       <c r="O142" t="n">
-        <v>354.49</v>
+        <v>354.3</v>
       </c>
       <c r="P142" t="n">
         <v>359.92</v>
@@ -10665,7 +10665,7 @@
         <v>336.36</v>
       </c>
       <c r="O144" t="n">
-        <v>346.91</v>
+        <v>346.56</v>
       </c>
       <c r="P144" t="n">
         <v>352.71</v>
@@ -10736,7 +10736,7 @@
         <v>338.31</v>
       </c>
       <c r="O145" t="n">
-        <v>346.71</v>
+        <v>346.74</v>
       </c>
       <c r="P145" t="n">
         <v>351.21</v>
@@ -10935,7 +10935,7 @@
         <v>346.12</v>
       </c>
       <c r="O148" t="n">
-        <v>347.34</v>
+        <v>347.38</v>
       </c>
       <c r="P148" t="n">
         <v>362.55</v>
@@ -11006,7 +11006,7 @@
         <v>340.84</v>
       </c>
       <c r="O149" t="n">
-        <v>345.25</v>
+        <v>345.05</v>
       </c>
       <c r="P149" t="n">
         <v>354.13</v>
@@ -11148,7 +11148,7 @@
         <v>328.95</v>
       </c>
       <c r="O151" t="n">
-        <v>331.36</v>
+        <v>331.46</v>
       </c>
       <c r="P151" t="n">
         <v>343.89</v>
@@ -11333,7 +11333,7 @@
         <v>329.37</v>
       </c>
       <c r="O154" t="n">
-        <v>334.75</v>
+        <v>335.07</v>
       </c>
       <c r="P154" t="n">
         <v>351.06</v>
@@ -11394,7 +11394,7 @@
         <v>336.49</v>
       </c>
       <c r="O155" t="n">
-        <v>338.07</v>
+        <v>338.26</v>
       </c>
       <c r="P155" t="n">
         <v>358.92</v>
@@ -11465,7 +11465,7 @@
         <v>333.93</v>
       </c>
       <c r="O156" t="n">
-        <v>341.29</v>
+        <v>341.3</v>
       </c>
       <c r="P156" t="n">
         <v>356.06</v>
@@ -11536,7 +11536,7 @@
         <v>338.82</v>
       </c>
       <c r="O157" t="n">
-        <v>343.92</v>
+        <v>343.73</v>
       </c>
       <c r="P157" t="n">
         <v>350.6</v>
@@ -11607,7 +11607,7 @@
         <v>348.27</v>
       </c>
       <c r="O158" t="n">
-        <v>347.31</v>
+        <v>347.41</v>
       </c>
       <c r="P158" t="n">
         <v>356.75</v>
@@ -11662,7 +11662,7 @@
         <v>342.63</v>
       </c>
       <c r="O159" t="n">
-        <v>336.83</v>
+        <v>337.03</v>
       </c>
       <c r="P159" t="n">
         <v>349.18</v>
@@ -11733,7 +11733,7 @@
         <v>355.74</v>
       </c>
       <c r="O160" t="n">
-        <v>350.97</v>
+        <v>351.2</v>
       </c>
       <c r="P160" t="n">
         <v>361.66</v>
@@ -11808,7 +11808,7 @@
         <v>362.3</v>
       </c>
       <c r="O161" t="n">
-        <v>363.26</v>
+        <v>363.62</v>
       </c>
       <c r="P161" t="n">
         <v>377.73</v>
@@ -11948,7 +11948,7 @@
         <v>343.82</v>
       </c>
       <c r="O163" t="n">
-        <v>349.69</v>
+        <v>349.34</v>
       </c>
       <c r="P163" t="n">
         <v>362.02</v>
@@ -12023,7 +12023,7 @@
         <v>362.18</v>
       </c>
       <c r="O164" t="n">
-        <v>361.54</v>
+        <v>361.7</v>
       </c>
       <c r="P164" t="n">
         <v>378.08</v>
@@ -12094,7 +12094,7 @@
         <v>343.5</v>
       </c>
       <c r="O165" t="n">
-        <v>353.25</v>
+        <v>353.27</v>
       </c>
       <c r="P165" t="n">
         <v>367.13</v>
@@ -12165,7 +12165,7 @@
         <v>349.15</v>
       </c>
       <c r="O166" t="n">
-        <v>360.71</v>
+        <v>360.52</v>
       </c>
       <c r="P166" t="n">
         <v>372.01</v>
@@ -12238,7 +12238,7 @@
         <v>337.03</v>
       </c>
       <c r="O167" t="n">
-        <v>341.59</v>
+        <v>341.96</v>
       </c>
       <c r="P167" t="n">
         <v>353.13</v>
@@ -12311,7 +12311,7 @@
         <v>317.94</v>
       </c>
       <c r="O168" t="n">
-        <v>330.11</v>
+        <v>329.74</v>
       </c>
       <c r="P168" t="n">
         <v>343.12</v>
@@ -12384,7 +12384,7 @@
         <v>333.16</v>
       </c>
       <c r="O169" t="n">
-        <v>329.22</v>
+        <v>329.43</v>
       </c>
       <c r="P169" t="n">
         <v>349.39</v>
@@ -12455,7 +12455,7 @@
         <v>324.68</v>
       </c>
       <c r="O170" t="n">
-        <v>335.09</v>
+        <v>335.07</v>
       </c>
       <c r="P170" t="n">
         <v>344.72</v>
@@ -12524,7 +12524,7 @@
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="n">
-        <v>350.29</v>
+        <v>350.01</v>
       </c>
       <c r="P171" t="n">
         <v>359.43</v>
@@ -12599,7 +12599,7 @@
         <v>348.92</v>
       </c>
       <c r="O172" t="n">
-        <v>341.26</v>
+        <v>341.5</v>
       </c>
       <c r="P172" t="n">
         <v>360.08</v>
@@ -12670,7 +12670,7 @@
         <v>334.01</v>
       </c>
       <c r="O173" t="n">
-        <v>337.08</v>
+        <v>337.18</v>
       </c>
       <c r="P173" t="n">
         <v>345.16</v>
@@ -12739,7 +12739,7 @@
         <v>352.43</v>
       </c>
       <c r="O174" t="n">
-        <v>362.38</v>
+        <v>362.25</v>
       </c>
       <c r="P174" t="n">
         <v>372.01</v>
@@ -12810,7 +12810,7 @@
         <v>353</v>
       </c>
       <c r="O175" t="n">
-        <v>356.71</v>
+        <v>356.93</v>
       </c>
       <c r="P175" t="n">
         <v>364.71</v>
@@ -12873,7 +12873,7 @@
         <v>343.64</v>
       </c>
       <c r="O176" t="n">
-        <v>341.36</v>
+        <v>341.79</v>
       </c>
       <c r="P176" t="n">
         <v>354.74</v>
@@ -12948,7 +12948,7 @@
         <v>348.52</v>
       </c>
       <c r="O177" t="n">
-        <v>362.09</v>
+        <v>361.86</v>
       </c>
       <c r="P177" t="n">
         <v>369.86</v>
@@ -13015,7 +13015,7 @@
         <v>337.05</v>
       </c>
       <c r="O178" t="n">
-        <v>338.94</v>
+        <v>338.81</v>
       </c>
       <c r="P178" t="n">
         <v>346.92</v>
@@ -13086,7 +13086,7 @@
         <v>347.47</v>
       </c>
       <c r="O179" t="n">
-        <v>346.28</v>
+        <v>346.47</v>
       </c>
       <c r="P179" t="n">
         <v>359.22</v>
@@ -13155,7 +13155,7 @@
         <v>368.05</v>
       </c>
       <c r="O180" t="n">
-        <v>372.16</v>
+        <v>372.5</v>
       </c>
       <c r="P180" t="n">
         <v>377.81</v>
@@ -13295,7 +13295,7 @@
         <v>371.65</v>
       </c>
       <c r="O182" t="n">
-        <v>370.31</v>
+        <v>370.47</v>
       </c>
       <c r="P182" t="n">
         <v>382.02</v>
@@ -13431,7 +13431,7 @@
         <v>361.36</v>
       </c>
       <c r="O184" t="n">
-        <v>365.16</v>
+        <v>365.22</v>
       </c>
       <c r="P184" t="n">
         <v>371.62</v>
@@ -13553,7 +13553,7 @@
         <v>347.37</v>
       </c>
       <c r="O186" t="n">
-        <v>360.71</v>
+        <v>360.51</v>
       </c>
       <c r="P186" t="n">
         <v>367.66</v>
@@ -13628,7 +13628,7 @@
         <v>356.92</v>
       </c>
       <c r="O187" t="n">
-        <v>365.1</v>
+        <v>364.91</v>
       </c>
       <c r="P187" t="n">
         <v>365.41</v>
@@ -13701,7 +13701,7 @@
         <v>346.91</v>
       </c>
       <c r="O188" t="n">
-        <v>349.03</v>
+        <v>349.43</v>
       </c>
       <c r="P188" t="n">
         <v>355.52</v>
@@ -13776,7 +13776,7 @@
         <v>347.61</v>
       </c>
       <c r="O189" t="n">
-        <v>359.01</v>
+        <v>358.64</v>
       </c>
       <c r="P189" t="n">
         <v>368.55</v>
@@ -13851,7 +13851,7 @@
         <v>351.54</v>
       </c>
       <c r="O190" t="n">
-        <v>356.08</v>
+        <v>355.95</v>
       </c>
       <c r="P190" t="n">
         <v>367.27</v>
@@ -13922,7 +13922,7 @@
         <v>322.08</v>
       </c>
       <c r="O191" t="n">
-        <v>324.83</v>
+        <v>325.04</v>
       </c>
       <c r="P191" t="n">
         <v>336.3</v>
@@ -13997,7 +13997,7 @@
         <v>347.51</v>
       </c>
       <c r="O192" t="n">
-        <v>350.08</v>
+        <v>350.19</v>
       </c>
       <c r="P192" t="n">
         <v>366.05</v>
@@ -14072,7 +14072,7 @@
         <v>353.85</v>
       </c>
       <c r="O193" t="n">
-        <v>352.32</v>
+        <v>352.67</v>
       </c>
       <c r="P193" t="n">
         <v>365.47</v>
@@ -14143,7 +14143,7 @@
         <v>339.24</v>
       </c>
       <c r="O194" t="n">
-        <v>343.35</v>
+        <v>343.15</v>
       </c>
       <c r="P194" t="n">
         <v>356.72</v>
@@ -14281,7 +14281,7 @@
         <v>355.13</v>
       </c>
       <c r="O196" t="n">
-        <v>353.82</v>
+        <v>353.92</v>
       </c>
       <c r="P196" t="n">
         <v>367.19</v>
@@ -14391,7 +14391,7 @@
         <v>353.58</v>
       </c>
       <c r="O198" t="n">
-        <v>355.33</v>
+        <v>355.16</v>
       </c>
       <c r="P198" t="n">
         <v>364.83</v>
@@ -14462,7 +14462,7 @@
         <v>332.07</v>
       </c>
       <c r="O199" t="n">
-        <v>336.31</v>
+        <v>336.51</v>
       </c>
       <c r="P199" t="n">
         <v>345.75</v>
@@ -14537,7 +14537,7 @@
         <v>346.1</v>
       </c>
       <c r="O200" t="n">
-        <v>352.96</v>
+        <v>352.85</v>
       </c>
       <c r="P200" t="n">
         <v>361.33</v>
@@ -14612,7 +14612,7 @@
         <v>346</v>
       </c>
       <c r="O201" t="n">
-        <v>355.67</v>
+        <v>355.69</v>
       </c>
       <c r="P201" t="n">
         <v>365.17</v>
@@ -14683,7 +14683,7 @@
         <v>339.13</v>
       </c>
       <c r="O202" t="n">
-        <v>342.26</v>
+        <v>342.14</v>
       </c>
       <c r="P202" t="n">
         <v>353.79</v>
@@ -14754,7 +14754,7 @@
         <v>351.45</v>
       </c>
       <c r="O203" t="n">
-        <v>349.04</v>
+        <v>349.13</v>
       </c>
       <c r="P203" t="n">
         <v>369.01</v>
@@ -14963,7 +14963,7 @@
         <v>347.1</v>
       </c>
       <c r="O206" t="n">
-        <v>347.84</v>
+        <v>348.14</v>
       </c>
       <c r="P206" t="n">
         <v>361.42</v>
@@ -15103,7 +15103,7 @@
         <v>353.39</v>
       </c>
       <c r="O208" t="n">
-        <v>361.41</v>
+        <v>361.36</v>
       </c>
       <c r="P208" t="n">
         <v>369.16</v>
@@ -15166,7 +15166,7 @@
         <v>352.36</v>
       </c>
       <c r="O209" t="n">
-        <v>353.76</v>
+        <v>353.97</v>
       </c>
       <c r="P209" t="n">
         <v>365.91</v>
@@ -15233,7 +15233,7 @@
         <v>353.12</v>
       </c>
       <c r="O210" t="n">
-        <v>364.25</v>
+        <v>364.52</v>
       </c>
       <c r="P210" t="n">
         <v>370.44</v>
@@ -15304,7 +15304,7 @@
         <v>354.39</v>
       </c>
       <c r="O211" t="n">
-        <v>350.81</v>
+        <v>351.03</v>
       </c>
       <c r="P211" t="n">
         <v>360.82</v>
@@ -15379,7 +15379,7 @@
         <v>356.07</v>
       </c>
       <c r="O212" t="n">
-        <v>362.13</v>
+        <v>362.03</v>
       </c>
       <c r="P212" t="n">
         <v>366.24</v>
@@ -15450,7 +15450,7 @@
         <v>360.74</v>
       </c>
       <c r="O213" t="n">
-        <v>358.17</v>
+        <v>358.37</v>
       </c>
       <c r="P213" t="n">
         <v>368.6</v>
@@ -15521,7 +15521,7 @@
         <v>348.79</v>
       </c>
       <c r="O214" t="n">
-        <v>348.58</v>
+        <v>348.38</v>
       </c>
       <c r="P214" t="n">
         <v>358.07</v>
@@ -15594,7 +15594,7 @@
         <v>360.84</v>
       </c>
       <c r="O215" t="n">
-        <v>358.05</v>
+        <v>358.29</v>
       </c>
       <c r="P215" t="n">
         <v>364.93</v>
@@ -15738,7 +15738,7 @@
         <v>349.42</v>
       </c>
       <c r="O217" t="n">
-        <v>354.29</v>
+        <v>354.34</v>
       </c>
       <c r="P217" t="n">
         <v>353.35</v>
@@ -15805,7 +15805,7 @@
         <v>339.39</v>
       </c>
       <c r="O218" t="n">
-        <v>347</v>
+        <v>346.81</v>
       </c>
       <c r="P218" t="n">
         <v>353.39</v>
@@ -15874,7 +15874,7 @@
         <v>335.92</v>
       </c>
       <c r="O219" t="n">
-        <v>337.5</v>
+        <v>337.75</v>
       </c>
       <c r="P219" t="n">
         <v>346.52</v>
@@ -15949,7 +15949,7 @@
         <v>348.05</v>
       </c>
       <c r="O220" t="n">
-        <v>360.69</v>
+        <v>360.51</v>
       </c>
       <c r="P220" t="n">
         <v>370.87</v>
@@ -16020,7 +16020,7 @@
         <v>341.45</v>
       </c>
       <c r="O221" t="n">
-        <v>341.98</v>
+        <v>342.39</v>
       </c>
       <c r="P221" t="n">
         <v>348.45</v>
@@ -16089,7 +16089,7 @@
         <v>339.19</v>
       </c>
       <c r="O222" t="n">
-        <v>334.92</v>
+        <v>335.18</v>
       </c>
       <c r="P222" t="n">
         <v>349.93</v>
@@ -16156,7 +16156,7 @@
         <v>347.01</v>
       </c>
       <c r="O223" t="n">
-        <v>350.31</v>
+        <v>350.51</v>
       </c>
       <c r="P223" t="n">
         <v>359.57</v>
@@ -16292,7 +16292,7 @@
         <v>361.35</v>
       </c>
       <c r="O225" t="n">
-        <v>365.48</v>
+        <v>365.58</v>
       </c>
       <c r="P225" t="n">
         <v>370.98</v>
@@ -16499,7 +16499,7 @@
         <v>363.9</v>
       </c>
       <c r="O228" t="n">
-        <v>360.9</v>
+        <v>361.1</v>
       </c>
       <c r="P228" t="n">
         <v>373.17</v>
@@ -16574,7 +16574,7 @@
         <v>354.07</v>
       </c>
       <c r="O229" t="n">
-        <v>353.6</v>
+        <v>353.59</v>
       </c>
       <c r="P229" t="n">
         <v>370.47</v>
@@ -16649,7 +16649,7 @@
         <v>354.89</v>
       </c>
       <c r="O230" t="n">
-        <v>356.47</v>
+        <v>356.27</v>
       </c>
       <c r="P230" t="n">
         <v>364.4</v>
@@ -16722,7 +16722,7 @@
         <v>351.67</v>
       </c>
       <c r="O231" t="n">
-        <v>349.2</v>
+        <v>349.43</v>
       </c>
       <c r="P231" t="n">
         <v>357.1</v>
@@ -16789,7 +16789,7 @@
         <v>353.78</v>
       </c>
       <c r="O232" t="n">
-        <v>360.86</v>
+        <v>360.67</v>
       </c>
       <c r="P232" t="n">
         <v>371.29</v>
@@ -16860,7 +16860,7 @@
         <v>339.98</v>
       </c>
       <c r="O233" t="n">
-        <v>345.21</v>
+        <v>345.49</v>
       </c>
       <c r="P233" t="n">
         <v>351.32</v>
@@ -16933,7 +16933,7 @@
         <v>346.45</v>
       </c>
       <c r="O234" t="n">
-        <v>354.27</v>
+        <v>354.17</v>
       </c>
       <c r="P234" t="inlineStr"/>
       <c r="Q234" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
         <v>367.13</v>
       </c>
       <c r="O235" t="n">
-        <v>361.48</v>
+        <v>361.9</v>
       </c>
       <c r="P235" t="n">
         <v>376.43</v>
@@ -17146,7 +17146,7 @@
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="n">
-        <v>359.66</v>
+        <v>359.5</v>
       </c>
       <c r="P237" t="n">
         <v>366.46</v>
@@ -17221,7 +17221,7 @@
         <v>365.65</v>
       </c>
       <c r="O238" t="n">
-        <v>364.78</v>
+        <v>365.02</v>
       </c>
       <c r="P238" t="n">
         <v>373.47</v>
@@ -17432,7 +17432,7 @@
         <v>341.08</v>
       </c>
       <c r="O241" t="n">
-        <v>341.6</v>
+        <v>341.85</v>
       </c>
       <c r="P241" t="n">
         <v>351.78</v>
@@ -17499,7 +17499,7 @@
         <v>348.29</v>
       </c>
       <c r="O242" t="n">
-        <v>344.55</v>
+        <v>344.75</v>
       </c>
       <c r="P242" t="n">
         <v>354.57</v>
@@ -17627,7 +17627,7 @@
         <v>360.15</v>
       </c>
       <c r="O244" t="n">
-        <v>358.97</v>
+        <v>359.1</v>
       </c>
       <c r="P244" t="n">
         <v>366.65</v>
@@ -17763,7 +17763,7 @@
         <v>354.14</v>
       </c>
       <c r="O246" t="n">
-        <v>351.8</v>
+        <v>352.01</v>
       </c>
       <c r="P246" t="n">
         <v>365.41</v>
@@ -17834,7 +17834,7 @@
         <v>343.03</v>
       </c>
       <c r="O247" t="n">
-        <v>348.39</v>
+        <v>348.34</v>
       </c>
       <c r="P247" t="n">
         <v>355.35</v>
@@ -17909,7 +17909,7 @@
         <v>338.04</v>
       </c>
       <c r="O248" t="n">
-        <v>346.56</v>
+        <v>346.52</v>
       </c>
       <c r="P248" t="n">
         <v>353.37</v>
@@ -17982,7 +17982,7 @@
         <v>337.77</v>
       </c>
       <c r="O249" t="n">
-        <v>341.85</v>
+        <v>341.87</v>
       </c>
       <c r="P249" t="n">
         <v>345.75</v>
@@ -18051,7 +18051,7 @@
         <v>346.3</v>
       </c>
       <c r="O250" t="n">
-        <v>342.96</v>
+        <v>343.24</v>
       </c>
       <c r="P250" t="n">
         <v>357.72</v>
@@ -18126,7 +18126,7 @@
         <v>351.16</v>
       </c>
       <c r="O251" t="n">
-        <v>354.57</v>
+        <v>354.37</v>
       </c>
       <c r="P251" t="n">
         <v>364.3</v>
@@ -18197,7 +18197,7 @@
         <v>342.22</v>
       </c>
       <c r="O252" t="n">
-        <v>341.82</v>
+        <v>342.2</v>
       </c>
       <c r="P252" t="n">
         <v>352.34</v>
@@ -18268,7 +18268,7 @@
         <v>343.83</v>
       </c>
       <c r="O253" t="n">
-        <v>347.9</v>
+        <v>348.19</v>
       </c>
       <c r="P253" t="n">
         <v>359.45</v>
@@ -18343,7 +18343,7 @@
         <v>350.57</v>
       </c>
       <c r="O254" t="n">
-        <v>350.22</v>
+        <v>350.26</v>
       </c>
       <c r="P254" t="n">
         <v>358.17</v>
@@ -18414,7 +18414,7 @@
         <v>351.58</v>
       </c>
       <c r="O255" t="n">
-        <v>362.95</v>
+        <v>362.72</v>
       </c>
       <c r="P255" t="n">
         <v>365.27</v>
@@ -18550,7 +18550,7 @@
         <v>339.29</v>
       </c>
       <c r="O257" t="n">
-        <v>344.57</v>
+        <v>344.44</v>
       </c>
       <c r="P257" t="n">
         <v>353.08</v>
@@ -18692,7 +18692,7 @@
         <v>356.58</v>
       </c>
       <c r="O259" t="n">
-        <v>356.84</v>
+        <v>357.14</v>
       </c>
       <c r="P259" t="n">
         <v>366.66</v>
@@ -18767,7 +18767,7 @@
         <v>348.65</v>
       </c>
       <c r="O260" t="n">
-        <v>361.98</v>
+        <v>361.76</v>
       </c>
       <c r="P260" t="n">
         <v>365.32</v>
@@ -18842,7 +18842,7 @@
         <v>354.42</v>
       </c>
       <c r="O261" t="n">
-        <v>357.84</v>
+        <v>357.75</v>
       </c>
       <c r="P261" t="n">
         <v>365.3</v>
@@ -18913,7 +18913,7 @@
         <v>354.23</v>
       </c>
       <c r="O262" t="n">
-        <v>359.13</v>
+        <v>359.18</v>
       </c>
       <c r="P262" t="n">
         <v>372.78</v>
@@ -18986,7 +18986,7 @@
         <v>348.47</v>
       </c>
       <c r="O263" t="n">
-        <v>356.94</v>
+        <v>356.91</v>
       </c>
       <c r="P263" t="n">
         <v>364.87</v>
@@ -19061,7 +19061,7 @@
         <v>362.84</v>
       </c>
       <c r="O264" t="n">
-        <v>365.15</v>
+        <v>365.3</v>
       </c>
       <c r="P264" t="n">
         <v>374.76</v>
@@ -19199,7 +19199,7 @@
         <v>348.28</v>
       </c>
       <c r="O266" t="n">
-        <v>349.48</v>
+        <v>349.85</v>
       </c>
       <c r="P266" t="n">
         <v>360.97</v>
@@ -19341,7 +19341,7 @@
         <v>354.38</v>
       </c>
       <c r="O268" t="n">
-        <v>355.88</v>
+        <v>356.12</v>
       </c>
       <c r="P268" t="n">
         <v>372.38</v>
@@ -19402,7 +19402,7 @@
         <v>332.93</v>
       </c>
       <c r="O269" t="n">
-        <v>340.3</v>
+        <v>339.92</v>
       </c>
       <c r="P269" t="n">
         <v>345.31</v>
@@ -19477,7 +19477,7 @@
         <v>354.77</v>
       </c>
       <c r="O270" t="n">
-        <v>351.49</v>
+        <v>351.7</v>
       </c>
       <c r="P270" t="n">
         <v>356.89</v>
@@ -19548,7 +19548,7 @@
         <v>339.24</v>
       </c>
       <c r="O271" t="n">
-        <v>345.98</v>
+        <v>345.83</v>
       </c>
       <c r="P271" t="n">
         <v>347.63</v>
@@ -19623,7 +19623,7 @@
         <v>334.28</v>
       </c>
       <c r="O272" t="n">
-        <v>335.83</v>
+        <v>336.03</v>
       </c>
       <c r="P272" t="n">
         <v>341.78</v>
@@ -19698,7 +19698,7 @@
         <v>333.9</v>
       </c>
       <c r="O273" t="n">
-        <v>343.4</v>
+        <v>343.24</v>
       </c>
       <c r="P273" t="n">
         <v>353.25</v>
@@ -19773,7 +19773,7 @@
         <v>339.82</v>
       </c>
       <c r="O274" t="n">
-        <v>351.05</v>
+        <v>350.85</v>
       </c>
       <c r="P274" t="n">
         <v>357.69</v>
@@ -19848,7 +19848,7 @@
         <v>340.18</v>
       </c>
       <c r="O275" t="n">
-        <v>347.05</v>
+        <v>346.74</v>
       </c>
       <c r="P275" t="n">
         <v>354.28</v>
@@ -19913,7 +19913,7 @@
         <v>336.17</v>
       </c>
       <c r="O276" t="n">
-        <v>333.69</v>
+        <v>333.98</v>
       </c>
       <c r="P276" t="n">
         <v>346.81</v>
@@ -19988,7 +19988,7 @@
         <v>346.64</v>
       </c>
       <c r="O277" t="n">
-        <v>348.05</v>
+        <v>348.03</v>
       </c>
       <c r="P277" t="n">
         <v>361.8</v>
@@ -20061,7 +20061,7 @@
         <v>332.15</v>
       </c>
       <c r="O278" t="n">
-        <v>343.83</v>
+        <v>343.51</v>
       </c>
       <c r="P278" t="n">
         <v>349.45</v>
@@ -20126,7 +20126,7 @@
       <c r="M279" t="inlineStr"/>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="n">
-        <v>342.93</v>
+        <v>343.17</v>
       </c>
       <c r="P279" t="n">
         <v>353.45</v>
@@ -20199,7 +20199,7 @@
         <v>333.51</v>
       </c>
       <c r="O280" t="n">
-        <v>334.55</v>
+        <v>334.45</v>
       </c>
       <c r="P280" t="n">
         <v>343.75</v>
@@ -20274,7 +20274,7 @@
         <v>349.81</v>
       </c>
       <c r="O281" t="n">
-        <v>351.08</v>
+        <v>351.28</v>
       </c>
       <c r="P281" t="n">
         <v>357.35</v>
@@ -20349,7 +20349,7 @@
         <v>348.77</v>
       </c>
       <c r="O282" t="n">
-        <v>369.35</v>
+        <v>369</v>
       </c>
       <c r="P282" t="n">
         <v>374.36</v>
@@ -20491,7 +20491,7 @@
         <v>360.67</v>
       </c>
       <c r="O284" t="n">
-        <v>366.96</v>
+        <v>366.88</v>
       </c>
       <c r="P284" t="n">
         <v>377.46</v>
@@ -20682,7 +20682,7 @@
         <v>370.9</v>
       </c>
       <c r="O287" t="n">
-        <v>373.02</v>
+        <v>373.39</v>
       </c>
       <c r="P287" t="n">
         <v>385.98</v>
@@ -20753,7 +20753,7 @@
         <v>356.41</v>
       </c>
       <c r="O288" t="n">
-        <v>371.56</v>
+        <v>371.28</v>
       </c>
       <c r="P288" t="n">
         <v>372.76</v>
@@ -20828,7 +20828,7 @@
         <v>346.68</v>
       </c>
       <c r="O289" t="n">
-        <v>352.49</v>
+        <v>352.39</v>
       </c>
       <c r="P289" t="n">
         <v>360.72</v>
@@ -20903,7 +20903,7 @@
         <v>349.58</v>
       </c>
       <c r="O290" t="n">
-        <v>364.86</v>
+        <v>364.77</v>
       </c>
       <c r="P290" t="n">
         <v>371.62</v>
@@ -20978,7 +20978,7 @@
         <v>349.7</v>
       </c>
       <c r="O291" t="n">
-        <v>360.91</v>
+        <v>360.7</v>
       </c>
       <c r="P291" t="n">
         <v>368.88</v>
@@ -21043,7 +21043,7 @@
         <v>338.24</v>
       </c>
       <c r="O292" t="n">
-        <v>344.07</v>
+        <v>343.75</v>
       </c>
       <c r="P292" t="n">
         <v>348.6</v>
@@ -21108,7 +21108,7 @@
         <v>342.74</v>
       </c>
       <c r="O293" t="n">
-        <v>340.31</v>
+        <v>340.56</v>
       </c>
       <c r="P293" t="n">
         <v>347.59</v>
@@ -21250,7 +21250,7 @@
         <v>357.85</v>
       </c>
       <c r="O295" t="n">
-        <v>359.4</v>
+        <v>359.46</v>
       </c>
       <c r="P295" t="n">
         <v>367.4</v>
@@ -21325,7 +21325,7 @@
         <v>357.41</v>
       </c>
       <c r="O296" t="n">
-        <v>349.74</v>
+        <v>350.02</v>
       </c>
       <c r="P296" t="n">
         <v>363.75</v>
@@ -21400,7 +21400,7 @@
         <v>353.65</v>
       </c>
       <c r="O297" t="n">
-        <v>356.72</v>
+        <v>356.55</v>
       </c>
       <c r="P297" t="n">
         <v>364.5</v>
@@ -21475,7 +21475,7 @@
         <v>361.74</v>
       </c>
       <c r="O298" t="n">
-        <v>356.22</v>
+        <v>356.65</v>
       </c>
       <c r="P298" t="n">
         <v>366.33</v>
@@ -21546,7 +21546,7 @@
         <v>352.67</v>
       </c>
       <c r="O299" t="n">
-        <v>358.04</v>
+        <v>357.81</v>
       </c>
       <c r="P299" t="n">
         <v>365.53</v>
@@ -21621,7 +21621,7 @@
         <v>359.03</v>
       </c>
       <c r="O300" t="n">
-        <v>362.24</v>
+        <v>362.39</v>
       </c>
       <c r="P300" t="n">
         <v>370.95</v>
@@ -21696,7 +21696,7 @@
         <v>328.72</v>
       </c>
       <c r="O301" t="n">
-        <v>338.16</v>
+        <v>337.78</v>
       </c>
       <c r="P301" t="n">
         <v>348.58</v>
@@ -21836,7 +21836,7 @@
         <v>325.82</v>
       </c>
       <c r="O303" t="n">
-        <v>328.07</v>
+        <v>328.06</v>
       </c>
       <c r="P303" t="n">
         <v>342.44</v>
@@ -22051,7 +22051,7 @@
         <v>338.79</v>
       </c>
       <c r="O306" t="n">
-        <v>349.09</v>
+        <v>348.82</v>
       </c>
       <c r="P306" t="n">
         <v>354.47</v>
@@ -22126,7 +22126,7 @@
         <v>346.08</v>
       </c>
       <c r="O307" t="n">
-        <v>352.65</v>
+        <v>352.36</v>
       </c>
       <c r="P307" t="n">
         <v>355.46</v>
@@ -22201,7 +22201,7 @@
         <v>335.41</v>
       </c>
       <c r="O308" t="n">
-        <v>333.46</v>
+        <v>333.55</v>
       </c>
       <c r="P308" t="n">
         <v>348.36</v>
@@ -22276,7 +22276,7 @@
         <v>352.99</v>
       </c>
       <c r="O309" t="n">
-        <v>353.28</v>
+        <v>353.18</v>
       </c>
       <c r="P309" t="n">
         <v>362.51</v>
@@ -22418,7 +22418,7 @@
         <v>344.96</v>
       </c>
       <c r="O311" t="n">
-        <v>350.49</v>
+        <v>350.16</v>
       </c>
       <c r="P311" t="n">
         <v>358.33</v>
@@ -22493,7 +22493,7 @@
         <v>363.58</v>
       </c>
       <c r="O312" t="n">
-        <v>366.29</v>
+        <v>366.23</v>
       </c>
       <c r="P312" t="n">
         <v>370</v>
@@ -22568,7 +22568,7 @@
         <v>361.54</v>
       </c>
       <c r="O313" t="n">
-        <v>367.43</v>
+        <v>367.2</v>
       </c>
       <c r="P313" t="n">
         <v>371.69</v>
@@ -22643,7 +22643,7 @@
         <v>364.17</v>
       </c>
       <c r="O314" t="n">
-        <v>362.03</v>
+        <v>362.26</v>
       </c>
       <c r="P314" t="n">
         <v>374.57</v>
@@ -22763,7 +22763,7 @@
         <v>360.25</v>
       </c>
       <c r="O316" t="n">
-        <v>371.17</v>
+        <v>371.01</v>
       </c>
       <c r="P316" t="n">
         <v>374.32</v>
@@ -22905,7 +22905,7 @@
         <v>342.29</v>
       </c>
       <c r="O318" t="n">
-        <v>348.13</v>
+        <v>347.93</v>
       </c>
       <c r="P318" t="n">
         <v>357.71</v>
@@ -23049,7 +23049,7 @@
         <v>329</v>
       </c>
       <c r="O320" t="n">
-        <v>345.88</v>
+        <v>345.89</v>
       </c>
       <c r="P320" t="n">
         <v>354.07</v>
@@ -23191,7 +23191,7 @@
         <v>337.03</v>
       </c>
       <c r="O322" t="n">
-        <v>349.19</v>
+        <v>349.45</v>
       </c>
       <c r="P322" t="n">
         <v>356.23</v>
@@ -23266,7 +23266,7 @@
         <v>336.85</v>
       </c>
       <c r="O323" t="n">
-        <v>328.16</v>
+        <v>328.49</v>
       </c>
       <c r="P323" t="n">
         <v>328.74</v>
@@ -23341,7 +23341,7 @@
         <v>329.78</v>
       </c>
       <c r="O324" t="n">
-        <v>348.55</v>
+        <v>348.31</v>
       </c>
       <c r="P324" t="n">
         <v>351.95</v>
@@ -23416,7 +23416,7 @@
         <v>341.63</v>
       </c>
       <c r="O325" t="n">
-        <v>339.54</v>
+        <v>339.96</v>
       </c>
       <c r="P325" t="n">
         <v>353.22</v>
@@ -23487,7 +23487,7 @@
         <v>337.7</v>
       </c>
       <c r="O326" t="n">
-        <v>335.25</v>
+        <v>335.54</v>
       </c>
       <c r="P326" t="n">
         <v>346.35</v>
@@ -23556,7 +23556,7 @@
         <v>341.85</v>
       </c>
       <c r="O327" t="n">
-        <v>342.31</v>
+        <v>342.61</v>
       </c>
       <c r="P327" t="n">
         <v>350.14</v>
@@ -23619,7 +23619,7 @@
         <v>352.62</v>
       </c>
       <c r="O328" t="n">
-        <v>354.22</v>
+        <v>353.9</v>
       </c>
       <c r="P328" t="n">
         <v>363.6</v>
@@ -23694,7 +23694,7 @@
         <v>352.64</v>
       </c>
       <c r="O329" t="n">
-        <v>353.99</v>
+        <v>354.11</v>
       </c>
       <c r="P329" t="n">
         <v>358.62</v>
@@ -23769,7 +23769,7 @@
         <v>365.83</v>
       </c>
       <c r="O330" t="n">
-        <v>359.51</v>
+        <v>359.8</v>
       </c>
       <c r="P330" t="n">
         <v>372.71</v>
@@ -23919,7 +23919,7 @@
         <v>350.08</v>
       </c>
       <c r="O332" t="n">
-        <v>352.95</v>
+        <v>353.04</v>
       </c>
       <c r="P332" t="n">
         <v>365.62</v>
@@ -23994,7 +23994,7 @@
         <v>348.94</v>
       </c>
       <c r="O333" t="n">
-        <v>357.23</v>
+        <v>357.54</v>
       </c>
       <c r="P333" t="n">
         <v>358.24</v>
@@ -24069,7 +24069,7 @@
         <v>342.13</v>
       </c>
       <c r="O334" t="n">
-        <v>351.72</v>
+        <v>351.46</v>
       </c>
       <c r="P334" t="n">
         <v>357.42</v>
@@ -24144,7 +24144,7 @@
         <v>353.23</v>
       </c>
       <c r="O335" t="n">
-        <v>358.3</v>
+        <v>358.2</v>
       </c>
       <c r="P335" t="n">
         <v>366.87</v>
@@ -24219,7 +24219,7 @@
         <v>354.62</v>
       </c>
       <c r="O336" t="n">
-        <v>361.28</v>
+        <v>361.1</v>
       </c>
       <c r="P336" t="n">
         <v>369.77</v>
@@ -24294,7 +24294,7 @@
         <v>349.24</v>
       </c>
       <c r="O337" t="n">
-        <v>357.43</v>
+        <v>357.28</v>
       </c>
       <c r="P337" t="n">
         <v>360.78</v>
@@ -24369,7 +24369,7 @@
         <v>347.51</v>
       </c>
       <c r="O338" t="n">
-        <v>360.66</v>
+        <v>360.37</v>
       </c>
       <c r="P338" t="n">
         <v>365.6</v>
@@ -24444,7 +24444,7 @@
         <v>359.91</v>
       </c>
       <c r="O339" t="n">
-        <v>362.28</v>
+        <v>362.49</v>
       </c>
       <c r="P339" t="n">
         <v>373.58</v>
@@ -24519,7 +24519,7 @@
         <v>343.64</v>
       </c>
       <c r="O340" t="n">
-        <v>348.21</v>
+        <v>348.04</v>
       </c>
       <c r="P340" t="n">
         <v>356.92</v>
@@ -24643,7 +24643,7 @@
         <v>352.57</v>
       </c>
       <c r="O342" t="n">
-        <v>353.58</v>
+        <v>353.78</v>
       </c>
       <c r="P342" t="n">
         <v>367.1</v>
@@ -24718,7 +24718,7 @@
         <v>342.17</v>
       </c>
       <c r="O343" t="n">
-        <v>357.17</v>
+        <v>357.09</v>
       </c>
       <c r="P343" t="n">
         <v>361.91</v>
@@ -24793,7 +24793,7 @@
         <v>351.3</v>
       </c>
       <c r="O344" t="n">
-        <v>357.55</v>
+        <v>357.49</v>
       </c>
       <c r="P344" t="n">
         <v>365.8</v>
@@ -24974,7 +24974,7 @@
         <v>345.96</v>
       </c>
       <c r="O347" t="n">
-        <v>350.82</v>
+        <v>350.59</v>
       </c>
       <c r="P347" t="n">
         <v>358.7</v>
@@ -25084,7 +25084,7 @@
         <v>340.69</v>
       </c>
       <c r="O349" t="n">
-        <v>345.44</v>
+        <v>345.43</v>
       </c>
       <c r="P349" t="n">
         <v>357.26</v>
@@ -25159,7 +25159,7 @@
         <v>319.96</v>
       </c>
       <c r="O350" t="n">
-        <v>334.15</v>
+        <v>333.85</v>
       </c>
       <c r="P350" t="n">
         <v>338.52</v>
@@ -25216,7 +25216,7 @@
         <v>325.44</v>
       </c>
       <c r="O351" t="n">
-        <v>336.73</v>
+        <v>336.63</v>
       </c>
       <c r="P351" t="n">
         <v>349.67</v>
@@ -25285,7 +25285,7 @@
         <v>328.87</v>
       </c>
       <c r="O352" t="n">
-        <v>330.77</v>
+        <v>330.75</v>
       </c>
       <c r="P352" t="n">
         <v>347.91</v>
@@ -25360,7 +25360,7 @@
         <v>332.92</v>
       </c>
       <c r="O353" t="n">
-        <v>337.72</v>
+        <v>337.82</v>
       </c>
       <c r="P353" t="n">
         <v>354.07</v>
@@ -25435,7 +25435,7 @@
         <v>333.69</v>
       </c>
       <c r="O354" t="n">
-        <v>329.79</v>
+        <v>330.11</v>
       </c>
       <c r="P354" t="n">
         <v>349.9</v>
@@ -25510,7 +25510,7 @@
         <v>331.33</v>
       </c>
       <c r="O355" t="n">
-        <v>332.45</v>
+        <v>332.72</v>
       </c>
       <c r="P355" t="n">
         <v>349.4</v>
@@ -25585,7 +25585,7 @@
         <v>338.03</v>
       </c>
       <c r="O356" t="n">
-        <v>340.69</v>
+        <v>340.92</v>
       </c>
       <c r="P356" t="n">
         <v>357.08</v>
@@ -25660,7 +25660,7 @@
         <v>333.91</v>
       </c>
       <c r="O357" t="n">
-        <v>335.28</v>
+        <v>335.49</v>
       </c>
       <c r="P357" t="n">
         <v>350.27</v>
@@ -25774,7 +25774,7 @@
         <v>334.26</v>
       </c>
       <c r="O359" t="n">
-        <v>340.03</v>
+        <v>340.04</v>
       </c>
       <c r="P359" t="n">
         <v>353.37</v>
@@ -25827,7 +25827,7 @@
         <v>335.2</v>
       </c>
       <c r="O360" t="n">
-        <v>354.94</v>
+        <v>354.64</v>
       </c>
       <c r="P360" t="n">
         <v>362.98</v>
@@ -25902,7 +25902,7 @@
         <v>336.18</v>
       </c>
       <c r="O361" t="n">
-        <v>359.11</v>
+        <v>358.77</v>
       </c>
       <c r="P361" t="n">
         <v>352.3</v>
@@ -26075,7 +26075,7 @@
         <v>349.11</v>
       </c>
       <c r="O364" t="n">
-        <v>359.31</v>
+        <v>359.22</v>
       </c>
       <c r="P364" t="n">
         <v>362.21</v>
@@ -26203,7 +26203,7 @@
         <v>356.46</v>
       </c>
       <c r="O366" t="n">
-        <v>361.86</v>
+        <v>362.15</v>
       </c>
       <c r="P366" t="n">
         <v>371.49</v>
@@ -26278,7 +26278,7 @@
         <v>338.07</v>
       </c>
       <c r="O367" t="n">
-        <v>340.71</v>
+        <v>340.52</v>
       </c>
       <c r="P367" t="n">
         <v>346.16</v>
@@ -26353,7 +26353,7 @@
         <v>342.62</v>
       </c>
       <c r="O368" t="n">
-        <v>344.15</v>
+        <v>344.1</v>
       </c>
       <c r="P368" t="n">
         <v>354.6</v>
@@ -26428,7 +26428,7 @@
         <v>341.38</v>
       </c>
       <c r="O369" t="n">
-        <v>342.14</v>
+        <v>342.15</v>
       </c>
       <c r="P369" t="n">
         <v>351.27</v>
@@ -26503,7 +26503,7 @@
         <v>332.05</v>
       </c>
       <c r="O370" t="n">
-        <v>336.18</v>
+        <v>335.94</v>
       </c>
       <c r="P370" t="n">
         <v>343.22</v>
@@ -26578,7 +26578,7 @@
         <v>346.39</v>
       </c>
       <c r="O371" t="n">
-        <v>356.55</v>
+        <v>356.27</v>
       </c>
       <c r="P371" t="n">
         <v>359.5</v>
@@ -26653,7 +26653,7 @@
         <v>352.98</v>
       </c>
       <c r="O372" t="n">
-        <v>359.27</v>
+        <v>359.57</v>
       </c>
       <c r="P372" t="n">
         <v>366.19</v>
@@ -26728,7 +26728,7 @@
         <v>357.66</v>
       </c>
       <c r="O373" t="n">
-        <v>360.92</v>
+        <v>360.83</v>
       </c>
       <c r="P373" t="n">
         <v>370.28</v>
@@ -26803,7 +26803,7 @@
         <v>363.46</v>
       </c>
       <c r="O374" t="n">
-        <v>367</v>
+        <v>367.11</v>
       </c>
       <c r="P374" t="n">
         <v>378.58</v>
@@ -26878,7 +26878,7 @@
         <v>350.86</v>
       </c>
       <c r="O375" t="n">
-        <v>353.19</v>
+        <v>353.41</v>
       </c>
       <c r="P375" t="n">
         <v>364.18</v>
@@ -26953,7 +26953,7 @@
         <v>348.19</v>
       </c>
       <c r="O376" t="n">
-        <v>360.87</v>
+        <v>360.5</v>
       </c>
       <c r="P376" t="n">
         <v>366.2</v>
@@ -27028,7 +27028,7 @@
         <v>361.66</v>
       </c>
       <c r="O377" t="n">
-        <v>365.28</v>
+        <v>365.5</v>
       </c>
       <c r="P377" t="n">
         <v>375.52</v>
@@ -27103,7 +27103,7 @@
         <v>353.37</v>
       </c>
       <c r="O378" t="n">
-        <v>360.06</v>
+        <v>360.26</v>
       </c>
       <c r="P378" t="n">
         <v>372.21</v>
@@ -27178,7 +27178,7 @@
         <v>355.47</v>
       </c>
       <c r="O379" t="n">
-        <v>364.31</v>
+        <v>364.18</v>
       </c>
       <c r="P379" t="n">
         <v>372.75</v>
@@ -27253,7 +27253,7 @@
         <v>347.68</v>
       </c>
       <c r="O380" t="n">
-        <v>355.62</v>
+        <v>355.61</v>
       </c>
       <c r="P380" t="n">
         <v>365.23</v>
@@ -27328,7 +27328,7 @@
         <v>356.8</v>
       </c>
       <c r="O381" t="n">
-        <v>363.45</v>
+        <v>363.63</v>
       </c>
       <c r="P381" t="n">
         <v>369.17</v>
@@ -27403,7 +27403,7 @@
         <v>348.49</v>
       </c>
       <c r="O382" t="n">
-        <v>351.19</v>
+        <v>351.48</v>
       </c>
       <c r="P382" t="n">
         <v>366.1</v>
@@ -27521,7 +27521,7 @@
         <v>343.77</v>
       </c>
       <c r="O384" t="n">
-        <v>355.08</v>
+        <v>354.95</v>
       </c>
       <c r="P384" t="n">
         <v>361.17</v>
@@ -27596,7 +27596,7 @@
         <v>338.19</v>
       </c>
       <c r="O385" t="n">
-        <v>344.5</v>
+        <v>344.62</v>
       </c>
       <c r="P385" t="n">
         <v>353.59</v>
@@ -27671,7 +27671,7 @@
         <v>348.01</v>
       </c>
       <c r="O386" t="n">
-        <v>351.75</v>
+        <v>351.69</v>
       </c>
       <c r="P386" t="n">
         <v>359.69</v>
@@ -27746,7 +27746,7 @@
         <v>346.1</v>
       </c>
       <c r="O387" t="n">
-        <v>345.26</v>
+        <v>345.62</v>
       </c>
       <c r="P387" t="n">
         <v>354.73</v>
@@ -27821,7 +27821,7 @@
         <v>351.17</v>
       </c>
       <c r="O388" t="n">
-        <v>351.67</v>
+        <v>351.46</v>
       </c>
       <c r="P388" t="n">
         <v>357.47</v>
@@ -27896,7 +27896,7 @@
         <v>355.73</v>
       </c>
       <c r="O389" t="n">
-        <v>362.98</v>
+        <v>362.72</v>
       </c>
       <c r="P389" t="n">
         <v>370.44</v>
@@ -27971,7 +27971,7 @@
         <v>348.88</v>
       </c>
       <c r="O390" t="n">
-        <v>358.1</v>
+        <v>357.85</v>
       </c>
       <c r="P390" t="n">
         <v>360.44</v>
@@ -28046,7 +28046,7 @@
         <v>334.13</v>
       </c>
       <c r="O391" t="n">
-        <v>334.09</v>
+        <v>334.38</v>
       </c>
       <c r="P391" t="n">
         <v>337.05</v>
@@ -28121,7 +28121,7 @@
         <v>352.22</v>
       </c>
       <c r="O392" t="n">
-        <v>357.72</v>
+        <v>357.85</v>
       </c>
       <c r="P392" t="n">
         <v>361.78</v>
@@ -28196,7 +28196,7 @@
         <v>357.18</v>
       </c>
       <c r="O393" t="n">
-        <v>362</v>
+        <v>361.91</v>
       </c>
       <c r="P393" t="n">
         <v>369.47</v>
@@ -28271,7 +28271,7 @@
         <v>352.36</v>
       </c>
       <c r="O394" t="n">
-        <v>355.52</v>
+        <v>355.41</v>
       </c>
       <c r="P394" t="n">
         <v>361.65</v>
@@ -28346,7 +28346,7 @@
         <v>353.09</v>
       </c>
       <c r="O395" t="n">
-        <v>354.73</v>
+        <v>354.93</v>
       </c>
       <c r="P395" t="n">
         <v>364.06</v>
@@ -28421,7 +28421,7 @@
         <v>345.76</v>
       </c>
       <c r="O396" t="n">
-        <v>346.91</v>
+        <v>347.13</v>
       </c>
       <c r="P396" t="n">
         <v>357.73</v>
@@ -28496,7 +28496,7 @@
         <v>342.42</v>
       </c>
       <c r="O397" t="n">
-        <v>354.71</v>
+        <v>354.5</v>
       </c>
       <c r="P397" t="n">
         <v>357.79</v>
@@ -28571,7 +28571,7 @@
         <v>377.13</v>
       </c>
       <c r="O398" t="n">
-        <v>370.33</v>
+        <v>370.53</v>
       </c>
       <c r="P398" t="n">
         <v>379.65</v>
@@ -28646,7 +28646,7 @@
         <v>343.06</v>
       </c>
       <c r="O399" t="n">
-        <v>349.49</v>
+        <v>349.34</v>
       </c>
       <c r="P399" t="n">
         <v>354.05</v>
@@ -28721,7 +28721,7 @@
         <v>346.31</v>
       </c>
       <c r="O400" t="n">
-        <v>348.65</v>
+        <v>348.62</v>
       </c>
       <c r="P400" t="n">
         <v>353.61</v>
@@ -28796,7 +28796,7 @@
         <v>339.93</v>
       </c>
       <c r="O401" t="n">
-        <v>351.78</v>
+        <v>351.68</v>
       </c>
       <c r="P401" t="n">
         <v>363.1</v>
@@ -28871,7 +28871,7 @@
         <v>343.49</v>
       </c>
       <c r="O402" t="n">
-        <v>346.61</v>
+        <v>346.82</v>
       </c>
       <c r="P402" t="n">
         <v>359.32</v>
@@ -28946,7 +28946,7 @@
         <v>333.94</v>
       </c>
       <c r="O403" t="n">
-        <v>333.33</v>
+        <v>333.6</v>
       </c>
       <c r="P403" t="n">
         <v>338.6</v>
@@ -29021,7 +29021,7 @@
         <v>351.19</v>
       </c>
       <c r="O404" t="n">
-        <v>354.84</v>
+        <v>354.77</v>
       </c>
       <c r="P404" t="n">
         <v>356.71</v>
@@ -29096,7 +29096,7 @@
         <v>344.87</v>
       </c>
       <c r="O405" t="n">
-        <v>348.67</v>
+        <v>348.45</v>
       </c>
       <c r="P405" t="n">
         <v>351.43</v>
@@ -34401,7 +34401,7 @@
         <v>0.1594</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07785780411684064</v>
+        <v>0.07870761726843827</v>
       </c>
       <c r="J15" t="n">
         <v>404</v>
@@ -34410,19 +34410,19 @@
         <v>335</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003735972644433705</v>
+        <v>0.003839443102397588</v>
       </c>
       <c r="M15" t="n">
-        <v>7.795627975581465</v>
+        <v>7.774271533933836</v>
       </c>
       <c r="N15" t="n">
-        <v>92.09891334957148</v>
+        <v>91.57439934150339</v>
       </c>
       <c r="O15" t="n">
-        <v>9.596817876232281</v>
+        <v>9.569451360527593</v>
       </c>
       <c r="P15" t="n">
-        <v>349.3951959143461</v>
+        <v>349.3966883927349</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35204,7 +35204,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-38.28281929565653,178.33514085229018</t>
+          <t>-38.28281924041466,178.33514094224424</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -35321,7 +35321,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-38.282757479968645,178.3352415107823</t>
+          <t>-38.28275836383959,178.33524007152002</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -35418,7 +35418,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-38.28277388682069,178.33521479447043</t>
+          <t>-38.282775654562016,178.3352119159445</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -35535,7 +35535,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-38.282764219484264,178.33523053640653</t>
+          <t>-38.28276565577436,178.33522819760486</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -35652,7 +35652,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-38.28275770093638,178.33524115096674</t>
+          <t>-38.28275875053313,178.33523944184276</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -35769,7 +35769,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-38.28278940979709,178.33518951740976</t>
+          <t>-38.28278907834568,178.33519005713356</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -35886,7 +35886,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-38.282761512629726,178.33523494414789</t>
+          <t>-38.28276289367798,178.3352326953003</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -35975,7 +35975,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-38.282799684789545,178.33517278596847</t>
+          <t>-38.28280073438543,178.33517107684247</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -36205,7 +36205,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-38.28287973022467,178.3350424424775</t>
+          <t>-38.282879564499275,178.33504271234008</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -36322,7 +36322,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-38.282856086727534,178.33508094286296</t>
+          <t>-38.28285702583861,178.33507941364255</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -36439,7 +36439,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-38.28283316136358,178.33511827381966</t>
+          <t>-38.282832222252075,178.33511980303905</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -36556,7 +36556,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-38.28280288881903,178.3351675686363</t>
+          <t>-38.28280471180125,178.335164600154</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -36673,7 +36673,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-38.2828229416197,178.3351349153227</t>
+          <t>-38.28282426742443,178.33513275642528</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -36903,7 +36903,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-38.28278062633415,178.33520382008956</t>
+          <t>-38.28277880335109,178.33520678856982</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -37020,7 +37020,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-38.282843767798305,178.33510100263305</t>
+          <t>-38.28284271820329,178.33510271176115</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -37254,7 +37254,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>-38.28280498801066,178.33516415038397</t>
+          <t>-38.28280609284832,178.3351623513037</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -37371,7 +37371,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-38.28283829885567,178.3351099080893</t>
+          <t>-38.28284001135292,178.33510711951223</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -37488,7 +37488,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-38.2827989114031,178.33517404532444</t>
+          <t>-38.282800071482775,178.33517215629047</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -37605,7 +37605,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>-38.28282526177796,178.33513113725218</t>
+          <t>-38.282823438796484,178.33513410573616</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -37722,7 +37722,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-38.28278714487912,178.33519320552247</t>
+          <t>-38.28278592955724,178.3351951845097</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -37839,7 +37839,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>-38.282829073466274,178.33512493042147</t>
+          <t>-38.28283028878713,178.33512295143183</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -37956,7 +37956,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>-38.28281553920935,178.33514696916512</t>
+          <t>-38.28281548396748,178.33514705911918</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -38049,7 +38049,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>-38.282832608945036,178.3351191733605</t>
+          <t>-38.28283421095878,178.33511656469204</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -38166,7 +38166,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>-38.28283294039616,178.335118633636</t>
+          <t>-38.28283139362425,178.33512115235027</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -38283,7 +38283,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>-38.28279874567741,178.3351743151864</t>
+          <t>-38.282796867453115,178.3351773736222</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -38400,7 +38400,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>-38.282809517844925,178.3351567741545</t>
+          <t>-38.282807308169716,178.33516037231536</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -38517,7 +38517,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>-38.28284481739329,178.33509929350492</t>
+          <t>-38.28284492787696,178.3350991135967</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -38634,7 +38634,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>-38.28287564233109,178.33504909908802</t>
+          <t>-38.282877078618064,178.335046760279</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -38751,7 +38751,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>-38.28288271328196,178.33503758495038</t>
+          <t>-38.282884481019515,178.33503470641563</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -39086,7 +39086,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>-38.282792282375844,178.335184839803</t>
+          <t>-38.282793331971874,178.33518313067734</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -39195,7 +39195,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>-38.28292768008719,178.33496436217757</t>
+          <t>-38.282926078076365,178.33496697085292</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -39312,7 +39312,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>-38.28287901208123,178.3350436118821</t>
+          <t>-38.28287989595009,178.3350421726149</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -39526,7 +39526,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>-38.28284603271376,178.33509731451443</t>
+          <t>-38.28284730327606,178.3350952455697</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -39635,7 +39635,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>-38.28281393719503,178.3351495778322</t>
+          <t>-38.28281537348373,178.33514723902726</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -39744,7 +39744,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>-38.28276444045198,178.3352301765909</t>
+          <t>-38.28276250698447,178.33523332497762</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -39861,7 +39861,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>-38.28281067792435,178.33515488512</t>
+          <t>-38.2828115617944,178.33515344585555</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -39966,7 +39966,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>-38.282770572305544,178.33522019170616</t>
+          <t>-38.28276974367673,178.33522154101502</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -40083,7 +40083,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>-38.282747149725765,178.3352583321575</t>
+          <t>-38.28274786787105,178.33525716275724</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -40293,7 +40293,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>-38.28283095168939,178.33512187198286</t>
+          <t>-38.282829736368555,178.33512385097254</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -40398,7 +40398,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>-38.28278758681435,178.33519248589073</t>
+          <t>-38.28278924407139,178.33518978727164</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -40499,7 +40499,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>-38.282805485187595,178.33516334079783</t>
+          <t>-38.28280382793108,178.3351660394182</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -40709,7 +40709,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>-38.2827853771382,178.33519608404936</t>
+          <t>-38.28278432754198,178.33519779317461</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -40826,7 +40826,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>-38.28282133960561,178.3351375239903</t>
+          <t>-38.282821118638154,178.3351378838065</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -40935,7 +40935,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>-38.28281747267484,178.33514382077368</t>
+          <t>-38.28281653356305,178.33514534999242</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -41052,7 +41052,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>-38.28280327551224,178.33516693895825</t>
+          <t>-38.28280432510805,178.33516522983209</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -41169,7 +41169,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>-38.28281100937563,178.33515434539584</t>
+          <t>-38.28281266663191,178.33515164677496</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -41278,7 +41278,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>-38.28280255736772,178.33516810836036</t>
+          <t>-38.28280078962733,178.33517098688847</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -41395,7 +41395,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>-38.28279250334342,178.33518447998708</t>
+          <t>-38.282793773907045,178.33518241104548</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -41617,7 +41617,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>-38.282838796032294,178.33510909850241</t>
+          <t>-38.28283956941815,178.33510783914505</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -41726,7 +41726,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>-38.28282951540114,178.33512421078885</t>
+          <t>-38.28282918394998,178.3351247505133</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -41831,7 +41831,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>-38.2828079158304,178.33515938282116</t>
+          <t>-38.28280802631417,178.3351592029131</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -41948,7 +41948,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>-38.28292486275779,178.3349689498479</t>
+          <t>-38.282923536955686,178.33497110875146</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -42057,7 +42057,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>-38.28289486647644,178.33501779502095</t>
+          <t>-38.28289619227931,178.33501563611915</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -42166,7 +42166,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>-38.28282062146135,178.335138693393</t>
+          <t>-38.28282189202427,178.33513662444975</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -42275,7 +42275,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>-38.28287862538861,178.3350442415615</t>
+          <t>-38.282877189101676,178.33504658037063</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -42465,7 +42465,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>-38.28278576383152,178.33519545437161</t>
+          <t>-38.28278410657437,178.33519815299042</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -42582,7 +42582,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>-38.282789851732296,178.33518879777796</t>
+          <t>-38.282790625118885,178.3351875384223</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -42699,7 +42699,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>-38.28280686623467,178.33516109194747</t>
+          <t>-38.28280642429961,178.3351618115796</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -42816,7 +42816,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>-38.28284266296146,178.33510280171524</t>
+          <t>-38.2828418343338,178.33510415102683</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -43030,7 +43030,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>-38.28276223077483,178.33523377474714</t>
+          <t>-38.28276101545236,178.33523575373297</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -43147,7 +43147,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>-38.28285349036153,178.3350851707075</t>
+          <t>-38.28285172262291,178.33508804923972</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -43264,7 +43264,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>-38.28288735359291,178.33503002879633</t>
+          <t>-38.282886414482405,178.33503155801807</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -43438,7 +43438,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>-38.2828241569407,178.3351329363334</t>
+          <t>-38.28282399121511,178.3351332061956</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -43555,7 +43555,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>-38.282808413007324,178.33515857323493</t>
+          <t>-38.28280813679793,178.33515902300505</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -43672,7 +43672,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>-38.28276819690291,178.33522405972477</t>
+          <t>-38.282769246499434,178.3352223506003</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -43781,7 +43781,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>-38.282924310340256,178.33496984939106</t>
+          <t>-38.28292320550514,178.33497164847734</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -43898,7 +43898,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>-38.28284907101484,178.33509236703782</t>
+          <t>-38.28285061778623,178.3350898483223</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -44007,7 +44007,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>-38.282913317229855,178.33498775029696</t>
+          <t>-38.282911549493285,178.33499062883408</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -44116,7 +44116,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>-38.28281205897128,178.3351526362693</t>
+          <t>-38.28281150655251,178.33515353580958</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -44233,7 +44233,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>-38.28273405738285,178.3352796512196</t>
+          <t>-38.28273273157578,178.33528181011152</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -44342,7 +44342,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>-38.282840508529524,178.33510630992532</t>
+          <t>-38.28284012183662,178.33510693960403</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -44459,7 +44459,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>-38.282785487622,178.33519590414141</t>
+          <t>-38.28278515617057,178.3351964438652</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -44568,7 +44568,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>-38.28280476704312,178.3351645102</t>
+          <t>-38.282803385996004,178.33516675905025</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -44669,7 +44669,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>-38.2829045337882,178.3350020530268</t>
+          <t>-38.282906135799685,178.3349994443531</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -44778,7 +44778,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>-38.282815318241866,178.3351473289813</t>
+          <t>-38.282815152516235,178.3351475988434</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -44883,7 +44883,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>-38.28285918026984,178.3350759054308</t>
+          <t>-38.28285995365539,178.3350746460727</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -44992,7 +44992,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>-38.2828525512504,178.33508669992773</t>
+          <t>-38.282851998832065,178.33508759946906</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -45186,7 +45186,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>-38.28284995488421,178.33509092777183</t>
+          <t>-38.282851280688234,178.33508876887277</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -45303,7 +45303,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>-38.28288608303162,178.33503209774338</t>
+          <t>-38.28288503343749,178.3350338068735</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
@@ -45420,7 +45420,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>-38.28276427472619,178.3352304464526</t>
+          <t>-38.282763943274624,178.33523098617607</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -45537,7 +45537,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>-38.282759413436324,178.33523836239604</t>
+          <t>-38.282760463033036,178.33523665327198</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -45646,7 +45646,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>-38.28280592712268,178.33516262116575</t>
+          <t>-38.28280471180125,178.335164600154</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -45751,7 +45751,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>-38.282835757730616,178.33511404597758</t>
+          <t>-38.28283410047507,178.3351167446002</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -45949,7 +45949,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>-38.282913648680456,178.33498721057123</t>
+          <t>-38.28291282005396,178.33498855988555</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -46155,7 +46155,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>-38.28283067548012,178.3351223217533</t>
+          <t>-38.282829404917415,178.335124390697</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -46256,7 +46256,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>-38.28279195092444,178.33518537952685</t>
+          <t>-38.28279156423117,178.3351860092047</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -46361,7 +46361,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>-38.28275714851702,178.33524205050566</t>
+          <t>-38.282756043678305,178.33524384958343</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -46769,7 +46769,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>-38.28285061778623,178.3350898483223</t>
+          <t>-38.28285034157706,178.33509029809292</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -46878,7 +46878,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>-38.28283956941815,178.33510783914505</t>
+          <t>-38.2828385750649,178.3351094583188</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -47096,7 +47096,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>-38.28285017585155,178.33509056795532</t>
+          <t>-38.28285078351173,178.33508957845993</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -47201,7 +47201,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>-38.282808413007324,178.33515857323493</t>
+          <t>-38.282809517844925,178.3351567741545</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
@@ -47310,7 +47310,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>-38.28284476215144,178.33509938345907</t>
+          <t>-38.282845922230095,178.33509749442266</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -47504,7 +47504,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>-38.282757479968645,178.3352415107823</t>
+          <t>-38.28275847432346,178.33523989161225</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
@@ -47601,7 +47601,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>-38.282903373710894,178.33500394206632</t>
+          <t>-38.2829043128211,178.33500241284386</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
@@ -47706,7 +47706,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>-38.28290039065482,178.33500879959627</t>
+          <t>-38.282897960016406,178.3350127575833</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -47811,7 +47811,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>-38.282741901740614,178.33526687777407</t>
+          <t>-38.282741183595235,178.33526804717414</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -47920,7 +47920,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>-38.2828037726892,178.3351661293722</t>
+          <t>-38.28280454607558,178.33516487001606</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
@@ -48021,7 +48021,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>-38.282767147306345,178.3352257688492</t>
+          <t>-38.28276852835443,178.33522352000125</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -48118,7 +48118,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>-38.28274223319232,178.33526633805093</t>
+          <t>-38.28274300657963,178.335265078697</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -48227,7 +48227,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>-38.28279675696932,178.3351775535302</t>
+          <t>-38.282796370276074,178.33517818320811</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
@@ -48336,7 +48336,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>-38.282792669069124,178.3351842101251</t>
+          <t>-38.28279206140825,178.3351851996189</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
@@ -48635,7 +48635,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>-38.282839900869234,178.33510729942043</t>
+          <t>-38.28284117143167,178.33510523047607</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
@@ -48740,7 +48740,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>-38.28289199390346,178.33502247264127</t>
+          <t>-38.28289365115714,178.33501977401423</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -48849,7 +48849,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>-38.28284851859647,178.33509326657904</t>
+          <t>-38.28284796617812,178.33509416612026</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -48958,7 +48958,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>-38.28280382793108,178.3351660394182</t>
+          <t>-38.28280206019075,178.3351689179464</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -49059,7 +49059,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>-38.282759579162125,178.33523809253435</t>
+          <t>-38.28275891625893,178.3352391719811</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -49265,7 +49265,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>-38.28279040415129,178.33518789823822</t>
+          <t>-38.282791674714964,178.33518582929676</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
@@ -49374,7 +49374,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>-38.282793608181365,178.33518268090742</t>
+          <t>-38.28279344245567,178.33518295076937</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
@@ -49584,7 +49584,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>-38.28283796740459,178.3351104478139</t>
+          <t>-38.28283686256761,178.33511224689576</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -49693,7 +49693,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>-38.28291508496636,178.3349848717597</t>
+          <t>-38.28291436682341,178.33498604116545</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -49802,7 +49802,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>-38.28285890406071,178.33507635520155</t>
+          <t>-38.28285995365539,178.3350746460727</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
@@ -49903,7 +49903,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>-38.282803883172974,178.33516594946417</t>
+          <t>-38.28280498801066,178.33516415038397</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
@@ -50008,7 +50008,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>-38.28288796125265,178.33502903929988</t>
+          <t>-38.2828892870557,178.33502688039852</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -50117,7 +50117,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>-38.28285862785159,178.33507680497232</t>
+          <t>-38.28285918026984,178.3350759054308</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
@@ -50218,7 +50218,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>-38.282784382783895,178.33519770322064</t>
+          <t>-38.28278559810582,178.3351957242335</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
@@ -50327,7 +50327,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>-38.28292972403193,178.33496103386753</t>
+          <t>-38.28292872968045,178.33496265304544</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
@@ -50436,7 +50436,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>-38.28279587309904,178.335178992794</t>
+          <t>-38.282796922695006,178.3351772836682</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
@@ -50650,7 +50650,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>-38.282837746437195,178.33511080763026</t>
+          <t>-38.28283967990184,178.33510765923685</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -50759,7 +50759,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>-38.282838851274136,178.3351090085483</t>
+          <t>-38.282838685548604,178.3351092784106</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -51058,7 +51058,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>-38.282835371037656,178.33511467565623</t>
+          <t>-38.282835150070255,178.33511503547257</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -51167,7 +51167,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>-38.28284691658318,178.33509587524856</t>
+          <t>-38.282848021419944,178.33509407616614</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -51385,7 +51385,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>-38.2829236474392,178.33497092884284</t>
+          <t>-38.28292309502163,178.33497182838596</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
@@ -51656,7 +51656,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>-38.282904920480625,178.33500142334694</t>
+          <t>-38.28290315274377,178.33500430188337</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -51745,7 +51745,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>-38.28288658020779,178.3350312881554</t>
+          <t>-38.282885530613655,178.33503299728554</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -51854,7 +51854,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>-38.28286879234651,178.33506025340668</t>
+          <t>-38.2828687371047,178.33506034336082</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
@@ -51963,7 +51963,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>-38.28285426374716,178.33508391134956</t>
+          <t>-38.28285531334194,178.33508220222095</t>
         </is>
       </c>
       <c r="P157" t="inlineStr">
@@ -52072,7 +52072,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>-38.282835536763216,178.33511440579395</t>
+          <t>-38.282834984344696,178.33511530533482</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
@@ -52149,7 +52149,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>-38.28289343018998,178.33502013383116</t>
+          <t>-38.282892325354204,178.33502193291585</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
@@ -52258,7 +52258,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>-38.282815318241866,178.3351473289813</t>
+          <t>-38.28281404767878,178.33514939792414</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
@@ -52375,7 +52375,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>-38.28274742593549,178.3352578823882</t>
+          <t>-38.282745437225394,178.33526112072727</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
@@ -52589,7 +52589,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>-38.28282238920106,178.33513581486324</t>
+          <t>-38.282824322666286,178.3351326664712</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
@@ -52706,7 +52706,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>-38.282756927549286,178.3352424103212</t>
+          <t>-38.282756043678305,178.33524384958343</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
@@ -52815,7 +52815,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>-38.282802723093376,178.33516783849834</t>
+          <t>-38.2828026126096,178.33516801840634</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
@@ -52924,7 +52924,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>-38.282761512629726,178.33523494414789</t>
+          <t>-38.28276256222641,178.3352332350237</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -53037,7 +53037,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>-38.28286713509205,178.33506295203185</t>
+          <t>-38.2828650911448,178.335066280336</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
@@ -53150,7 +53150,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>-38.282930552658165,178.3349596845526</t>
+          <t>-38.2829325966028,178.33495635624226</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
@@ -53263,7 +53263,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>-38.2829354691735,178.3349516786166</t>
+          <t>-38.2829343090969,178.33495356765778</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
@@ -53372,7 +53372,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>-38.28290304226022,178.33500448179188</t>
+          <t>-38.28290315274377,178.33500430188337</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
@@ -53477,7 +53477,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>-38.28281907468905,178.33514121210638</t>
+          <t>-38.28282062146135,178.335138693393</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
@@ -53594,7 +53594,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>-38.282868958071965,178.33505998354414</t>
+          <t>-38.28286763226838,178.3350621424443</t>
         </is>
       </c>
       <c r="P172" t="inlineStr">
@@ -53703,7 +53703,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>-38.282892049145254,178.33502238268701</t>
+          <t>-38.28289149672736,178.33502328222937</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
@@ -53808,7 +53808,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>-38.28275228722649,178.33524996644746</t>
+          <t>-38.28275300537172,178.33524879704703</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
@@ -53917,7 +53917,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>-38.28278360939721,178.33519896257607</t>
+          <t>-38.28278239407524,178.3352009415631</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
@@ -54010,7 +54010,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>-38.282868405653815,178.33506088308587</t>
+          <t>-38.282866030255704,178.3350647511152</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
@@ -54127,7 +54127,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>-38.28275388924275,178.33524735778494</t>
+          <t>-38.282755159807316,178.3352452888456</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -54228,7 +54228,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>-38.28288177417135,178.33503911417193</t>
+          <t>-38.28288249231475,178.33503794476724</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -54337,7 +54337,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>-38.282841226673526,178.335105140522</t>
+          <t>-38.28284017707847,178.33510684964992</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
@@ -54442,7 +54442,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>-38.28269826058008,178.33533794127314</t>
+          <t>-38.282696382352086,178.33534099970024</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
@@ -54656,7 +54656,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>-38.28270848034885,178.33532129982868</t>
+          <t>-38.28270759647703,178.3353227390889</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
@@ -54862,7 +54862,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>-38.2827369299647,178.33527497362013</t>
+          <t>-38.282736598512955,178.33527551334316</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
@@ -55040,7 +55040,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>-38.282761512629726,178.33523494414789</t>
+          <t>-38.28276261746834,178.33523314506982</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">
@@ -55157,7 +55157,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>-38.28273726141645,178.33527443389713</t>
+          <t>-38.28273831101362,178.33527272477411</t>
         </is>
       </c>
       <c r="P187" t="inlineStr">
@@ -55270,7 +55270,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>-38.282826035164014,178.33512987789524</t>
+          <t>-38.28282382548954,178.33513347605776</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
@@ -55387,7 +55387,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>-38.28277090375707,178.33521965198258</t>
+          <t>-38.28277294770809,178.33521632368726</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
@@ -55504,7 +55504,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>-38.28278708963721,178.33519329547644</t>
+          <t>-38.28278780778196,178.33519212607487</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
@@ -55613,7 +55613,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>-38.282959720292844,178.33491218864643</t>
+          <t>-38.282958560216784,178.3349140776889</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -55730,7 +55730,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>-38.28282023476827,178.33513932307136</t>
+          <t>-38.282819627107735,178.33514031256587</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
@@ -55847,7 +55847,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>-38.28280786058853,178.33515947277516</t>
+          <t>-38.28280592712268,178.33516262116575</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
@@ -55956,7 +55956,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>-38.28285741253141,178.33507878396352</t>
+          <t>-38.282858517367934,178.33507698488057</t>
         </is>
       </c>
       <c r="P194" t="inlineStr">
@@ -56166,7 +56166,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>-38.28279957430578,178.33517296587647</t>
+          <t>-38.28279902188687,178.33517386541644</t>
         </is>
       </c>
       <c r="P196" t="inlineStr">
@@ -56320,7 +56320,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>-38.28279123277977,178.33518654892856</t>
+          <t>-38.282792171892034,178.33518501971093</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
@@ -56429,7 +56429,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>-38.282896302762886,178.33501545621067</t>
+          <t>-38.28289519792717,178.33501725529553</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
@@ -56546,7 +56546,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>-38.28280432510805,178.33516522983209</t>
+          <t>-38.28280493276878,178.33516424033797</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
@@ -56663,7 +56663,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>-38.282789354555185,178.33518960736373</t>
+          <t>-38.28278924407139,178.33518978727164</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
@@ -56772,7 +56772,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>-38.282863433890206,178.3350689789609</t>
+          <t>-38.282864096792046,178.33506789951096</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
@@ -56881,7 +56881,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>-38.28282597992215,178.33512996784933</t>
+          <t>-38.282825482745395,178.3351307774359</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -57200,7 +57200,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>-38.282832608945036,178.3351191733605</t>
+          <t>-38.28283095168939,178.33512187198286</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
@@ -57414,7 +57414,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>-38.28275764569443,178.33524124092065</t>
+          <t>-38.282757921904114,178.3352407911512</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
@@ -57507,7 +57507,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>-38.28279990575711,178.33517242615247</t>
+          <t>-38.28279874567741,178.3351743151864</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
@@ -57608,7 +57608,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>-38.28274195698256,178.3352667878202</t>
+          <t>-38.282740465449834,178.33526921657418</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
@@ -57717,7 +57717,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>-38.28281620211181,178.33514588971664</t>
+          <t>-38.28281498679063,178.33514786870552</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
@@ -57834,7 +57834,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>-38.282753668274985,178.33524771760048</t>
+          <t>-38.28275422069437,178.33524681806165</t>
         </is>
       </c>
       <c r="P212" t="inlineStr">
@@ -57943,7 +57943,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>-38.282775544078184,178.33521209585237</t>
+          <t>-38.282774439239866,178.3352138949311</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
@@ -58052,7 +58052,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>-38.28282852104769,178.33512582996218</t>
+          <t>-38.28282962588485,178.3351240308807</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
@@ -58165,7 +58165,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>-38.282776206981175,178.3352110164051</t>
+          <t>-38.282774881175186,178.3352131752996</t>
         </is>
       </c>
       <c r="P215" t="inlineStr">
@@ -58387,7 +58387,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>-38.2827969779369,178.3351771937142</t>
+          <t>-38.282796701727435,178.33517764348417</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
@@ -58488,7 +58488,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>-38.28283724926055,178.3351116172171</t>
+          <t>-38.28283829885567,178.3351099080893</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -58593,7 +58593,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>-38.28288972899003,178.3350261607647</t>
+          <t>-38.282888347945224,178.33502840962032</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
@@ -58710,7 +58710,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>-38.2827616231136,178.33523476424008</t>
+          <t>-38.28276261746834,178.33523314506982</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
@@ -58819,7 +58819,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>-38.28286498066116,178.33506646024435</t>
+          <t>-38.28286271574652,178.33507014836496</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
@@ -58924,7 +58924,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>-38.28290398137043,178.33500295256945</t>
+          <t>-38.28290254508421,178.33500529138024</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
@@ -59025,7 +59025,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>-38.282818964205326,178.33514139201446</t>
+          <t>-38.28281785936794,178.3351431910954</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
@@ -59231,7 +59231,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>-38.28273516222204,178.33527785214292</t>
+          <t>-38.28273460980245,178.33527875168124</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
@@ -59546,7 +59546,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>-38.282760463033036,178.33523665327198</t>
+          <t>-38.28275935819438,178.33523845234993</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
@@ -59663,7 +59663,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>-38.28280078962733,178.33517098688847</t>
+          <t>-38.282800844869215,178.33517089693447</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
@@ -59780,7 +59780,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>-38.28278493520296,178.33519680368104</t>
+          <t>-38.282786040041046,178.3351950046018</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
@@ -59893,7 +59893,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>-38.282825096052356,178.33513140711435</t>
+          <t>-38.28282382548954,178.33513347605776</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
@@ -59994,7 +59994,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>-38.28276068400076,178.33523629345638</t>
+          <t>-38.28276173359746,178.33523458433228</t>
         </is>
       </c>
       <c r="P232" t="inlineStr">
@@ -60103,7 +60103,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>-38.28284713755054,178.33509551543207</t>
+          <t>-38.28284559077904,178.33509803414734</t>
         </is>
       </c>
       <c r="P233" t="inlineStr">
@@ -60216,7 +60216,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>-38.28279708842068,178.33517701380623</t>
+          <t>-38.282797640839604,178.3351761142663</t>
         </is>
       </c>
       <c r="P234" t="inlineStr"/>
@@ -60321,7 +60321,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>-38.28275725900089,178.33524187059788</t>
+          <t>-38.282754938839574,178.33524564866116</t>
         </is>
       </c>
       <c r="P235" t="inlineStr">
@@ -60543,7 +60543,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>-38.28276731303212,178.33522549898746</t>
+          <t>-38.28276819690291,178.33522405972477</t>
         </is>
       </c>
       <c r="P237" t="inlineStr">
@@ -60660,7 +60660,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>-38.28273902915903,178.33527155537416</t>
+          <t>-38.282737703352105,178.33527371426638</t>
         </is>
       </c>
       <c r="P238" t="inlineStr">
@@ -60983,7 +60983,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>-38.282867079850234,178.335063041986</t>
+          <t>-38.28286569880479,178.3350652908402</t>
         </is>
       </c>
       <c r="P241" t="inlineStr">
@@ -61084,7 +61084,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>-38.28285078351173,178.33508957845993</t>
+          <t>-38.28284967867504,178.33509137754245</t>
         </is>
       </c>
       <c r="P242" t="inlineStr">
@@ -61274,7 +61274,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>-38.28277112472476,178.3352192921669</t>
+          <t>-38.2827704065798,178.33522046156793</t>
         </is>
       </c>
       <c r="P244" t="inlineStr">
@@ -61480,7 +61480,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>-38.282810733166244,178.33515479516598</t>
+          <t>-38.282809573086794,178.33515668420048</t>
         </is>
       </c>
       <c r="P246" t="inlineStr">
@@ -61589,7 +61589,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>-38.28282957064299,178.33512412083476</t>
+          <t>-38.28282984685227,178.33512367106442</t>
         </is>
       </c>
       <c r="P247" t="inlineStr">
@@ -61706,7 +61706,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>-38.28283967990184,178.33510765923685</t>
+          <t>-38.282839900869234,178.33510729942043</t>
         </is>
       </c>
       <c r="P248" t="inlineStr">
@@ -61819,7 +61819,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>-38.28286569880479,178.3350652908402</t>
+          <t>-38.28286558832116,178.33506547074853</t>
         </is>
       </c>
       <c r="P249" t="inlineStr">
@@ -61924,7 +61924,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>-38.28285956696262,178.33507527575176</t>
+          <t>-38.282858020191505,178.33507779446794</t>
         </is>
       </c>
       <c r="P250" t="inlineStr">
@@ -62041,7 +62041,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>-38.28279543116388,178.3351797124259</t>
+          <t>-38.28279653600177,178.33517791334614</t>
         </is>
       </c>
       <c r="P251" t="inlineStr">
@@ -62150,7 +62150,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>-38.28286586453026,178.3350650209777</t>
+          <t>-38.282863765341126,178.33506843923593</t>
         </is>
       </c>
       <c r="P252" t="inlineStr">
@@ -62259,7 +62259,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>-38.28283227749392,178.335119713085</t>
+          <t>-38.28283067548012,178.3351223217533</t>
         </is>
       </c>
       <c r="P253" t="inlineStr">
@@ -62376,7 +62376,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>-38.28281946138214,178.33514058242804</t>
+          <t>-38.28281924041466,178.33514094224424</t>
         </is>
       </c>
       <c r="P254" t="inlineStr">
@@ -62485,7 +62485,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>-38.28274913843577,178.3352550938183</t>
+          <t>-38.28275040900047,178.33525302487925</t>
         </is>
       </c>
       <c r="P255" t="inlineStr">
@@ -62691,7 +62691,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>-38.28285067302806,178.33508975836818</t>
+          <t>-38.282851391171896,178.3350885889645</t>
         </is>
       </c>
       <c r="P257" t="inlineStr">
@@ -62909,7 +62909,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>-38.28278289125242,178.3352001319775</t>
+          <t>-38.282781233995166,178.3352028305961</t>
         </is>
       </c>
       <c r="P259" t="inlineStr">
@@ -63026,7 +63026,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>-38.28275449690406,178.33524636829225</t>
+          <t>-38.282755712226695,178.33524438930675</t>
         </is>
       </c>
       <c r="P260" t="inlineStr">
@@ -63143,7 +63143,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>-38.282777367061364,178.33520912737237</t>
+          <t>-38.28277786423859,178.33520831778688</t>
         </is>
       </c>
       <c r="P261" t="inlineStr">
@@ -63252,7 +63252,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>-38.28277024085402,178.3352207314297</t>
+          <t>-38.28276996464442,178.3352211811993</t>
         </is>
       </c>
       <c r="P262" t="inlineStr">
@@ -63365,7 +63365,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>-38.28278233883333,178.33520103151704</t>
+          <t>-38.28278250455905,178.3352007616552</t>
         </is>
       </c>
       <c r="P263" t="inlineStr">
@@ -63482,7 +63482,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>-38.28273698520667,178.3352748836663</t>
+          <t>-38.2827361565773,178.33527623297388</t>
         </is>
       </c>
       <c r="P264" t="inlineStr">
@@ -63692,7 +63692,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>-38.28282354928021,178.33513392582807</t>
+          <t>-38.28282150533121,178.33513725412814</t>
         </is>
       </c>
       <c r="P266" t="inlineStr">
@@ -63910,7 +63910,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>-38.28278819447526,178.3351914963971</t>
+          <t>-38.282786868669604,178.33519365529233</t>
         </is>
       </c>
       <c r="P268" t="inlineStr">
@@ -63999,7 +63999,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>-38.28287426128589,178.3350513479428</t>
+          <t>-38.28287636047458,178.33504792968355</t>
         </is>
       </c>
       <c r="P269" t="inlineStr">
@@ -64116,7 +64116,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>-38.28281244566441,178.33515200659107</t>
+          <t>-38.282811285585,178.3351538956257</t>
         </is>
       </c>
       <c r="P270" t="inlineStr">
@@ -64225,7 +64225,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>-38.28284288392882,178.3351024418988</t>
+          <t>-38.28284371255645,178.33510109258717</t>
         </is>
       </c>
       <c r="P271" t="inlineStr">
@@ -64342,7 +64342,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>-38.282898954368505,178.33501113840683</t>
+          <t>-38.28289784953285,178.3350129374918</t>
         </is>
       </c>
       <c r="P272" t="inlineStr">
@@ -64459,7 +64459,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>-38.28285713632228,178.33507923373423</t>
+          <t>-38.282858020191505,178.33507779446794</t>
         </is>
       </c>
       <c r="P273" t="inlineStr">
@@ -64576,7 +64576,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>-38.28281487630689,178.33514804861358</t>
+          <t>-38.28281598114433,178.33514624953284</t>
         </is>
       </c>
       <c r="P274" t="inlineStr">
@@ -64693,7 +64693,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>-38.28283697305131,178.3351120669876</t>
+          <t>-38.282838685548604,178.3351092784106</t>
         </is>
       </c>
       <c r="P275" t="inlineStr">
@@ -64790,7 +64790,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>-38.28291077610853,178.334991888194</t>
+          <t>-38.28290917409719,178.3349944968681</t>
         </is>
       </c>
       <c r="P276" t="inlineStr">
@@ -64907,7 +64907,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>-38.2828314488661,178.33512106239615</t>
+          <t>-38.28283155934981,178.335120882488</t>
         </is>
       </c>
       <c r="P277" t="inlineStr">
@@ -65020,7 +65020,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>-38.28285476092365,178.33508310176234</t>
+          <t>-38.282856528662165,178.33508022322982</t>
         </is>
       </c>
       <c r="P278" t="inlineStr">
@@ -65117,7 +65117,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>-38.282859732688095,178.3350750058893</t>
+          <t>-38.28285840688428,178.33507716478888</t>
         </is>
       </c>
       <c r="P279" t="inlineStr">
@@ -65230,7 +65230,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>-38.28290602531614,178.3349996242616</t>
+          <t>-38.282906577733876,178.33499872471893</t>
         </is>
       </c>
       <c r="P280" t="inlineStr">
@@ -65347,7 +65347,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>-38.28281471058126,178.33514831847572</t>
+          <t>-38.28281360574379,178.33515011755642</t>
         </is>
       </c>
       <c r="P281" t="inlineStr">
@@ -65464,7 +65464,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>-38.282713783579425,178.33531266426638</t>
+          <t>-38.28271571704875,178.335309515884</t>
         </is>
       </c>
       <c r="P282" t="inlineStr">
@@ -65682,7 +65682,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>-38.28272698641145,178.33529116530892</t>
+          <t>-38.282727428347194,178.3352904456784</t>
         </is>
       </c>
       <c r="P284" t="inlineStr">
@@ -65965,7 +65965,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>-38.28269350976795,178.33534567729433</t>
+          <t>-38.28269146581376,178.33534900558217</t>
         </is>
       </c>
       <c r="P287" t="inlineStr">
@@ -66074,7 +66074,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>-38.28270157509991,178.3353325440484</t>
+          <t>-38.28270312187575,178.33533002534338</t>
         </is>
       </c>
       <c r="P288" t="inlineStr">
@@ -66191,7 +66191,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>-38.28280692147654,178.33516100199347</t>
+          <t>-38.28280747389536,178.3351601024533</t>
         </is>
       </c>
       <c r="P289" t="inlineStr">
@@ -66308,7 +66308,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>-38.28273858722339,178.3352722750049</t>
+          <t>-38.28273908440099,178.3352714654203</t>
         </is>
       </c>
       <c r="P290" t="inlineStr">
@@ -66425,7 +66425,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>-38.28276040779111,178.3352367432259</t>
+          <t>-38.28276156787166,178.33523485419397</t>
         </is>
       </c>
       <c r="P291" t="inlineStr">
@@ -66522,7 +66522,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>-38.2828534351197,178.3350852606616</t>
+          <t>-38.28285520285828,178.3350823821292</t>
         </is>
       </c>
       <c r="P292" t="inlineStr">
@@ -66619,7 +66619,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>-38.282874206044085,178.33505143789696</t>
+          <t>-38.28287282499883,178.33505368675162</t>
         </is>
       </c>
       <c r="P293" t="inlineStr">
@@ -66837,7 +66837,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>-38.28276874932212,178.33522316018556</t>
+          <t>-38.2827684178706,178.33522369990908</t>
         </is>
       </c>
       <c r="P295" t="inlineStr">
@@ -66954,7 +66954,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>-38.28282211299173,178.33513626463352</t>
+          <t>-38.282820566219485,178.33513878334705</t>
         </is>
       </c>
       <c r="P296" t="inlineStr">
@@ -67071,7 +67071,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>-38.2827835541553,178.33519905253002</t>
+          <t>-38.28278449326771,178.3351975233127</t>
         </is>
       </c>
       <c r="P297" t="inlineStr">
@@ -67188,7 +67188,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>-38.282786316250565,178.33519455483196</t>
+          <t>-38.28278394084865,178.3351984228523</t>
         </is>
       </c>
       <c r="P298" t="inlineStr">
@@ -67297,7 +67297,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>-38.28277626222308,178.33521092645117</t>
+          <t>-38.28277753278711,178.33520885751057</t>
         </is>
       </c>
       <c r="P299" t="inlineStr">
@@ -67414,7 +67414,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>-38.282753060613636,178.33524870709317</t>
+          <t>-38.28275223198455,178.33525005640132</t>
         </is>
       </c>
       <c r="P300" t="inlineStr">
@@ -67531,7 +67531,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>-38.28288608303162,178.33503209774338</t>
+          <t>-38.28288818221983,178.335028679483</t>
         </is>
       </c>
       <c r="P301" t="inlineStr">
@@ -67745,7 +67745,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>-38.28294182197354,178.3349413338662</t>
+          <t>-38.28294187721528,178.33494124391186</t>
         </is>
       </c>
       <c r="P303" t="inlineStr">
@@ -68076,7 +68076,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>-38.282825703712845,178.33513041761964</t>
+          <t>-38.28282719524309,178.33512798885985</t>
         </is>
       </c>
       <c r="P306" t="inlineStr">
@@ -68193,7 +68193,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>-38.282806037606434,178.33516244125772</t>
+          <t>-38.282807639621,178.33515983259122</t>
         </is>
       </c>
       <c r="P307" t="inlineStr">
@@ -68310,7 +68310,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>-38.28291204666922,178.3349898192455</t>
+          <t>-38.282911549493285,178.33499062883408</t>
         </is>
       </c>
       <c r="P308" t="inlineStr">
@@ -68427,7 +68427,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>-38.28280255736772,178.33516810836036</t>
+          <t>-38.28280310978658,178.33516720882028</t>
         </is>
       </c>
       <c r="P309" t="inlineStr">
@@ -68645,7 +68645,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>-38.28281796985168,178.33514301118728</t>
+          <t>-38.28281979283334,178.33514004270376</t>
         </is>
       </c>
       <c r="P311" t="inlineStr">
@@ -68762,7 +68762,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>-38.282730687623165,178.33528513840307</t>
+          <t>-38.282731019074944,178.33528459868015</t>
         </is>
       </c>
       <c r="P312" t="inlineStr">
@@ -68879,7 +68879,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>-38.282724390038894,178.335295393138</t>
+          <t>-38.28272566060421,178.3352933242004</t>
         </is>
       </c>
       <c r="P313" t="inlineStr">
@@ -68996,7 +68996,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>-38.28275422069437,178.33524681806165</t>
+          <t>-38.282752950129776,178.33524888700092</t>
         </is>
       </c>
       <c r="P314" t="inlineStr">
@@ -69170,7 +69170,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>-38.28270372953767,178.33532903585208</t>
+          <t>-38.28270461340954,178.335327596592</t>
         </is>
       </c>
       <c r="P316" t="inlineStr">
@@ -69388,7 +69388,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>-38.28283100693125,178.3351217820288</t>
+          <t>-38.28283211176836,178.33511998294722</t>
         </is>
       </c>
       <c r="P318" t="inlineStr">
@@ -69610,7 +69610,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>-38.28284343634724,178.3351015423577</t>
+          <t>-38.282843381105394,178.33510163231182</t>
         </is>
       </c>
       <c r="P320" t="inlineStr">
@@ -69828,7 +69828,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>-38.282825151294226,178.3351313171603</t>
+          <t>-38.2828237150058,178.33513365596585</t>
         </is>
       </c>
       <c r="P322" t="inlineStr">
@@ -69945,7 +69945,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>-38.2829413247979,178.33494214345544</t>
+          <t>-38.28293950182058,178.33494511194917</t>
         </is>
       </c>
       <c r="P323" t="inlineStr">
@@ -70062,7 +70062,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>-38.28282868677327,178.33512556009995</t>
+          <t>-38.28283001257785,178.3351234012022</t>
         </is>
       </c>
       <c r="P324" t="inlineStr">
@@ -70179,7 +70179,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>-38.282878459663195,178.3350445114241</t>
+          <t>-38.28287613950736,178.33504828950032</t>
         </is>
       </c>
       <c r="P325" t="inlineStr">
@@ -70288,7 +70288,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>-38.28290215839176,178.33500592106006</t>
+          <t>-38.282900556380156,178.3350085297335</t>
         </is>
       </c>
       <c r="P326" t="inlineStr">
@@ -70393,7 +70393,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>-38.282863157681106,178.33506942873169</t>
+          <t>-38.28286150042645,178.33507212735643</t>
         </is>
       </c>
       <c r="P327" t="inlineStr">
@@ -70486,7 +70486,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>-38.28279736463014,178.33517656403626</t>
+          <t>-38.28279913237065,178.33517368550844</t>
         </is>
       </c>
       <c r="P328" t="inlineStr">
@@ -70603,7 +70603,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>-38.282798635193636,178.3351744950944</t>
+          <t>-38.28279797229094,178.33517557454235</t>
         </is>
       </c>
       <c r="P329" t="inlineStr">
@@ -70720,7 +70720,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>-38.28276814166099,178.33522414967868</t>
+          <t>-38.28276653964518,178.33522675834226</t>
         </is>
       </c>
       <c r="P330" t="inlineStr">
@@ -70954,7 +70954,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>-38.28280438034994,178.3351651398781</t>
+          <t>-38.282803883172974,178.33516594946417</t>
         </is>
       </c>
       <c r="P332" t="inlineStr">
@@ -71071,7 +71071,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>-38.28278073681798,178.33520364018165</t>
+          <t>-38.28277902431874,178.33520642875408</t>
         </is>
       </c>
       <c r="P333" t="inlineStr">
@@ -71188,7 +71188,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>-38.28281117510126,178.33515407553375</t>
+          <t>-38.28281261139005,178.335151736729</t>
         </is>
       </c>
       <c r="P334" t="inlineStr">
@@ -71305,7 +71305,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>-38.28277482593328,178.33521326525354</t>
+          <t>-38.28277537835243,178.33521236571417</t>
         </is>
       </c>
       <c r="P335" t="inlineStr">
@@ -71422,7 +71422,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>-38.28275836383959,178.33524007152002</t>
+          <t>-38.28275935819438,178.33523845234993</t>
         </is>
       </c>
       <c r="P336" t="inlineStr">
@@ -71539,7 +71539,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>-38.28277963197977,178.33520543926062</t>
+          <t>-38.28278046060842,178.33520408995142</t>
         </is>
       </c>
       <c r="P337" t="inlineStr">
@@ -71656,7 +71656,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>-38.28276178883938,178.33523449437837</t>
+          <t>-38.28276339085534,178.33523188571513</t>
         </is>
       </c>
       <c r="P338" t="inlineStr">
@@ -71773,7 +71773,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>-38.282752839645894,178.3352490669087</t>
+          <t>-38.282751679565145,178.3352509559401</t>
         </is>
       </c>
       <c r="P339" t="inlineStr">
@@ -71890,7 +71890,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>-38.28283056499642,178.33512250166143</t>
+          <t>-38.28283150410795,178.3351209724421</t>
         </is>
       </c>
       <c r="P340" t="inlineStr">
@@ -72072,7 +72072,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>-38.2828009001111,178.33517080698044</t>
+          <t>-38.282799795273334,178.33517260606047</t>
         </is>
       </c>
       <c r="P342" t="inlineStr">
@@ -72189,7 +72189,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>-38.28278106826944,178.33520310045796</t>
+          <t>-38.28278151020471,178.33520238082636</t>
         </is>
       </c>
       <c r="P343" t="inlineStr">
@@ -72306,7 +72306,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>-38.28277896907684,178.335206518708</t>
+          <t>-38.2827793005283,178.33520597898433</t>
         </is>
       </c>
       <c r="P344" t="inlineStr">
@@ -72569,7 +72569,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>-38.28281614686994,178.3351459796707</t>
+          <t>-38.28281741743297,178.33514391072774</t>
         </is>
       </c>
       <c r="P347" t="inlineStr">
@@ -72723,7 +72723,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>-38.28284586698825,178.33509758437677</t>
+          <t>-38.282845922230095,178.33509749442266</t>
         </is>
       </c>
       <c r="P349" t="inlineStr">
@@ -72840,7 +72840,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>-38.28290823498707,178.33499602609075</t>
+          <t>-38.28290989224021,178.33499332746248</t>
         </is>
       </c>
       <c r="P350" t="inlineStr">
@@ -72921,7 +72921,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>-38.28289398260785,178.33501923428878</t>
+          <t>-38.28289453502573,178.3350183347464</t>
         </is>
       </c>
       <c r="P351" t="inlineStr">
@@ -73026,7 +73026,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>-38.28292690670266,178.33496562153812</t>
+          <t>-38.28292701718617,178.33496544162946</t>
         </is>
       </c>
       <c r="P352" t="inlineStr">
@@ -73143,7 +73143,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>-38.2828885136706,178.33502813975764</t>
+          <t>-38.28288796125265,178.33502903929988</t>
         </is>
       </c>
       <c r="P353" t="inlineStr">
@@ -73260,7 +73260,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>-38.28293232039408,178.33495680601393</t>
+          <t>-38.282930552658165,178.3349596845526</t>
         </is>
       </c>
       <c r="P354" t="inlineStr">
@@ -73377,7 +73377,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>-38.28291762608748,178.33498073386212</t>
+          <t>-38.282916134559876,178.33498316262813</t>
         </is>
       </c>
       <c r="P355" t="inlineStr">
@@ -73494,7 +73494,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>-38.282872106855294,178.335054856156</t>
+          <t>-38.282870836293625,178.33505692510212</t>
         </is>
       </c>
       <c r="P356" t="inlineStr">
@@ -73611,7 +73611,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>-38.28290199266643,178.33500619092283</t>
+          <t>-38.282900832589064,178.3350080799622</t>
         </is>
       </c>
       <c r="P357" t="inlineStr">
@@ -73773,7 +73773,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>-38.28287575281472,178.33504891917966</t>
+          <t>-38.2828756975729,178.33504900913383</t>
         </is>
       </c>
       <c r="P359" t="inlineStr">
@@ -73846,7 +73846,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>-38.28279338721378,178.33518304072336</t>
+          <t>-38.28279504447063,178.33518034210383</t>
         </is>
       </c>
       <c r="P360" t="inlineStr">
@@ -73963,7 +73963,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>-38.282770351337874,178.33522055152184</t>
+          <t>-38.28277222956316,178.33521749308835</t>
         </is>
       </c>
       <c r="P361" t="inlineStr">
@@ -74210,7 +74210,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>-38.282769246499434,178.3352223506003</t>
+          <t>-38.28276974367673,178.33522154101502</t>
         </is>
       </c>
       <c r="P364" t="inlineStr">
@@ -74400,7 +74400,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>-38.282755159807316,178.3352452888456</t>
+          <t>-38.282753557791104,178.33524789750825</t>
         </is>
       </c>
       <c r="P366" t="inlineStr">
@@ -74517,7 +74517,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>-38.282871996371675,178.33505503606435</t>
+          <t>-38.28287304596608,178.33505332693488</t>
         </is>
       </c>
       <c r="P367" t="inlineStr">
@@ -74634,7 +74634,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>-38.282852993185045,178.33508598029468</t>
+          <t>-38.28285326939421,178.335085530524</t>
         </is>
       </c>
       <c r="P368" t="inlineStr">
@@ -74751,7 +74751,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>-38.282864096792046,178.33506789951096</t>
+          <t>-38.28286404155022,178.3350679894651</t>
         </is>
       </c>
       <c r="P369" t="inlineStr">
@@ -74868,7 +74868,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>-38.282897020906084,178.33501428680552</t>
+          <t>-38.2828983467089,178.33501212790355</t>
         </is>
       </c>
       <c r="P370" t="inlineStr">
@@ -74985,7 +74985,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>-38.28278449326771,178.3351975233127</t>
+          <t>-38.282786040041046,178.3351950046018</t>
         </is>
       </c>
       <c r="P371" t="inlineStr">
@@ -75102,7 +75102,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>-38.28276946746713,178.3352219907846</t>
+          <t>-38.28276781020943,178.3352246894022</t>
         </is>
       </c>
       <c r="P372" t="inlineStr">
@@ -75219,7 +75219,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>-38.282760352549175,178.33523683317978</t>
+          <t>-38.28276084972655,178.33523602359466</t>
         </is>
       </c>
       <c r="P373" t="inlineStr">
@@ -75336,7 +75336,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>-38.282726765443584,178.33529152512418</t>
+          <t>-38.28272615778192,178.3352925146161</t>
         </is>
       </c>
       <c r="P374" t="inlineStr">
@@ -75453,7 +75453,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>-38.28280305454469,178.33516729877428</t>
+          <t>-38.28280183922318,178.3351692777624</t>
         </is>
       </c>
       <c r="P375" t="inlineStr">
@@ -75570,7 +75570,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>-38.28276062875884,178.3352363834103</t>
+          <t>-38.282762672710255,178.3352330551159</t>
         </is>
       </c>
       <c r="P376" t="inlineStr">
@@ -75687,7 +75687,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>-38.28273626706122,178.3352760530662</t>
+          <t>-38.28273505173813,178.33527803205058</t>
         </is>
       </c>
       <c r="P377" t="inlineStr">
@@ -75804,7 +75804,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>-38.2827651033551,178.33522909714398</t>
+          <t>-38.28276399851655,178.33523089622216</t>
         </is>
       </c>
       <c r="P378" t="inlineStr">
@@ -75921,7 +75921,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>-38.282741625530846,178.33526732754333</t>
+          <t>-38.28274234367622,178.33526615814324</t>
         </is>
       </c>
       <c r="P379" t="inlineStr">
@@ -76038,7 +76038,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>-38.28278963076469,178.33518915759385</t>
+          <t>-38.28278968600659,178.33518906763987</t>
         </is>
       </c>
       <c r="P380" t="inlineStr">
@@ -76155,7 +76155,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>-38.28274637633851,178.33525959151163</t>
+          <t>-38.282745381983446,178.33526121068113</t>
         </is>
       </c>
       <c r="P381" t="inlineStr">
@@ -76272,7 +76272,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>-38.28281410292066,178.33514930797008</t>
+          <t>-38.28281250090628,178.33515191663705</t>
         </is>
       </c>
       <c r="P382" t="inlineStr">
@@ -76442,7 +76442,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>-38.282792613827226,178.3351843000791</t>
+          <t>-38.282793331971874,178.33518313067734</t>
         </is>
       </c>
       <c r="P384" t="inlineStr">
@@ -76559,7 +76559,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>-38.282851059720905,178.33508912868925</t>
+          <t>-38.282850396818894,178.3350902081388</t>
         </is>
       </c>
       <c r="P385" t="inlineStr">
@@ -76676,7 +76676,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>-38.28281100937563,178.33515434539584</t>
+          <t>-38.28281134082688,178.33515380567167</t>
         </is>
       </c>
       <c r="P386" t="inlineStr">
@@ -76793,7 +76793,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>-38.28284686134135,178.33509596520267</t>
+          <t>-38.282844872635124,178.33509920355084</t>
         </is>
       </c>
       <c r="P387" t="inlineStr">
@@ -76910,7 +76910,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>-38.28281145131064,178.3351536257636</t>
+          <t>-38.28281261139005,178.335151736729</t>
         </is>
       </c>
       <c r="P388" t="inlineStr">
@@ -77027,7 +77027,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>-38.28274897270995,178.33525536367992</t>
+          <t>-38.28275040900047,178.33525302487925</t>
         </is>
       </c>
       <c r="P389" t="inlineStr">
@@ -77144,7 +77144,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>-38.28277593077159,178.3352114661748</t>
+          <t>-38.282777311819444,178.3352092173263</t>
         </is>
       </c>
       <c r="P390" t="inlineStr">
@@ -77261,7 +77261,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>-38.2829085664377,178.3349954863651</t>
+          <t>-38.282906964426296,178.33499809503903</t>
         </is>
       </c>
       <c r="P391" t="inlineStr">
@@ -77378,7 +77378,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>-38.28277802996433,178.33520804792508</t>
+          <t>-38.282777311819444,178.3352092173263</t>
         </is>
       </c>
       <c r="P392" t="inlineStr">
@@ -77495,7 +77495,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>-38.28275438642019,178.33524654820002</t>
+          <t>-38.282754883597626,178.33524573861504</t>
         </is>
       </c>
       <c r="P393" t="inlineStr">
@@ -77612,7 +77612,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>-38.2827901831837,178.3351882580541</t>
+          <t>-38.28279079084459,178.3351872685604</t>
         </is>
       </c>
       <c r="P394" t="inlineStr">
@@ -77729,7 +77729,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>-38.28279454729358,178.3351811516897</t>
+          <t>-38.28279344245567,178.33518295076937</t>
         </is>
       </c>
       <c r="P395" t="inlineStr">
@@ -77846,7 +77846,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>-38.282837746437195,178.33511080763026</t>
+          <t>-38.282836531116516,178.33511278662033</t>
         </is>
       </c>
       <c r="P396" t="inlineStr">
@@ -77963,7 +77963,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>-38.28279465777737,178.33518097178174</t>
+          <t>-38.282795817857135,178.335179082748</t>
         </is>
       </c>
       <c r="P397" t="inlineStr">
@@ -78080,7 +78080,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>-38.282708369864885,178.3353214797362</t>
+          <t>-38.28270726502511,178.3353232788115</t>
         </is>
       </c>
       <c r="P398" t="inlineStr">
@@ -78197,7 +78197,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>-38.28282349403835,178.3351340157821</t>
+          <t>-38.282824322666286,178.3351326664712</t>
         </is>
       </c>
       <c r="P399" t="inlineStr">
@@ -78314,7 +78314,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>-38.28282813435469,178.33512645964066</t>
+          <t>-38.282828300080254,178.33512618977844</t>
         </is>
       </c>
       <c r="P400" t="inlineStr">
@@ -78431,7 +78431,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>-38.28281084364999,178.33515461525792</t>
+          <t>-38.28281139606876,178.33515371571764</t>
         </is>
       </c>
       <c r="P401" t="inlineStr">
@@ -78548,7 +78548,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>-38.28283940369261,178.33510810900734</t>
+          <t>-38.282838243613824,178.3351099980434</t>
         </is>
       </c>
       <c r="P402" t="inlineStr">
@@ -78665,7 +78665,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>-38.28291276481219,178.33498864983983</t>
+          <t>-38.28291127328444,178.33499107860547</t>
         </is>
       </c>
       <c r="P403" t="inlineStr">
@@ -78782,7 +78782,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>-38.28279393963273,178.33518214118354</t>
+          <t>-38.28279432632599,178.33518151150562</t>
         </is>
       </c>
       <c r="P404" t="inlineStr">
@@ -78899,7 +78899,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>-38.28282802387096,178.3351266395488</t>
+          <t>-38.28282923919184,178.33512466055925</t>
         </is>
       </c>
       <c r="P405" t="inlineStr">
